--- a/Projects/STYR-N/Treat4_S1_S3.xlsx
+++ b/Projects/STYR-N/Treat4_S1_S3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="33">
   <si>
     <t>treatment</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Aert</t>
   </si>
   <si>
-    <t>Vinterrug</t>
-  </si>
-  <si>
     <t>Spring Barley/Ryegrass</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>cut</t>
+  </si>
+  <si>
+    <t>Rug</t>
   </si>
 </sst>
 </file>
@@ -290,7 +290,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -430,6 +430,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,7 +784,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="72">
         <v>34487</v>
@@ -825,7 +828,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="74">
         <v>34852</v>
@@ -1158,7 +1161,7 @@
         <v>36259</v>
       </c>
       <c r="F21" s="79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1192,7 +1195,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" s="77">
         <v>36668</v>
@@ -1235,7 +1238,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="77">
         <v>37050</v>
@@ -1527,7 +1530,7 @@
         <v>38176</v>
       </c>
       <c r="F39" s="51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1685,7 +1688,7 @@
         <v>7</v>
       </c>
       <c r="D47" s="73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E47" s="65">
         <v>38874</v>
@@ -1750,7 +1753,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E50" s="68">
         <v>38910</v>
@@ -1771,7 +1774,7 @@
         <v>7</v>
       </c>
       <c r="D51" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E51" s="68">
         <v>38952</v>
@@ -1792,7 +1795,7 @@
         <v>7</v>
       </c>
       <c r="D52" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E52" s="68">
         <v>39001</v>
@@ -1836,7 +1839,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E54" s="68">
         <v>39226</v>
@@ -1880,7 +1883,7 @@
         <v>7</v>
       </c>
       <c r="D56" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E56" s="68">
         <v>39266</v>
@@ -1901,7 +1904,7 @@
         <v>7</v>
       </c>
       <c r="D57" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E57" s="68">
         <v>39301</v>
@@ -1922,7 +1925,7 @@
         <v>7</v>
       </c>
       <c r="D58" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E58" s="68">
         <v>39371</v>
@@ -1966,7 +1969,7 @@
         <v>7</v>
       </c>
       <c r="D60" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E60" s="68">
         <v>39595</v>
@@ -2010,7 +2013,7 @@
         <v>7</v>
       </c>
       <c r="D62" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E62" s="68">
         <v>39637</v>
@@ -2031,7 +2034,7 @@
         <v>7</v>
       </c>
       <c r="D63" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E63" s="68">
         <v>39679</v>
@@ -2052,7 +2055,7 @@
         <v>7</v>
       </c>
       <c r="D64" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E64" s="68">
         <v>39735</v>
@@ -2096,7 +2099,7 @@
         <v>7</v>
       </c>
       <c r="D66" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E66" s="68">
         <v>39952</v>
@@ -2182,7 +2185,7 @@
         <v>7</v>
       </c>
       <c r="D70" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E70" s="68">
         <v>40000</v>
@@ -2224,7 +2227,7 @@
         <v>7</v>
       </c>
       <c r="D72" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E72" s="68">
         <v>40039</v>
@@ -2245,7 +2248,7 @@
         <v>7</v>
       </c>
       <c r="D73" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E73" s="68">
         <v>40107</v>
@@ -2417,7 +2420,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="72">
         <v>34487</v>
@@ -2463,7 +2466,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="74">
         <v>34852</v>
@@ -2823,7 +2826,7 @@
         <v>36259</v>
       </c>
       <c r="F21" s="79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" s="81"/>
       <c r="L21" s="1"/>
@@ -2861,7 +2864,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" s="77">
         <v>36668</v>
@@ -2907,7 +2910,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="77">
         <v>37050</v>
@@ -3221,7 +3224,7 @@
         <v>38176</v>
       </c>
       <c r="F39" s="51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G39" s="81"/>
       <c r="L39" s="1"/>
@@ -3391,7 +3394,7 @@
         <v>22</v>
       </c>
       <c r="D47" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E47" s="68">
         <v>38874</v>
@@ -3456,7 +3459,7 @@
         <v>22</v>
       </c>
       <c r="D50" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E50" s="68">
         <v>38910</v>
@@ -3477,7 +3480,7 @@
         <v>22</v>
       </c>
       <c r="D51" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E51" s="68">
         <v>38952</v>
@@ -3498,7 +3501,7 @@
         <v>22</v>
       </c>
       <c r="D52" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E52" s="68">
         <v>39001</v>
@@ -3542,7 +3545,7 @@
         <v>22</v>
       </c>
       <c r="D54" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E54" s="68">
         <v>39226</v>
@@ -3586,7 +3589,7 @@
         <v>22</v>
       </c>
       <c r="D56" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E56" s="68">
         <v>39266</v>
@@ -3607,7 +3610,7 @@
         <v>22</v>
       </c>
       <c r="D57" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E57" s="68">
         <v>39301</v>
@@ -3628,7 +3631,7 @@
         <v>22</v>
       </c>
       <c r="D58" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E58" s="68">
         <v>39371</v>
@@ -6667,10 +6670,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G304"/>
+  <dimension ref="A1:G302"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6799,7 +6802,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="87">
         <v>34852</v>
@@ -6843,7 +6846,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="87">
         <v>35222</v>
@@ -7200,7 +7203,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="77">
         <v>37050</v>
@@ -7244,7 +7247,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" s="61">
         <v>37405</v>
@@ -7618,13 +7621,13 @@
         <v>7</v>
       </c>
       <c r="D45" s="60" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E45" s="61">
-        <v>38452</v>
-      </c>
-      <c r="F45" s="53" t="s">
-        <v>18</v>
+        <v>38601</v>
+      </c>
+      <c r="F45" s="58" t="s">
+        <v>27</v>
       </c>
       <c r="G45" s="51"/>
     </row>
@@ -7642,155 +7645,157 @@
         <v>13</v>
       </c>
       <c r="E46" s="61">
-        <v>38452</v>
-      </c>
-      <c r="F46" s="53" t="s">
-        <v>18</v>
+        <v>38608</v>
+      </c>
+      <c r="F46" s="102" t="s">
+        <v>32</v>
       </c>
       <c r="G46" s="51"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="69">
-        <v>4</v>
-      </c>
-      <c r="B47" s="60">
+      <c r="A47" s="66">
+        <v>4</v>
+      </c>
+      <c r="B47" s="52">
         <v>2</v>
       </c>
-      <c r="C47" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="60" t="s">
+      <c r="C47" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="54">
+        <v>38826</v>
+      </c>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="66">
+        <v>4</v>
+      </c>
+      <c r="B48" s="52">
+        <v>2</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="61">
-        <v>38452</v>
-      </c>
-      <c r="F47" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="51"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="69">
-        <v>4</v>
-      </c>
-      <c r="B48" s="60">
-        <v>2</v>
-      </c>
-      <c r="C48" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="61">
-        <v>38601</v>
-      </c>
-      <c r="F48" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" s="51"/>
+      <c r="E48" s="54">
+        <v>38834</v>
+      </c>
+      <c r="F48" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="52"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="66">
         <v>4</v>
       </c>
-      <c r="B49" s="52">
+      <c r="B49" s="58">
         <v>2</v>
       </c>
-      <c r="C49" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="54">
-        <v>38826</v>
+      <c r="C49" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="67">
+        <v>38887</v>
       </c>
       <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
+      <c r="G49" s="58">
+        <v>32</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="66">
         <v>4</v>
       </c>
-      <c r="B50" s="52">
+      <c r="B50" s="58">
         <v>2</v>
       </c>
-      <c r="C50" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="54">
-        <v>38834</v>
-      </c>
-      <c r="F50" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" s="52"/>
+      <c r="C50" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="67">
+        <v>38906</v>
+      </c>
+      <c r="F50" s="52"/>
+      <c r="G50" s="58">
+        <v>40</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="66">
         <v>4</v>
       </c>
-      <c r="B51" s="58">
+      <c r="B51" s="52">
         <v>2</v>
       </c>
-      <c r="C51" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" s="67">
-        <v>38887</v>
-      </c>
-      <c r="F51" s="52"/>
-      <c r="G51" s="58">
-        <v>32</v>
-      </c>
+      <c r="C51" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="54">
+        <v>38940</v>
+      </c>
+      <c r="F51" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="52"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="66">
-        <v>4</v>
-      </c>
-      <c r="B52" s="58">
+      <c r="A52" s="69">
+        <v>4</v>
+      </c>
+      <c r="B52" s="69">
         <v>2</v>
       </c>
-      <c r="C52" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="67">
-        <v>38906</v>
-      </c>
-      <c r="F52" s="52"/>
-      <c r="G52" s="58">
-        <v>40</v>
+      <c r="C52" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="70">
+        <v>39163</v>
+      </c>
+      <c r="F52" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="63">
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="66">
         <v>4</v>
       </c>
-      <c r="B53" s="52">
+      <c r="B53" s="66">
         <v>2</v>
       </c>
-      <c r="C53" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="54">
-        <v>38940</v>
+      <c r="C53" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="68">
+        <v>39226</v>
       </c>
       <c r="F53" s="52" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G53" s="52"/>
     </row>
@@ -7808,13 +7813,13 @@
         <v>10</v>
       </c>
       <c r="E54" s="70">
-        <v>39163</v>
+        <v>39231</v>
       </c>
       <c r="F54" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G54" s="63">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -7828,10 +7833,10 @@
         <v>7</v>
       </c>
       <c r="D55" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E55" s="68">
-        <v>39226</v>
+        <v>39266</v>
       </c>
       <c r="F55" s="52" t="s">
         <v>9</v>
@@ -7839,27 +7844,25 @@
       <c r="G55" s="52"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="69">
-        <v>4</v>
-      </c>
-      <c r="B56" s="69">
+      <c r="A56" s="66">
+        <v>4</v>
+      </c>
+      <c r="B56" s="66">
         <v>2</v>
       </c>
-      <c r="C56" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="70">
-        <v>39231</v>
-      </c>
-      <c r="F56" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="63">
-        <v>109</v>
-      </c>
+      <c r="C56" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" s="68">
+        <v>39308</v>
+      </c>
+      <c r="F56" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="52"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="66">
@@ -7872,10 +7875,10 @@
         <v>7</v>
       </c>
       <c r="D57" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E57" s="68">
-        <v>39266</v>
+        <v>39371</v>
       </c>
       <c r="F57" s="52" t="s">
         <v>9</v>
@@ -7883,25 +7886,27 @@
       <c r="G57" s="52"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="66">
-        <v>4</v>
-      </c>
-      <c r="B58" s="66">
+      <c r="A58" s="69">
+        <v>4</v>
+      </c>
+      <c r="B58" s="69">
         <v>2</v>
       </c>
-      <c r="C58" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" s="68">
-        <v>39308</v>
-      </c>
-      <c r="F58" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="52"/>
+      <c r="C58" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="70">
+        <v>39546</v>
+      </c>
+      <c r="F58" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="63">
+        <v>100</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="66">
@@ -7914,10 +7919,10 @@
         <v>7</v>
       </c>
       <c r="D59" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E59" s="68">
-        <v>39371</v>
+        <v>39594</v>
       </c>
       <c r="F59" s="52" t="s">
         <v>9</v>
@@ -7938,13 +7943,13 @@
         <v>10</v>
       </c>
       <c r="E60" s="70">
-        <v>39546</v>
+        <v>39603</v>
       </c>
       <c r="F60" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="63">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -7958,10 +7963,10 @@
         <v>7</v>
       </c>
       <c r="D61" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E61" s="68">
-        <v>39594</v>
+        <v>39637</v>
       </c>
       <c r="F61" s="52" t="s">
         <v>9</v>
@@ -7972,24 +7977,22 @@
       <c r="A62" s="69">
         <v>4</v>
       </c>
-      <c r="B62" s="69">
+      <c r="B62" s="58">
         <v>2</v>
       </c>
-      <c r="C62" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="70">
-        <v>39603</v>
-      </c>
-      <c r="F62" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="63">
-        <v>104</v>
-      </c>
+      <c r="C62" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" s="54">
+        <v>39679.4</v>
+      </c>
+      <c r="F62" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" s="52"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="66">
@@ -8002,10 +8005,10 @@
         <v>7</v>
       </c>
       <c r="D63" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E63" s="68">
-        <v>39637</v>
+        <v>39681</v>
       </c>
       <c r="F63" s="52" t="s">
         <v>9</v>
@@ -8013,86 +8016,88 @@
       <c r="G63" s="52"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="69">
-        <v>4</v>
-      </c>
-      <c r="B64" s="58">
+      <c r="A64" s="66">
+        <v>4</v>
+      </c>
+      <c r="B64" s="66">
         <v>2</v>
       </c>
-      <c r="C64" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="E64" s="54">
-        <v>39679.4</v>
-      </c>
-      <c r="F64" s="58" t="s">
+      <c r="C64" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" s="68">
+        <v>39735</v>
+      </c>
+      <c r="F64" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="52"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="69">
+        <v>4</v>
+      </c>
+      <c r="B65" s="58">
+        <v>2</v>
+      </c>
+      <c r="C65" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" s="54">
+        <v>39740.400000000001</v>
+      </c>
+      <c r="F65" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="G64" s="52"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="66">
-        <v>4</v>
-      </c>
-      <c r="B65" s="66">
+      <c r="G65" s="52"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="69">
+        <v>4</v>
+      </c>
+      <c r="B66" s="69">
         <v>2</v>
       </c>
-      <c r="C65" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E65" s="68">
-        <v>39681</v>
-      </c>
-      <c r="F65" s="52" t="s">
+      <c r="C66" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="70">
+        <v>39898</v>
+      </c>
+      <c r="F66" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="63">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="66">
+        <v>4</v>
+      </c>
+      <c r="B67" s="66">
+        <v>2</v>
+      </c>
+      <c r="C67" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" s="68">
+        <v>39959</v>
+      </c>
+      <c r="F67" s="52" t="s">
         <v>9</v>
-      </c>
-      <c r="G65" s="52"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="66">
-        <v>4</v>
-      </c>
-      <c r="B66" s="66">
-        <v>2</v>
-      </c>
-      <c r="C66" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E66" s="68">
-        <v>39735</v>
-      </c>
-      <c r="F66" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" s="52"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="69">
-        <v>4</v>
-      </c>
-      <c r="B67" s="58">
-        <v>2</v>
-      </c>
-      <c r="C67" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="E67" s="54">
-        <v>39740.400000000001</v>
-      </c>
-      <c r="F67" s="58" t="s">
-        <v>26</v>
       </c>
       <c r="G67" s="52"/>
     </row>
@@ -8110,79 +8115,77 @@
         <v>10</v>
       </c>
       <c r="E68" s="70">
-        <v>39898</v>
+        <v>39962</v>
       </c>
       <c r="F68" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G68" s="63">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="66">
         <v>4</v>
       </c>
-      <c r="B69" s="66">
+      <c r="B69" s="58">
         <v>2</v>
       </c>
-      <c r="C69" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E69" s="68">
-        <v>39959</v>
-      </c>
-      <c r="F69" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="52"/>
+      <c r="C69" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" s="67">
+        <v>39968</v>
+      </c>
+      <c r="F69" s="52"/>
+      <c r="G69" s="58">
+        <v>43</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="69">
-        <v>4</v>
-      </c>
-      <c r="B70" s="69">
+      <c r="A70" s="66">
+        <v>4</v>
+      </c>
+      <c r="B70" s="58">
         <v>2</v>
       </c>
-      <c r="C70" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="70">
-        <v>39962</v>
-      </c>
-      <c r="F70" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="63">
-        <v>91</v>
+      <c r="C70" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" s="67">
+        <v>39989</v>
+      </c>
+      <c r="F70" s="52"/>
+      <c r="G70" s="58">
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="66">
         <v>4</v>
       </c>
-      <c r="B71" s="58">
+      <c r="B71" s="66">
         <v>2</v>
       </c>
-      <c r="C71" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E71" s="67">
-        <v>39968</v>
-      </c>
-      <c r="F71" s="52"/>
-      <c r="G71" s="58">
-        <v>43</v>
-      </c>
+      <c r="C71" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" s="68">
+        <v>40000</v>
+      </c>
+      <c r="F71" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="52"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="66">
@@ -8198,11 +8201,11 @@
         <v>20</v>
       </c>
       <c r="E72" s="67">
-        <v>39989</v>
+        <v>40003</v>
       </c>
       <c r="F72" s="52"/>
       <c r="G72" s="58">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -8216,10 +8219,10 @@
         <v>7</v>
       </c>
       <c r="D73" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E73" s="68">
-        <v>40000</v>
+        <v>40045</v>
       </c>
       <c r="F73" s="52" t="s">
         <v>9</v>
@@ -8230,43 +8233,45 @@
       <c r="A74" s="66">
         <v>4</v>
       </c>
-      <c r="B74" s="58">
+      <c r="B74" s="66">
         <v>2</v>
       </c>
-      <c r="C74" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E74" s="67">
-        <v>40003</v>
-      </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="58">
-        <v>45</v>
-      </c>
+      <c r="C74" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" s="68">
+        <v>40106</v>
+      </c>
+      <c r="F74" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="52"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="66">
-        <v>4</v>
-      </c>
-      <c r="B75" s="66">
+      <c r="A75" s="69">
+        <v>4</v>
+      </c>
+      <c r="B75" s="69">
         <v>2</v>
       </c>
-      <c r="C75" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E75" s="68">
-        <v>40045</v>
-      </c>
-      <c r="F75" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" s="52"/>
+      <c r="C75" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="70">
+        <v>40262</v>
+      </c>
+      <c r="F75" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="63">
+        <v>111</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="66">
@@ -8279,15 +8284,15 @@
         <v>7</v>
       </c>
       <c r="D76" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E76" s="68">
-        <v>40106</v>
+        <v>40337</v>
       </c>
       <c r="F76" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G76" s="52"/>
+      <c r="G76" s="92"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="69">
@@ -8303,58 +8308,56 @@
         <v>10</v>
       </c>
       <c r="E77" s="70">
-        <v>40262</v>
+        <v>40343</v>
       </c>
       <c r="F77" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="63">
-        <v>111</v>
+      <c r="G77" s="96">
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="66">
         <v>4</v>
       </c>
-      <c r="B78" s="66">
+      <c r="B78" s="58">
         <v>2</v>
       </c>
-      <c r="C78" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E78" s="68">
-        <v>40337</v>
-      </c>
-      <c r="F78" s="52" t="s">
+      <c r="C78" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" s="67">
+        <v>40364</v>
+      </c>
+      <c r="F78" s="52"/>
+      <c r="G78" s="94">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="66">
+        <v>4</v>
+      </c>
+      <c r="B79" s="66">
+        <v>2</v>
+      </c>
+      <c r="C79" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E79" s="68">
+        <v>40373</v>
+      </c>
+      <c r="F79" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G78" s="92"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="69">
-        <v>4</v>
-      </c>
-      <c r="B79" s="69">
-        <v>2</v>
-      </c>
-      <c r="C79" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="70">
-        <v>40343</v>
-      </c>
-      <c r="F79" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" s="96">
-        <v>106</v>
-      </c>
+      <c r="G79" s="52"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="66">
@@ -8370,10 +8373,10 @@
         <v>20</v>
       </c>
       <c r="E80" s="67">
-        <v>40364</v>
+        <v>40388</v>
       </c>
       <c r="F80" s="52"/>
-      <c r="G80" s="94">
+      <c r="G80" s="58">
         <v>40</v>
       </c>
     </row>
@@ -8388,10 +8391,10 @@
         <v>7</v>
       </c>
       <c r="D81" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E81" s="68">
-        <v>40373</v>
+        <v>40416</v>
       </c>
       <c r="F81" s="52" t="s">
         <v>9</v>
@@ -8402,64 +8405,40 @@
       <c r="A82" s="66">
         <v>4</v>
       </c>
-      <c r="B82" s="58">
+      <c r="B82" s="66">
         <v>2</v>
       </c>
-      <c r="C82" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E82" s="67">
-        <v>40388</v>
-      </c>
-      <c r="F82" s="52"/>
-      <c r="G82" s="58">
-        <v>40</v>
-      </c>
+      <c r="C82" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E82" s="68">
+        <v>40463</v>
+      </c>
+      <c r="F82" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="52"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="66">
-        <v>4</v>
-      </c>
-      <c r="B83" s="66">
-        <v>2</v>
-      </c>
-      <c r="C83" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E83" s="68">
-        <v>40416</v>
-      </c>
-      <c r="F83" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" s="52"/>
+      <c r="A83" s="69"/>
+      <c r="B83" s="75"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="75"/>
+      <c r="E83" s="87"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="75"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="66">
-        <v>4</v>
-      </c>
-      <c r="B84" s="66">
-        <v>2</v>
-      </c>
-      <c r="C84" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E84" s="68">
-        <v>40463</v>
-      </c>
-      <c r="F84" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84" s="52"/>
+      <c r="A84" s="69"/>
+      <c r="B84" s="75"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="75"/>
+      <c r="E84" s="87"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="46"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="69"/>
@@ -8467,8 +8446,8 @@
       <c r="C85" s="46"/>
       <c r="D85" s="75"/>
       <c r="E85" s="87"/>
-      <c r="F85" s="46"/>
-      <c r="G85" s="75"/>
+      <c r="F85" s="75"/>
+      <c r="G85" s="46"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="69"/>
@@ -8476,8 +8455,8 @@
       <c r="C86" s="46"/>
       <c r="D86" s="75"/>
       <c r="E86" s="87"/>
-      <c r="F86" s="52"/>
-      <c r="G86" s="46"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="58"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="69"/>
@@ -8494,8 +8473,8 @@
       <c r="C88" s="46"/>
       <c r="D88" s="75"/>
       <c r="E88" s="87"/>
-      <c r="F88" s="75"/>
-      <c r="G88" s="58"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="75"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="69"/>
@@ -8521,7 +8500,7 @@
       <c r="C91" s="46"/>
       <c r="D91" s="75"/>
       <c r="E91" s="87"/>
-      <c r="F91" s="75"/>
+      <c r="F91" s="52"/>
       <c r="G91" s="46"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -8530,8 +8509,8 @@
       <c r="C92" s="46"/>
       <c r="D92" s="75"/>
       <c r="E92" s="87"/>
-      <c r="F92" s="46"/>
-      <c r="G92" s="75"/>
+      <c r="F92" s="75"/>
+      <c r="G92" s="46"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="69"/>
@@ -8539,25 +8518,25 @@
       <c r="C93" s="46"/>
       <c r="D93" s="75"/>
       <c r="E93" s="87"/>
-      <c r="F93" s="52"/>
+      <c r="F93" s="75"/>
       <c r="G93" s="46"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="69"/>
-      <c r="B94" s="75"/>
+      <c r="B94" s="78"/>
       <c r="C94" s="46"/>
       <c r="D94" s="75"/>
-      <c r="E94" s="87"/>
-      <c r="F94" s="75"/>
-      <c r="G94" s="46"/>
+      <c r="E94" s="90"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="78"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="69"/>
-      <c r="B95" s="75"/>
+      <c r="B95" s="78"/>
       <c r="C95" s="46"/>
       <c r="D95" s="75"/>
-      <c r="E95" s="87"/>
-      <c r="F95" s="75"/>
+      <c r="E95" s="90"/>
+      <c r="F95" s="52"/>
       <c r="G95" s="46"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -8566,8 +8545,8 @@
       <c r="C96" s="46"/>
       <c r="D96" s="75"/>
       <c r="E96" s="90"/>
-      <c r="F96" s="46"/>
-      <c r="G96" s="78"/>
+      <c r="F96" s="78"/>
+      <c r="G96" s="46"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="69"/>
@@ -8575,7 +8554,7 @@
       <c r="C97" s="46"/>
       <c r="D97" s="75"/>
       <c r="E97" s="90"/>
-      <c r="F97" s="52"/>
+      <c r="F97" s="78"/>
       <c r="G97" s="46"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -8583,17 +8562,17 @@
       <c r="B98" s="78"/>
       <c r="C98" s="46"/>
       <c r="D98" s="75"/>
-      <c r="E98" s="90"/>
-      <c r="F98" s="78"/>
-      <c r="G98" s="46"/>
+      <c r="E98" s="87"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="75"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="69"/>
       <c r="B99" s="78"/>
       <c r="C99" s="46"/>
       <c r="D99" s="75"/>
-      <c r="E99" s="90"/>
-      <c r="F99" s="78"/>
+      <c r="E99" s="87"/>
+      <c r="F99" s="52"/>
       <c r="G99" s="46"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -8602,8 +8581,8 @@
       <c r="C100" s="46"/>
       <c r="D100" s="75"/>
       <c r="E100" s="87"/>
-      <c r="F100" s="46"/>
-      <c r="G100" s="75"/>
+      <c r="F100" s="75"/>
+      <c r="G100" s="46"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="69"/>
@@ -8611,7 +8590,7 @@
       <c r="C101" s="46"/>
       <c r="D101" s="75"/>
       <c r="E101" s="87"/>
-      <c r="F101" s="52"/>
+      <c r="F101" s="75"/>
       <c r="G101" s="46"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -8619,17 +8598,17 @@
       <c r="B102" s="78"/>
       <c r="C102" s="46"/>
       <c r="D102" s="75"/>
-      <c r="E102" s="87"/>
-      <c r="F102" s="75"/>
-      <c r="G102" s="46"/>
+      <c r="E102" s="90"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="78"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="69"/>
       <c r="B103" s="78"/>
       <c r="C103" s="46"/>
       <c r="D103" s="75"/>
-      <c r="E103" s="87"/>
-      <c r="F103" s="75"/>
+      <c r="E103" s="90"/>
+      <c r="F103" s="52"/>
       <c r="G103" s="46"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -8638,8 +8617,8 @@
       <c r="C104" s="46"/>
       <c r="D104" s="75"/>
       <c r="E104" s="90"/>
-      <c r="F104" s="46"/>
-      <c r="G104" s="78"/>
+      <c r="F104" s="78"/>
+      <c r="G104" s="46"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="69"/>
@@ -8647,7 +8626,7 @@
       <c r="C105" s="46"/>
       <c r="D105" s="75"/>
       <c r="E105" s="90"/>
-      <c r="F105" s="52"/>
+      <c r="F105" s="78"/>
       <c r="G105" s="46"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -8661,20 +8640,20 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="69"/>
-      <c r="B107" s="78"/>
+      <c r="B107" s="58"/>
       <c r="C107" s="46"/>
-      <c r="D107" s="75"/>
-      <c r="E107" s="90"/>
-      <c r="F107" s="78"/>
-      <c r="G107" s="46"/>
+      <c r="D107" s="58"/>
+      <c r="E107" s="67"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="58"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="69"/>
-      <c r="B108" s="78"/>
+      <c r="B108" s="58"/>
       <c r="C108" s="46"/>
-      <c r="D108" s="75"/>
-      <c r="E108" s="90"/>
-      <c r="F108" s="78"/>
+      <c r="D108" s="58"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="58"/>
       <c r="G108" s="46"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -8701,8 +8680,8 @@
       <c r="C111" s="46"/>
       <c r="D111" s="58"/>
       <c r="E111" s="67"/>
-      <c r="F111" s="46"/>
-      <c r="G111" s="58"/>
+      <c r="F111" s="58"/>
+      <c r="G111" s="46"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="69"/>
@@ -8737,8 +8716,8 @@
       <c r="C115" s="46"/>
       <c r="D115" s="58"/>
       <c r="E115" s="67"/>
-      <c r="F115" s="58"/>
-      <c r="G115" s="46"/>
+      <c r="F115" s="46"/>
+      <c r="G115" s="58"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="69"/>
@@ -8755,8 +8734,8 @@
       <c r="C117" s="46"/>
       <c r="D117" s="58"/>
       <c r="E117" s="67"/>
-      <c r="F117" s="46"/>
-      <c r="G117" s="58"/>
+      <c r="F117" s="58"/>
+      <c r="G117" s="46"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="69"/>
@@ -8764,8 +8743,8 @@
       <c r="C118" s="46"/>
       <c r="D118" s="58"/>
       <c r="E118" s="67"/>
-      <c r="F118" s="58"/>
-      <c r="G118" s="46"/>
+      <c r="F118" s="46"/>
+      <c r="G118" s="58"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="69"/>
@@ -8782,8 +8761,8 @@
       <c r="C120" s="46"/>
       <c r="D120" s="58"/>
       <c r="E120" s="67"/>
-      <c r="F120" s="46"/>
-      <c r="G120" s="58"/>
+      <c r="F120" s="58"/>
+      <c r="G120" s="46"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="69"/>
@@ -8817,7 +8796,7 @@
       <c r="B124" s="58"/>
       <c r="C124" s="46"/>
       <c r="D124" s="58"/>
-      <c r="E124" s="67"/>
+      <c r="E124" s="93"/>
       <c r="F124" s="58"/>
       <c r="G124" s="46"/>
     </row>
@@ -8826,70 +8805,70 @@
       <c r="B125" s="58"/>
       <c r="C125" s="46"/>
       <c r="D125" s="58"/>
-      <c r="E125" s="67"/>
+      <c r="E125" s="93"/>
       <c r="F125" s="58"/>
       <c r="G125" s="46"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="69"/>
-      <c r="B126" s="58"/>
-      <c r="C126" s="46"/>
-      <c r="D126" s="58"/>
-      <c r="E126" s="93"/>
-      <c r="F126" s="58"/>
-      <c r="G126" s="46"/>
+      <c r="A126" s="66"/>
+      <c r="B126" s="52"/>
+      <c r="C126" s="52"/>
+      <c r="D126" s="52"/>
+      <c r="E126" s="54"/>
+      <c r="F126" s="52"/>
+      <c r="G126" s="52"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="69"/>
-      <c r="B127" s="58"/>
-      <c r="C127" s="46"/>
-      <c r="D127" s="58"/>
-      <c r="E127" s="93"/>
-      <c r="F127" s="58"/>
-      <c r="G127" s="46"/>
+      <c r="A127" s="66"/>
+      <c r="B127" s="52"/>
+      <c r="C127" s="52"/>
+      <c r="D127" s="54"/>
+      <c r="E127" s="54"/>
+      <c r="F127" s="52"/>
+      <c r="G127" s="52"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="66"/>
-      <c r="B128" s="52"/>
-      <c r="C128" s="52"/>
-      <c r="D128" s="52"/>
-      <c r="E128" s="54"/>
+      <c r="B128" s="58"/>
+      <c r="C128" s="58"/>
+      <c r="D128" s="58"/>
+      <c r="E128" s="67"/>
       <c r="F128" s="52"/>
-      <c r="G128" s="52"/>
+      <c r="G128" s="58"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="66"/>
-      <c r="B129" s="52"/>
-      <c r="C129" s="52"/>
-      <c r="D129" s="54"/>
-      <c r="E129" s="54"/>
+      <c r="B129" s="58"/>
+      <c r="C129" s="58"/>
+      <c r="D129" s="58"/>
+      <c r="E129" s="67"/>
       <c r="F129" s="52"/>
-      <c r="G129" s="52"/>
+      <c r="G129" s="58"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="66"/>
-      <c r="B130" s="58"/>
-      <c r="C130" s="58"/>
-      <c r="D130" s="58"/>
-      <c r="E130" s="67"/>
+      <c r="B130" s="52"/>
+      <c r="C130" s="52"/>
+      <c r="D130" s="52"/>
+      <c r="E130" s="54"/>
       <c r="F130" s="52"/>
-      <c r="G130" s="58"/>
+      <c r="G130" s="52"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="66"/>
-      <c r="B131" s="58"/>
-      <c r="C131" s="58"/>
-      <c r="D131" s="58"/>
-      <c r="E131" s="67"/>
-      <c r="F131" s="52"/>
-      <c r="G131" s="58"/>
+      <c r="A131" s="69"/>
+      <c r="B131" s="69"/>
+      <c r="C131" s="69"/>
+      <c r="D131" s="69"/>
+      <c r="E131" s="70"/>
+      <c r="F131" s="69"/>
+      <c r="G131" s="63"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="66"/>
-      <c r="B132" s="52"/>
-      <c r="C132" s="52"/>
+      <c r="B132" s="66"/>
+      <c r="C132" s="66"/>
       <c r="D132" s="52"/>
-      <c r="E132" s="54"/>
+      <c r="E132" s="68"/>
       <c r="F132" s="52"/>
       <c r="G132" s="52"/>
     </row>
@@ -8912,13 +8891,13 @@
       <c r="G134" s="52"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="69"/>
-      <c r="B135" s="69"/>
-      <c r="C135" s="69"/>
-      <c r="D135" s="69"/>
-      <c r="E135" s="70"/>
-      <c r="F135" s="69"/>
-      <c r="G135" s="63"/>
+      <c r="A135" s="66"/>
+      <c r="B135" s="66"/>
+      <c r="C135" s="66"/>
+      <c r="D135" s="52"/>
+      <c r="E135" s="68"/>
+      <c r="F135" s="52"/>
+      <c r="G135" s="52"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="66"/>
@@ -8930,13 +8909,13 @@
       <c r="G136" s="52"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="66"/>
-      <c r="B137" s="66"/>
-      <c r="C137" s="66"/>
-      <c r="D137" s="52"/>
-      <c r="E137" s="68"/>
-      <c r="F137" s="52"/>
-      <c r="G137" s="52"/>
+      <c r="A137" s="69"/>
+      <c r="B137" s="69"/>
+      <c r="C137" s="69"/>
+      <c r="D137" s="69"/>
+      <c r="E137" s="70"/>
+      <c r="F137" s="69"/>
+      <c r="G137" s="63"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="66"/>
@@ -8966,13 +8945,13 @@
       <c r="G140" s="52"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="69"/>
-      <c r="B141" s="69"/>
-      <c r="C141" s="69"/>
-      <c r="D141" s="69"/>
-      <c r="E141" s="70"/>
-      <c r="F141" s="69"/>
-      <c r="G141" s="63"/>
+      <c r="A141" s="66"/>
+      <c r="B141" s="66"/>
+      <c r="C141" s="66"/>
+      <c r="D141" s="52"/>
+      <c r="E141" s="68"/>
+      <c r="F141" s="52"/>
+      <c r="G141" s="52"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="66"/>
@@ -8985,111 +8964,111 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="66"/>
-      <c r="B143" s="66"/>
-      <c r="C143" s="66"/>
+      <c r="B143" s="52"/>
+      <c r="C143" s="52"/>
       <c r="D143" s="52"/>
-      <c r="E143" s="68"/>
+      <c r="E143" s="54"/>
       <c r="F143" s="52"/>
       <c r="G143" s="52"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="66"/>
-      <c r="B144" s="66"/>
-      <c r="C144" s="66"/>
-      <c r="D144" s="52"/>
-      <c r="E144" s="68"/>
+      <c r="B144" s="52"/>
+      <c r="C144" s="52"/>
+      <c r="D144" s="54"/>
+      <c r="E144" s="54"/>
       <c r="F144" s="52"/>
       <c r="G144" s="52"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="66"/>
-      <c r="B145" s="52"/>
-      <c r="C145" s="52"/>
-      <c r="D145" s="52"/>
-      <c r="E145" s="54"/>
+      <c r="B145" s="58"/>
+      <c r="C145" s="58"/>
+      <c r="D145" s="58"/>
+      <c r="E145" s="67"/>
       <c r="F145" s="52"/>
-      <c r="G145" s="52"/>
+      <c r="G145" s="58"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="66"/>
-      <c r="B146" s="52"/>
-      <c r="C146" s="52"/>
-      <c r="D146" s="54"/>
-      <c r="E146" s="54"/>
+      <c r="B146" s="58"/>
+      <c r="C146" s="58"/>
+      <c r="D146" s="58"/>
+      <c r="E146" s="67"/>
       <c r="F146" s="52"/>
-      <c r="G146" s="52"/>
+      <c r="G146" s="58"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="66"/>
-      <c r="B147" s="58"/>
-      <c r="C147" s="58"/>
-      <c r="D147" s="58"/>
-      <c r="E147" s="67"/>
-      <c r="F147" s="52"/>
-      <c r="G147" s="58"/>
+      <c r="A147" s="69"/>
+      <c r="B147" s="69"/>
+      <c r="C147" s="69"/>
+      <c r="D147" s="69"/>
+      <c r="E147" s="70"/>
+      <c r="F147" s="69"/>
+      <c r="G147" s="63"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="66"/>
-      <c r="B148" s="58"/>
-      <c r="C148" s="58"/>
-      <c r="D148" s="58"/>
-      <c r="E148" s="67"/>
-      <c r="F148" s="52"/>
-      <c r="G148" s="58"/>
+      <c r="A148" s="69"/>
+      <c r="B148" s="69"/>
+      <c r="C148" s="69"/>
+      <c r="D148" s="69"/>
+      <c r="E148" s="70"/>
+      <c r="F148" s="69"/>
+      <c r="G148" s="63"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="69"/>
-      <c r="B149" s="69"/>
-      <c r="C149" s="69"/>
-      <c r="D149" s="69"/>
-      <c r="E149" s="70"/>
-      <c r="F149" s="69"/>
-      <c r="G149" s="63"/>
+      <c r="A149" s="66"/>
+      <c r="B149" s="52"/>
+      <c r="C149" s="52"/>
+      <c r="D149" s="54"/>
+      <c r="E149" s="54"/>
+      <c r="F149" s="52"/>
+      <c r="G149" s="52"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="69"/>
-      <c r="B150" s="69"/>
-      <c r="C150" s="69"/>
-      <c r="D150" s="69"/>
-      <c r="E150" s="70"/>
-      <c r="F150" s="69"/>
-      <c r="G150" s="63"/>
+      <c r="A150" s="66"/>
+      <c r="B150" s="58"/>
+      <c r="C150" s="58"/>
+      <c r="D150" s="58"/>
+      <c r="E150" s="67"/>
+      <c r="F150" s="52"/>
+      <c r="G150" s="58"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="66"/>
-      <c r="B151" s="52"/>
-      <c r="C151" s="52"/>
-      <c r="D151" s="54"/>
-      <c r="E151" s="54"/>
+      <c r="B151" s="58"/>
+      <c r="C151" s="58"/>
+      <c r="D151" s="58"/>
+      <c r="E151" s="67"/>
       <c r="F151" s="52"/>
-      <c r="G151" s="52"/>
+      <c r="G151" s="58"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="66"/>
-      <c r="B152" s="58"/>
-      <c r="C152" s="58"/>
-      <c r="D152" s="58"/>
-      <c r="E152" s="67"/>
+      <c r="B152" s="52"/>
+      <c r="C152" s="52"/>
+      <c r="D152" s="52"/>
+      <c r="E152" s="54"/>
       <c r="F152" s="52"/>
-      <c r="G152" s="58"/>
+      <c r="G152" s="52"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="66"/>
-      <c r="B153" s="58"/>
-      <c r="C153" s="58"/>
-      <c r="D153" s="58"/>
-      <c r="E153" s="67"/>
-      <c r="F153" s="52"/>
-      <c r="G153" s="58"/>
+      <c r="A153" s="69"/>
+      <c r="B153" s="75"/>
+      <c r="C153" s="46"/>
+      <c r="D153" s="75"/>
+      <c r="E153" s="87"/>
+      <c r="F153" s="46"/>
+      <c r="G153" s="75"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="66"/>
-      <c r="B154" s="52"/>
-      <c r="C154" s="52"/>
-      <c r="D154" s="52"/>
-      <c r="E154" s="54"/>
+      <c r="A154" s="69"/>
+      <c r="B154" s="75"/>
+      <c r="C154" s="46"/>
+      <c r="D154" s="75"/>
+      <c r="E154" s="87"/>
       <c r="F154" s="52"/>
-      <c r="G154" s="52"/>
+      <c r="G154" s="46"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="69"/>
@@ -9097,8 +9076,8 @@
       <c r="C155" s="46"/>
       <c r="D155" s="75"/>
       <c r="E155" s="87"/>
-      <c r="F155" s="46"/>
-      <c r="G155" s="75"/>
+      <c r="F155" s="75"/>
+      <c r="G155" s="46"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="69"/>
@@ -9106,8 +9085,8 @@
       <c r="C156" s="46"/>
       <c r="D156" s="75"/>
       <c r="E156" s="87"/>
-      <c r="F156" s="52"/>
-      <c r="G156" s="46"/>
+      <c r="F156" s="75"/>
+      <c r="G156" s="58"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="69"/>
@@ -9115,8 +9094,8 @@
       <c r="C157" s="46"/>
       <c r="D157" s="75"/>
       <c r="E157" s="87"/>
-      <c r="F157" s="75"/>
-      <c r="G157" s="46"/>
+      <c r="F157" s="46"/>
+      <c r="G157" s="75"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="69"/>
@@ -9124,8 +9103,8 @@
       <c r="C158" s="46"/>
       <c r="D158" s="75"/>
       <c r="E158" s="87"/>
-      <c r="F158" s="75"/>
-      <c r="G158" s="58"/>
+      <c r="F158" s="52"/>
+      <c r="G158" s="46"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="69"/>
@@ -9133,8 +9112,8 @@
       <c r="C159" s="46"/>
       <c r="D159" s="75"/>
       <c r="E159" s="87"/>
-      <c r="F159" s="46"/>
-      <c r="G159" s="75"/>
+      <c r="F159" s="75"/>
+      <c r="G159" s="46"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="69"/>
@@ -9142,7 +9121,7 @@
       <c r="C160" s="46"/>
       <c r="D160" s="75"/>
       <c r="E160" s="87"/>
-      <c r="F160" s="52"/>
+      <c r="F160" s="75"/>
       <c r="G160" s="46"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -9160,8 +9139,8 @@
       <c r="C162" s="46"/>
       <c r="D162" s="75"/>
       <c r="E162" s="87"/>
-      <c r="F162" s="75"/>
-      <c r="G162" s="46"/>
+      <c r="F162" s="46"/>
+      <c r="G162" s="75"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="69"/>
@@ -9170,25 +9149,25 @@
       <c r="D163" s="75"/>
       <c r="E163" s="87"/>
       <c r="F163" s="75"/>
-      <c r="G163" s="46"/>
+      <c r="G163" s="52"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="69"/>
-      <c r="B164" s="75"/>
+      <c r="B164" s="78"/>
       <c r="C164" s="46"/>
       <c r="D164" s="75"/>
-      <c r="E164" s="87"/>
+      <c r="E164" s="90"/>
       <c r="F164" s="46"/>
-      <c r="G164" s="75"/>
+      <c r="G164" s="78"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="69"/>
-      <c r="B165" s="75"/>
+      <c r="B165" s="78"/>
       <c r="C165" s="46"/>
       <c r="D165" s="75"/>
-      <c r="E165" s="87"/>
-      <c r="F165" s="75"/>
-      <c r="G165" s="52"/>
+      <c r="E165" s="90"/>
+      <c r="F165" s="52"/>
+      <c r="G165" s="46"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="69"/>
@@ -9196,8 +9175,8 @@
       <c r="C166" s="46"/>
       <c r="D166" s="75"/>
       <c r="E166" s="90"/>
-      <c r="F166" s="46"/>
-      <c r="G166" s="78"/>
+      <c r="F166" s="78"/>
+      <c r="G166" s="46"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="69"/>
@@ -9205,7 +9184,7 @@
       <c r="C167" s="46"/>
       <c r="D167" s="75"/>
       <c r="E167" s="90"/>
-      <c r="F167" s="52"/>
+      <c r="F167" s="78"/>
       <c r="G167" s="46"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -9214,8 +9193,8 @@
       <c r="C168" s="46"/>
       <c r="D168" s="75"/>
       <c r="E168" s="90"/>
-      <c r="F168" s="78"/>
-      <c r="G168" s="46"/>
+      <c r="F168" s="46"/>
+      <c r="G168" s="78"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="69"/>
@@ -9223,7 +9202,7 @@
       <c r="C169" s="46"/>
       <c r="D169" s="75"/>
       <c r="E169" s="90"/>
-      <c r="F169" s="78"/>
+      <c r="F169" s="52"/>
       <c r="G169" s="46"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -9232,8 +9211,8 @@
       <c r="C170" s="46"/>
       <c r="D170" s="75"/>
       <c r="E170" s="90"/>
-      <c r="F170" s="46"/>
-      <c r="G170" s="78"/>
+      <c r="F170" s="78"/>
+      <c r="G170" s="46"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="69"/>
@@ -9241,7 +9220,7 @@
       <c r="C171" s="46"/>
       <c r="D171" s="75"/>
       <c r="E171" s="90"/>
-      <c r="F171" s="52"/>
+      <c r="F171" s="78"/>
       <c r="G171" s="46"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -9249,17 +9228,17 @@
       <c r="B172" s="78"/>
       <c r="C172" s="46"/>
       <c r="D172" s="75"/>
-      <c r="E172" s="90"/>
-      <c r="F172" s="78"/>
-      <c r="G172" s="46"/>
+      <c r="E172" s="87"/>
+      <c r="F172" s="92"/>
+      <c r="G172" s="75"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="69"/>
       <c r="B173" s="78"/>
       <c r="C173" s="46"/>
       <c r="D173" s="75"/>
-      <c r="E173" s="90"/>
-      <c r="F173" s="78"/>
+      <c r="E173" s="87"/>
+      <c r="F173" s="92"/>
       <c r="G173" s="46"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -9268,8 +9247,8 @@
       <c r="C174" s="46"/>
       <c r="D174" s="75"/>
       <c r="E174" s="87"/>
-      <c r="F174" s="92"/>
-      <c r="G174" s="75"/>
+      <c r="F174" s="95"/>
+      <c r="G174" s="46"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="69"/>
@@ -9277,7 +9256,7 @@
       <c r="C175" s="46"/>
       <c r="D175" s="75"/>
       <c r="E175" s="87"/>
-      <c r="F175" s="92"/>
+      <c r="F175" s="75"/>
       <c r="G175" s="46"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -9285,17 +9264,17 @@
       <c r="B176" s="78"/>
       <c r="C176" s="46"/>
       <c r="D176" s="75"/>
-      <c r="E176" s="87"/>
-      <c r="F176" s="95"/>
-      <c r="G176" s="46"/>
+      <c r="E176" s="90"/>
+      <c r="F176" s="46"/>
+      <c r="G176" s="78"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="69"/>
       <c r="B177" s="78"/>
       <c r="C177" s="46"/>
       <c r="D177" s="75"/>
-      <c r="E177" s="87"/>
-      <c r="F177" s="75"/>
+      <c r="E177" s="90"/>
+      <c r="F177" s="52"/>
       <c r="G177" s="46"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -9304,8 +9283,8 @@
       <c r="C178" s="46"/>
       <c r="D178" s="75"/>
       <c r="E178" s="90"/>
-      <c r="F178" s="46"/>
-      <c r="G178" s="78"/>
+      <c r="F178" s="78"/>
+      <c r="G178" s="46"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="69"/>
@@ -9313,26 +9292,26 @@
       <c r="C179" s="46"/>
       <c r="D179" s="75"/>
       <c r="E179" s="90"/>
-      <c r="F179" s="52"/>
+      <c r="F179" s="78"/>
       <c r="G179" s="46"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="69"/>
-      <c r="B180" s="78"/>
+      <c r="B180" s="58"/>
       <c r="C180" s="46"/>
-      <c r="D180" s="75"/>
-      <c r="E180" s="90"/>
-      <c r="F180" s="78"/>
+      <c r="D180" s="58"/>
+      <c r="E180" s="67"/>
+      <c r="F180" s="58"/>
       <c r="G180" s="46"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="69"/>
-      <c r="B181" s="78"/>
+      <c r="B181" s="58"/>
       <c r="C181" s="46"/>
-      <c r="D181" s="75"/>
-      <c r="E181" s="90"/>
-      <c r="F181" s="78"/>
-      <c r="G181" s="46"/>
+      <c r="D181" s="58"/>
+      <c r="E181" s="67"/>
+      <c r="F181" s="46"/>
+      <c r="G181" s="58"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="69"/>
@@ -9367,8 +9346,8 @@
       <c r="C185" s="46"/>
       <c r="D185" s="58"/>
       <c r="E185" s="67"/>
-      <c r="F185" s="46"/>
-      <c r="G185" s="58"/>
+      <c r="F185" s="58"/>
+      <c r="G185" s="46"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="69"/>
@@ -9381,20 +9360,20 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="69"/>
-      <c r="B187" s="58"/>
+      <c r="B187" s="78"/>
       <c r="C187" s="46"/>
-      <c r="D187" s="58"/>
-      <c r="E187" s="67"/>
-      <c r="F187" s="58"/>
+      <c r="D187" s="75"/>
+      <c r="E187" s="90"/>
+      <c r="F187" s="91"/>
       <c r="G187" s="46"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="69"/>
-      <c r="B188" s="58"/>
+      <c r="B188" s="78"/>
       <c r="C188" s="46"/>
-      <c r="D188" s="58"/>
-      <c r="E188" s="67"/>
-      <c r="F188" s="58"/>
+      <c r="D188" s="75"/>
+      <c r="E188" s="90"/>
+      <c r="F188" s="92"/>
       <c r="G188" s="46"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -9403,7 +9382,7 @@
       <c r="C189" s="46"/>
       <c r="D189" s="75"/>
       <c r="E189" s="90"/>
-      <c r="F189" s="91"/>
+      <c r="F189" s="94"/>
       <c r="G189" s="46"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -9412,7 +9391,7 @@
       <c r="C190" s="46"/>
       <c r="D190" s="75"/>
       <c r="E190" s="90"/>
-      <c r="F190" s="92"/>
+      <c r="F190" s="94"/>
       <c r="G190" s="46"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -9420,42 +9399,42 @@
       <c r="B191" s="78"/>
       <c r="C191" s="46"/>
       <c r="D191" s="75"/>
-      <c r="E191" s="90"/>
-      <c r="F191" s="94"/>
+      <c r="E191" s="87"/>
+      <c r="F191" s="58"/>
       <c r="G191" s="46"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="69"/>
-      <c r="B192" s="78"/>
-      <c r="C192" s="46"/>
-      <c r="D192" s="75"/>
-      <c r="E192" s="90"/>
-      <c r="F192" s="94"/>
-      <c r="G192" s="46"/>
+      <c r="A192" s="66"/>
+      <c r="B192" s="52"/>
+      <c r="C192" s="52"/>
+      <c r="D192" s="52"/>
+      <c r="E192" s="54"/>
+      <c r="F192" s="52"/>
+      <c r="G192" s="52"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="69"/>
-      <c r="B193" s="78"/>
-      <c r="C193" s="46"/>
-      <c r="D193" s="75"/>
-      <c r="E193" s="87"/>
-      <c r="F193" s="58"/>
-      <c r="G193" s="46"/>
+      <c r="A193" s="66"/>
+      <c r="B193" s="52"/>
+      <c r="C193" s="52"/>
+      <c r="D193" s="54"/>
+      <c r="E193" s="54"/>
+      <c r="F193" s="52"/>
+      <c r="G193" s="52"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="66"/>
-      <c r="B194" s="52"/>
-      <c r="C194" s="52"/>
-      <c r="D194" s="52"/>
-      <c r="E194" s="54"/>
+      <c r="B194" s="58"/>
+      <c r="C194" s="58"/>
+      <c r="D194" s="58"/>
+      <c r="E194" s="67"/>
       <c r="F194" s="52"/>
-      <c r="G194" s="52"/>
+      <c r="G194" s="58"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="66"/>
       <c r="B195" s="52"/>
       <c r="C195" s="52"/>
-      <c r="D195" s="54"/>
+      <c r="D195" s="52"/>
       <c r="E195" s="54"/>
       <c r="F195" s="52"/>
       <c r="G195" s="52"/>
@@ -9480,12 +9459,12 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="66"/>
-      <c r="B198" s="58"/>
-      <c r="C198" s="58"/>
-      <c r="D198" s="58"/>
-      <c r="E198" s="67"/>
+      <c r="B198" s="52"/>
+      <c r="C198" s="52"/>
+      <c r="D198" s="52"/>
+      <c r="E198" s="54"/>
       <c r="F198" s="52"/>
-      <c r="G198" s="58"/>
+      <c r="G198" s="52"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="66"/>
@@ -9500,7 +9479,7 @@
       <c r="A200" s="66"/>
       <c r="B200" s="52"/>
       <c r="C200" s="52"/>
-      <c r="D200" s="52"/>
+      <c r="D200" s="54"/>
       <c r="E200" s="54"/>
       <c r="F200" s="52"/>
       <c r="G200" s="52"/>
@@ -9515,20 +9494,20 @@
       <c r="G201" s="52"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="66"/>
-      <c r="B202" s="52"/>
-      <c r="C202" s="52"/>
-      <c r="D202" s="54"/>
-      <c r="E202" s="54"/>
-      <c r="F202" s="52"/>
-      <c r="G202" s="52"/>
+      <c r="A202" s="69"/>
+      <c r="B202" s="69"/>
+      <c r="C202" s="69"/>
+      <c r="D202" s="69"/>
+      <c r="E202" s="70"/>
+      <c r="F202" s="69"/>
+      <c r="G202" s="63"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="66"/>
-      <c r="B203" s="52"/>
-      <c r="C203" s="52"/>
+      <c r="B203" s="66"/>
+      <c r="C203" s="66"/>
       <c r="D203" s="52"/>
-      <c r="E203" s="54"/>
+      <c r="E203" s="68"/>
       <c r="F203" s="52"/>
       <c r="G203" s="52"/>
     </row>
@@ -9551,13 +9530,13 @@
       <c r="G205" s="52"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="69"/>
-      <c r="B206" s="69"/>
-      <c r="C206" s="69"/>
-      <c r="D206" s="69"/>
-      <c r="E206" s="70"/>
-      <c r="F206" s="69"/>
-      <c r="G206" s="63"/>
+      <c r="A206" s="66"/>
+      <c r="B206" s="66"/>
+      <c r="C206" s="66"/>
+      <c r="D206" s="52"/>
+      <c r="E206" s="68"/>
+      <c r="F206" s="52"/>
+      <c r="G206" s="52"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="66"/>
@@ -9569,13 +9548,13 @@
       <c r="G207" s="52"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="66"/>
-      <c r="B208" s="66"/>
-      <c r="C208" s="66"/>
-      <c r="D208" s="52"/>
-      <c r="E208" s="68"/>
-      <c r="F208" s="52"/>
-      <c r="G208" s="52"/>
+      <c r="A208" s="69"/>
+      <c r="B208" s="69"/>
+      <c r="C208" s="69"/>
+      <c r="D208" s="69"/>
+      <c r="E208" s="70"/>
+      <c r="F208" s="69"/>
+      <c r="G208" s="63"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="66"/>
@@ -9597,30 +9576,30 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="66"/>
-      <c r="B211" s="66"/>
-      <c r="C211" s="66"/>
-      <c r="D211" s="52"/>
-      <c r="E211" s="68"/>
+      <c r="B211" s="58"/>
+      <c r="C211" s="58"/>
+      <c r="D211" s="58"/>
+      <c r="E211" s="67"/>
       <c r="F211" s="52"/>
-      <c r="G211" s="52"/>
+      <c r="G211" s="58"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="69"/>
-      <c r="B212" s="69"/>
-      <c r="C212" s="69"/>
-      <c r="D212" s="69"/>
-      <c r="E212" s="70"/>
-      <c r="F212" s="69"/>
-      <c r="G212" s="63"/>
+      <c r="A212" s="66"/>
+      <c r="B212" s="58"/>
+      <c r="C212" s="58"/>
+      <c r="D212" s="58"/>
+      <c r="E212" s="67"/>
+      <c r="F212" s="52"/>
+      <c r="G212" s="58"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="66"/>
-      <c r="B213" s="58"/>
-      <c r="C213" s="58"/>
-      <c r="D213" s="58"/>
-      <c r="E213" s="67"/>
+      <c r="B213" s="66"/>
+      <c r="C213" s="66"/>
+      <c r="D213" s="52"/>
+      <c r="E213" s="68"/>
       <c r="F213" s="52"/>
-      <c r="G213" s="58"/>
+      <c r="G213" s="52"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="66"/>
@@ -9642,12 +9621,12 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="66"/>
-      <c r="B216" s="58"/>
-      <c r="C216" s="58"/>
-      <c r="D216" s="58"/>
-      <c r="E216" s="67"/>
+      <c r="B216" s="66"/>
+      <c r="C216" s="66"/>
+      <c r="D216" s="52"/>
+      <c r="E216" s="68"/>
       <c r="F216" s="52"/>
-      <c r="G216" s="58"/>
+      <c r="G216" s="52"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="66"/>
@@ -9660,12 +9639,12 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="66"/>
-      <c r="B218" s="66"/>
-      <c r="C218" s="66"/>
-      <c r="D218" s="52"/>
-      <c r="E218" s="68"/>
+      <c r="B218" s="58"/>
+      <c r="C218" s="58"/>
+      <c r="D218" s="58"/>
+      <c r="E218" s="67"/>
       <c r="F218" s="52"/>
-      <c r="G218" s="52"/>
+      <c r="G218" s="58"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="66"/>
@@ -9683,7 +9662,7 @@
       <c r="D220" s="58"/>
       <c r="E220" s="67"/>
       <c r="F220" s="52"/>
-      <c r="G220" s="58"/>
+      <c r="G220" s="94"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="66"/>
@@ -9692,43 +9671,43 @@
       <c r="D221" s="52"/>
       <c r="E221" s="68"/>
       <c r="F221" s="52"/>
-      <c r="G221" s="52"/>
+      <c r="G221" s="92"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="66"/>
-      <c r="B222" s="58"/>
-      <c r="C222" s="58"/>
-      <c r="D222" s="58"/>
-      <c r="E222" s="67"/>
+      <c r="B222" s="66"/>
+      <c r="C222" s="66"/>
+      <c r="D222" s="52"/>
+      <c r="E222" s="68"/>
       <c r="F222" s="52"/>
-      <c r="G222" s="94"/>
+      <c r="G222" s="92"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="66"/>
-      <c r="B223" s="66"/>
-      <c r="C223" s="66"/>
-      <c r="D223" s="52"/>
-      <c r="E223" s="68"/>
-      <c r="F223" s="52"/>
-      <c r="G223" s="92"/>
+      <c r="A223" s="69"/>
+      <c r="B223" s="69"/>
+      <c r="C223" s="69"/>
+      <c r="D223" s="69"/>
+      <c r="E223" s="70"/>
+      <c r="F223" s="69"/>
+      <c r="G223" s="63"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="66"/>
-      <c r="B224" s="66"/>
-      <c r="C224" s="66"/>
-      <c r="D224" s="52"/>
-      <c r="E224" s="68"/>
-      <c r="F224" s="52"/>
-      <c r="G224" s="92"/>
+      <c r="A224" s="69"/>
+      <c r="B224" s="75"/>
+      <c r="C224" s="46"/>
+      <c r="D224" s="75"/>
+      <c r="E224" s="87"/>
+      <c r="F224" s="46"/>
+      <c r="G224" s="75"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="69"/>
-      <c r="B225" s="69"/>
-      <c r="C225" s="69"/>
-      <c r="D225" s="69"/>
-      <c r="E225" s="70"/>
-      <c r="F225" s="69"/>
-      <c r="G225" s="63"/>
+      <c r="B225" s="75"/>
+      <c r="C225" s="46"/>
+      <c r="D225" s="75"/>
+      <c r="E225" s="87"/>
+      <c r="F225" s="52"/>
+      <c r="G225" s="46"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="69"/>
@@ -9736,8 +9715,8 @@
       <c r="C226" s="46"/>
       <c r="D226" s="75"/>
       <c r="E226" s="87"/>
-      <c r="F226" s="46"/>
-      <c r="G226" s="75"/>
+      <c r="F226" s="75"/>
+      <c r="G226" s="46"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="69"/>
@@ -9745,8 +9724,8 @@
       <c r="C227" s="46"/>
       <c r="D227" s="75"/>
       <c r="E227" s="87"/>
-      <c r="F227" s="52"/>
-      <c r="G227" s="46"/>
+      <c r="F227" s="75"/>
+      <c r="G227" s="58"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="69"/>
@@ -9754,8 +9733,8 @@
       <c r="C228" s="46"/>
       <c r="D228" s="75"/>
       <c r="E228" s="87"/>
-      <c r="F228" s="75"/>
-      <c r="G228" s="46"/>
+      <c r="F228" s="46"/>
+      <c r="G228" s="75"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="69"/>
@@ -9763,8 +9742,8 @@
       <c r="C229" s="46"/>
       <c r="D229" s="75"/>
       <c r="E229" s="87"/>
-      <c r="F229" s="75"/>
-      <c r="G229" s="58"/>
+      <c r="F229" s="52"/>
+      <c r="G229" s="46"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="69"/>
@@ -9772,8 +9751,8 @@
       <c r="C230" s="46"/>
       <c r="D230" s="75"/>
       <c r="E230" s="87"/>
-      <c r="F230" s="46"/>
-      <c r="G230" s="75"/>
+      <c r="F230" s="75"/>
+      <c r="G230" s="46"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="69"/>
@@ -9781,7 +9760,7 @@
       <c r="C231" s="46"/>
       <c r="D231" s="75"/>
       <c r="E231" s="87"/>
-      <c r="F231" s="52"/>
+      <c r="F231" s="75"/>
       <c r="G231" s="46"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -9799,8 +9778,8 @@
       <c r="C233" s="46"/>
       <c r="D233" s="75"/>
       <c r="E233" s="87"/>
-      <c r="F233" s="75"/>
-      <c r="G233" s="46"/>
+      <c r="F233" s="46"/>
+      <c r="G233" s="75"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="69"/>
@@ -9809,25 +9788,25 @@
       <c r="D234" s="75"/>
       <c r="E234" s="87"/>
       <c r="F234" s="75"/>
-      <c r="G234" s="46"/>
+      <c r="G234" s="52"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="69"/>
-      <c r="B235" s="75"/>
+      <c r="B235" s="78"/>
       <c r="C235" s="46"/>
       <c r="D235" s="75"/>
-      <c r="E235" s="87"/>
+      <c r="E235" s="90"/>
       <c r="F235" s="46"/>
-      <c r="G235" s="75"/>
+      <c r="G235" s="78"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="69"/>
-      <c r="B236" s="75"/>
+      <c r="B236" s="78"/>
       <c r="C236" s="46"/>
       <c r="D236" s="75"/>
-      <c r="E236" s="87"/>
-      <c r="F236" s="75"/>
-      <c r="G236" s="52"/>
+      <c r="E236" s="90"/>
+      <c r="F236" s="52"/>
+      <c r="G236" s="46"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="69"/>
@@ -9835,8 +9814,8 @@
       <c r="C237" s="46"/>
       <c r="D237" s="75"/>
       <c r="E237" s="90"/>
-      <c r="F237" s="46"/>
-      <c r="G237" s="78"/>
+      <c r="F237" s="78"/>
+      <c r="G237" s="46"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="69"/>
@@ -9844,7 +9823,7 @@
       <c r="C238" s="46"/>
       <c r="D238" s="75"/>
       <c r="E238" s="90"/>
-      <c r="F238" s="52"/>
+      <c r="F238" s="78"/>
       <c r="G238" s="46"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -9853,8 +9832,8 @@
       <c r="C239" s="46"/>
       <c r="D239" s="75"/>
       <c r="E239" s="90"/>
-      <c r="F239" s="78"/>
-      <c r="G239" s="46"/>
+      <c r="F239" s="46"/>
+      <c r="G239" s="78"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="69"/>
@@ -9862,7 +9841,7 @@
       <c r="C240" s="46"/>
       <c r="D240" s="75"/>
       <c r="E240" s="90"/>
-      <c r="F240" s="78"/>
+      <c r="F240" s="52"/>
       <c r="G240" s="46"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -9871,8 +9850,8 @@
       <c r="C241" s="46"/>
       <c r="D241" s="75"/>
       <c r="E241" s="90"/>
-      <c r="F241" s="46"/>
-      <c r="G241" s="78"/>
+      <c r="F241" s="78"/>
+      <c r="G241" s="46"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="69"/>
@@ -9880,7 +9859,7 @@
       <c r="C242" s="46"/>
       <c r="D242" s="75"/>
       <c r="E242" s="90"/>
-      <c r="F242" s="52"/>
+      <c r="F242" s="78"/>
       <c r="G242" s="46"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -9888,17 +9867,17 @@
       <c r="B243" s="78"/>
       <c r="C243" s="46"/>
       <c r="D243" s="75"/>
-      <c r="E243" s="90"/>
-      <c r="F243" s="78"/>
-      <c r="G243" s="46"/>
+      <c r="E243" s="87"/>
+      <c r="F243" s="46"/>
+      <c r="G243" s="75"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="69"/>
       <c r="B244" s="78"/>
       <c r="C244" s="46"/>
       <c r="D244" s="75"/>
-      <c r="E244" s="90"/>
-      <c r="F244" s="78"/>
+      <c r="E244" s="87"/>
+      <c r="F244" s="52"/>
       <c r="G244" s="46"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -9907,8 +9886,8 @@
       <c r="C245" s="46"/>
       <c r="D245" s="75"/>
       <c r="E245" s="87"/>
-      <c r="F245" s="46"/>
-      <c r="G245" s="75"/>
+      <c r="F245" s="75"/>
+      <c r="G245" s="46"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="69"/>
@@ -9916,7 +9895,7 @@
       <c r="C246" s="46"/>
       <c r="D246" s="75"/>
       <c r="E246" s="87"/>
-      <c r="F246" s="52"/>
+      <c r="F246" s="75"/>
       <c r="G246" s="46"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -9924,17 +9903,17 @@
       <c r="B247" s="78"/>
       <c r="C247" s="46"/>
       <c r="D247" s="75"/>
-      <c r="E247" s="87"/>
-      <c r="F247" s="75"/>
-      <c r="G247" s="46"/>
+      <c r="E247" s="90"/>
+      <c r="F247" s="46"/>
+      <c r="G247" s="78"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="69"/>
       <c r="B248" s="78"/>
       <c r="C248" s="46"/>
       <c r="D248" s="75"/>
-      <c r="E248" s="87"/>
-      <c r="F248" s="75"/>
+      <c r="E248" s="90"/>
+      <c r="F248" s="52"/>
       <c r="G248" s="46"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -9943,8 +9922,8 @@
       <c r="C249" s="46"/>
       <c r="D249" s="75"/>
       <c r="E249" s="90"/>
-      <c r="F249" s="46"/>
-      <c r="G249" s="78"/>
+      <c r="F249" s="78"/>
+      <c r="G249" s="46"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="69"/>
@@ -9952,26 +9931,26 @@
       <c r="C250" s="46"/>
       <c r="D250" s="75"/>
       <c r="E250" s="90"/>
-      <c r="F250" s="52"/>
+      <c r="F250" s="78"/>
       <c r="G250" s="46"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="69"/>
-      <c r="B251" s="78"/>
+      <c r="B251" s="58"/>
       <c r="C251" s="46"/>
-      <c r="D251" s="75"/>
-      <c r="E251" s="90"/>
-      <c r="F251" s="78"/>
+      <c r="D251" s="58"/>
+      <c r="E251" s="67"/>
+      <c r="F251" s="58"/>
       <c r="G251" s="46"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="69"/>
-      <c r="B252" s="78"/>
+      <c r="B252" s="58"/>
       <c r="C252" s="46"/>
-      <c r="D252" s="75"/>
-      <c r="E252" s="90"/>
-      <c r="F252" s="78"/>
-      <c r="G252" s="46"/>
+      <c r="D252" s="58"/>
+      <c r="E252" s="67"/>
+      <c r="F252" s="46"/>
+      <c r="G252" s="58"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="69"/>
@@ -10006,8 +9985,8 @@
       <c r="C256" s="46"/>
       <c r="D256" s="58"/>
       <c r="E256" s="67"/>
-      <c r="F256" s="46"/>
-      <c r="G256" s="58"/>
+      <c r="F256" s="58"/>
+      <c r="G256" s="46"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="69"/>
@@ -10020,20 +9999,20 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="69"/>
-      <c r="B258" s="58"/>
+      <c r="B258" s="78"/>
       <c r="C258" s="46"/>
-      <c r="D258" s="58"/>
-      <c r="E258" s="67"/>
-      <c r="F258" s="58"/>
+      <c r="D258" s="75"/>
+      <c r="E258" s="90"/>
+      <c r="F258" s="91"/>
       <c r="G258" s="46"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="69"/>
-      <c r="B259" s="58"/>
+      <c r="B259" s="78"/>
       <c r="C259" s="46"/>
-      <c r="D259" s="58"/>
-      <c r="E259" s="67"/>
-      <c r="F259" s="58"/>
+      <c r="D259" s="75"/>
+      <c r="E259" s="90"/>
+      <c r="F259" s="52"/>
       <c r="G259" s="46"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -10042,7 +10021,7 @@
       <c r="C260" s="46"/>
       <c r="D260" s="75"/>
       <c r="E260" s="90"/>
-      <c r="F260" s="91"/>
+      <c r="F260" s="58"/>
       <c r="G260" s="46"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -10051,7 +10030,7 @@
       <c r="C261" s="46"/>
       <c r="D261" s="75"/>
       <c r="E261" s="90"/>
-      <c r="F261" s="52"/>
+      <c r="F261" s="58"/>
       <c r="G261" s="46"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -10059,63 +10038,63 @@
       <c r="B262" s="78"/>
       <c r="C262" s="46"/>
       <c r="D262" s="75"/>
-      <c r="E262" s="90"/>
+      <c r="E262" s="87"/>
       <c r="F262" s="58"/>
       <c r="G262" s="46"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="69"/>
-      <c r="B263" s="78"/>
-      <c r="C263" s="46"/>
-      <c r="D263" s="75"/>
-      <c r="E263" s="90"/>
-      <c r="F263" s="58"/>
-      <c r="G263" s="46"/>
+      <c r="A263" s="66"/>
+      <c r="B263" s="52"/>
+      <c r="C263" s="52"/>
+      <c r="D263" s="52"/>
+      <c r="E263" s="54"/>
+      <c r="F263" s="52"/>
+      <c r="G263" s="52"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264" s="69"/>
-      <c r="B264" s="78"/>
-      <c r="C264" s="46"/>
-      <c r="D264" s="75"/>
-      <c r="E264" s="87"/>
-      <c r="F264" s="58"/>
-      <c r="G264" s="46"/>
+      <c r="A264" s="66"/>
+      <c r="B264" s="52"/>
+      <c r="C264" s="52"/>
+      <c r="D264" s="54"/>
+      <c r="E264" s="54"/>
+      <c r="F264" s="52"/>
+      <c r="G264" s="52"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="66"/>
-      <c r="B265" s="52"/>
-      <c r="C265" s="52"/>
-      <c r="D265" s="52"/>
-      <c r="E265" s="54"/>
+      <c r="B265" s="58"/>
+      <c r="C265" s="58"/>
+      <c r="D265" s="58"/>
+      <c r="E265" s="67"/>
       <c r="F265" s="52"/>
-      <c r="G265" s="52"/>
+      <c r="G265" s="58"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="66"/>
-      <c r="B266" s="52"/>
-      <c r="C266" s="52"/>
-      <c r="D266" s="54"/>
-      <c r="E266" s="54"/>
+      <c r="B266" s="58"/>
+      <c r="C266" s="58"/>
+      <c r="D266" s="58"/>
+      <c r="E266" s="67"/>
       <c r="F266" s="52"/>
-      <c r="G266" s="52"/>
+      <c r="G266" s="58"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="66"/>
-      <c r="B267" s="58"/>
-      <c r="C267" s="58"/>
-      <c r="D267" s="58"/>
-      <c r="E267" s="67"/>
+      <c r="B267" s="52"/>
+      <c r="C267" s="52"/>
+      <c r="D267" s="52"/>
+      <c r="E267" s="54"/>
       <c r="F267" s="52"/>
-      <c r="G267" s="58"/>
+      <c r="G267" s="52"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="66"/>
-      <c r="B268" s="58"/>
-      <c r="C268" s="58"/>
-      <c r="D268" s="58"/>
-      <c r="E268" s="67"/>
+      <c r="B268" s="52"/>
+      <c r="C268" s="52"/>
+      <c r="D268" s="54"/>
+      <c r="E268" s="54"/>
       <c r="F268" s="52"/>
-      <c r="G268" s="58"/>
+      <c r="G268" s="52"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="66"/>
@@ -10145,40 +10124,40 @@
       <c r="G271" s="52"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" s="66"/>
-      <c r="B272" s="52"/>
-      <c r="C272" s="52"/>
-      <c r="D272" s="54"/>
-      <c r="E272" s="54"/>
-      <c r="F272" s="52"/>
-      <c r="G272" s="52"/>
+      <c r="A272" s="69"/>
+      <c r="B272" s="69"/>
+      <c r="C272" s="69"/>
+      <c r="D272" s="69"/>
+      <c r="E272" s="70"/>
+      <c r="F272" s="69"/>
+      <c r="G272" s="63"/>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="66"/>
-      <c r="B273" s="52"/>
-      <c r="C273" s="52"/>
+      <c r="B273" s="66"/>
+      <c r="C273" s="66"/>
       <c r="D273" s="52"/>
-      <c r="E273" s="54"/>
+      <c r="E273" s="68"/>
       <c r="F273" s="52"/>
       <c r="G273" s="52"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" s="69"/>
-      <c r="B274" s="69"/>
-      <c r="C274" s="69"/>
-      <c r="D274" s="69"/>
-      <c r="E274" s="70"/>
-      <c r="F274" s="69"/>
-      <c r="G274" s="63"/>
+      <c r="A274" s="66"/>
+      <c r="B274" s="66"/>
+      <c r="C274" s="66"/>
+      <c r="D274" s="52"/>
+      <c r="E274" s="68"/>
+      <c r="F274" s="52"/>
+      <c r="G274" s="52"/>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275" s="66"/>
-      <c r="B275" s="66"/>
-      <c r="C275" s="66"/>
-      <c r="D275" s="52"/>
-      <c r="E275" s="68"/>
-      <c r="F275" s="52"/>
-      <c r="G275" s="52"/>
+      <c r="A275" s="69"/>
+      <c r="B275" s="69"/>
+      <c r="C275" s="69"/>
+      <c r="D275" s="69"/>
+      <c r="E275" s="70"/>
+      <c r="F275" s="69"/>
+      <c r="G275" s="63"/>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="66"/>
@@ -10190,13 +10169,13 @@
       <c r="G276" s="52"/>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" s="69"/>
-      <c r="B277" s="69"/>
-      <c r="C277" s="69"/>
-      <c r="D277" s="69"/>
-      <c r="E277" s="70"/>
-      <c r="F277" s="69"/>
-      <c r="G277" s="63"/>
+      <c r="A277" s="66"/>
+      <c r="B277" s="66"/>
+      <c r="C277" s="66"/>
+      <c r="D277" s="52"/>
+      <c r="E277" s="68"/>
+      <c r="F277" s="52"/>
+      <c r="G277" s="52"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="66"/>
@@ -10235,13 +10214,13 @@
       <c r="G281" s="52"/>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" s="66"/>
-      <c r="B282" s="66"/>
-      <c r="C282" s="66"/>
-      <c r="D282" s="52"/>
-      <c r="E282" s="68"/>
-      <c r="F282" s="52"/>
-      <c r="G282" s="52"/>
+      <c r="A282" s="69"/>
+      <c r="B282" s="69"/>
+      <c r="C282" s="69"/>
+      <c r="D282" s="69"/>
+      <c r="E282" s="70"/>
+      <c r="F282" s="69"/>
+      <c r="G282" s="63"/>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="66"/>
@@ -10253,67 +10232,67 @@
       <c r="G283" s="52"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A284" s="69"/>
-      <c r="B284" s="69"/>
-      <c r="C284" s="69"/>
-      <c r="D284" s="69"/>
-      <c r="E284" s="70"/>
-      <c r="F284" s="69"/>
-      <c r="G284" s="63"/>
+      <c r="A284" s="66"/>
+      <c r="B284" s="66"/>
+      <c r="C284" s="66"/>
+      <c r="D284" s="52"/>
+      <c r="E284" s="68"/>
+      <c r="F284" s="52"/>
+      <c r="G284" s="52"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285" s="66"/>
-      <c r="B285" s="66"/>
-      <c r="C285" s="66"/>
-      <c r="D285" s="52"/>
-      <c r="E285" s="68"/>
-      <c r="F285" s="52"/>
-      <c r="G285" s="52"/>
+      <c r="A285" s="69"/>
+      <c r="B285" s="69"/>
+      <c r="C285" s="69"/>
+      <c r="D285" s="69"/>
+      <c r="E285" s="70"/>
+      <c r="F285" s="69"/>
+      <c r="G285" s="63"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="66"/>
-      <c r="B286" s="66"/>
-      <c r="C286" s="66"/>
-      <c r="D286" s="52"/>
-      <c r="E286" s="68"/>
+      <c r="B286" s="58"/>
+      <c r="C286" s="58"/>
+      <c r="D286" s="58"/>
+      <c r="E286" s="67"/>
       <c r="F286" s="52"/>
-      <c r="G286" s="52"/>
+      <c r="G286" s="58"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" s="69"/>
-      <c r="B287" s="69"/>
-      <c r="C287" s="69"/>
-      <c r="D287" s="69"/>
-      <c r="E287" s="70"/>
-      <c r="F287" s="69"/>
-      <c r="G287" s="63"/>
+      <c r="A287" s="66"/>
+      <c r="B287" s="58"/>
+      <c r="C287" s="58"/>
+      <c r="D287" s="58"/>
+      <c r="E287" s="67"/>
+      <c r="F287" s="52"/>
+      <c r="G287" s="58"/>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="66"/>
-      <c r="B288" s="58"/>
-      <c r="C288" s="58"/>
-      <c r="D288" s="58"/>
-      <c r="E288" s="67"/>
+      <c r="B288" s="66"/>
+      <c r="C288" s="66"/>
+      <c r="D288" s="52"/>
+      <c r="E288" s="68"/>
       <c r="F288" s="52"/>
-      <c r="G288" s="58"/>
+      <c r="G288" s="52"/>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="66"/>
-      <c r="B289" s="58"/>
-      <c r="C289" s="58"/>
-      <c r="D289" s="58"/>
-      <c r="E289" s="67"/>
+      <c r="B289" s="66"/>
+      <c r="C289" s="66"/>
+      <c r="D289" s="52"/>
+      <c r="E289" s="68"/>
       <c r="F289" s="52"/>
-      <c r="G289" s="58"/>
+      <c r="G289" s="52"/>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="66"/>
-      <c r="B290" s="66"/>
-      <c r="C290" s="66"/>
-      <c r="D290" s="52"/>
-      <c r="E290" s="68"/>
+      <c r="B290" s="58"/>
+      <c r="C290" s="58"/>
+      <c r="D290" s="58"/>
+      <c r="E290" s="67"/>
       <c r="F290" s="52"/>
-      <c r="G290" s="52"/>
+      <c r="G290" s="58"/>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="66"/>
@@ -10326,12 +10305,12 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="66"/>
-      <c r="B292" s="58"/>
-      <c r="C292" s="58"/>
-      <c r="D292" s="58"/>
-      <c r="E292" s="67"/>
+      <c r="B292" s="66"/>
+      <c r="C292" s="66"/>
+      <c r="D292" s="52"/>
+      <c r="E292" s="68"/>
       <c r="F292" s="52"/>
-      <c r="G292" s="58"/>
+      <c r="G292" s="52"/>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="66"/>
@@ -10352,94 +10331,76 @@
       <c r="G294" s="52"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A295" s="66"/>
-      <c r="B295" s="66"/>
-      <c r="C295" s="66"/>
-      <c r="D295" s="52"/>
-      <c r="E295" s="68"/>
-      <c r="F295" s="52"/>
-      <c r="G295" s="52"/>
+      <c r="A295" s="69"/>
+      <c r="B295" s="69"/>
+      <c r="C295" s="69"/>
+      <c r="D295" s="69"/>
+      <c r="E295" s="70"/>
+      <c r="F295" s="69"/>
+      <c r="G295" s="63"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="66"/>
-      <c r="B296" s="66"/>
-      <c r="C296" s="66"/>
+      <c r="B296" s="52"/>
+      <c r="C296" s="52"/>
       <c r="D296" s="52"/>
-      <c r="E296" s="68"/>
+      <c r="E296" s="54"/>
       <c r="F296" s="52"/>
       <c r="G296" s="52"/>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A297" s="69"/>
-      <c r="B297" s="69"/>
-      <c r="C297" s="69"/>
-      <c r="D297" s="69"/>
-      <c r="E297" s="70"/>
-      <c r="F297" s="69"/>
-      <c r="G297" s="63"/>
+      <c r="A297" s="66"/>
+      <c r="B297" s="52"/>
+      <c r="C297" s="52"/>
+      <c r="D297" s="54"/>
+      <c r="E297" s="54"/>
+      <c r="F297" s="52"/>
+      <c r="G297" s="52"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A298" s="66"/>
-      <c r="B298" s="52"/>
-      <c r="C298" s="52"/>
-      <c r="D298" s="52"/>
-      <c r="E298" s="54"/>
-      <c r="F298" s="52"/>
-      <c r="G298" s="52"/>
+      <c r="A298" s="69"/>
+      <c r="B298" s="69"/>
+      <c r="C298" s="69"/>
+      <c r="D298" s="69"/>
+      <c r="E298" s="70"/>
+      <c r="F298" s="69"/>
+      <c r="G298" s="63"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="66"/>
-      <c r="B299" s="52"/>
-      <c r="C299" s="52"/>
-      <c r="D299" s="54"/>
-      <c r="E299" s="54"/>
+      <c r="B299" s="58"/>
+      <c r="C299" s="58"/>
+      <c r="D299" s="58"/>
+      <c r="E299" s="67"/>
       <c r="F299" s="52"/>
-      <c r="G299" s="52"/>
+      <c r="G299" s="58"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A300" s="69"/>
-      <c r="B300" s="69"/>
-      <c r="C300" s="69"/>
-      <c r="D300" s="69"/>
-      <c r="E300" s="70"/>
-      <c r="F300" s="69"/>
-      <c r="G300" s="63"/>
+      <c r="A300" s="66"/>
+      <c r="B300" s="58"/>
+      <c r="C300" s="58"/>
+      <c r="D300" s="58"/>
+      <c r="E300" s="67"/>
+      <c r="F300" s="52"/>
+      <c r="G300" s="58"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A301" s="66"/>
-      <c r="B301" s="58"/>
-      <c r="C301" s="58"/>
-      <c r="D301" s="58"/>
-      <c r="E301" s="67"/>
-      <c r="F301" s="52"/>
-      <c r="G301" s="58"/>
+      <c r="A301" s="69"/>
+      <c r="B301" s="69"/>
+      <c r="C301" s="69"/>
+      <c r="D301" s="69"/>
+      <c r="E301" s="70"/>
+      <c r="F301" s="69"/>
+      <c r="G301" s="63"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A302" s="66"/>
-      <c r="B302" s="58"/>
-      <c r="C302" s="58"/>
-      <c r="D302" s="58"/>
-      <c r="E302" s="67"/>
-      <c r="F302" s="52"/>
-      <c r="G302" s="58"/>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A303" s="69"/>
-      <c r="B303" s="69"/>
-      <c r="C303" s="69"/>
-      <c r="D303" s="69"/>
-      <c r="E303" s="70"/>
-      <c r="F303" s="69"/>
-      <c r="G303" s="63"/>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A304" s="69"/>
-      <c r="B304" s="69"/>
-      <c r="C304" s="69"/>
-      <c r="D304" s="69"/>
-      <c r="E304" s="70"/>
-      <c r="F304" s="69"/>
-      <c r="G304" s="63"/>
+      <c r="A302" s="69"/>
+      <c r="B302" s="69"/>
+      <c r="C302" s="69"/>
+      <c r="D302" s="69"/>
+      <c r="E302" s="70"/>
+      <c r="F302" s="69"/>
+      <c r="G302" s="63"/>
     </row>
   </sheetData>
   <sortState ref="A2:G84">
@@ -10583,7 +10544,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="87">
         <v>34852</v>
@@ -10627,7 +10588,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="87">
         <v>35222</v>
@@ -10984,7 +10945,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="90">
         <v>37050</v>
@@ -11028,7 +10989,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" s="67">
         <v>37405</v>
@@ -11364,7 +11325,7 @@
         <v>22</v>
       </c>
       <c r="D43" s="58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" s="93">
         <v>38583</v>
@@ -11385,7 +11346,7 @@
         <v>22</v>
       </c>
       <c r="D44" s="58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E44" s="93">
         <v>38644</v>
@@ -11431,7 +11392,7 @@
         <v>38834</v>
       </c>
       <c r="F46" s="52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G46" s="52"/>
     </row>
@@ -11532,7 +11493,7 @@
         <v>22</v>
       </c>
       <c r="D51" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E51" s="68">
         <v>39226</v>
@@ -11576,7 +11537,7 @@
         <v>22</v>
       </c>
       <c r="D53" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E53" s="68">
         <v>39266</v>
@@ -11597,7 +11558,7 @@
         <v>22</v>
       </c>
       <c r="D54" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E54" s="68">
         <v>39301</v>
@@ -11618,7 +11579,7 @@
         <v>22</v>
       </c>
       <c r="D55" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E55" s="68">
         <v>39371</v>
@@ -11662,7 +11623,7 @@
         <v>22</v>
       </c>
       <c r="D57" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E57" s="68">
         <v>39595</v>
@@ -11706,7 +11667,7 @@
         <v>22</v>
       </c>
       <c r="D59" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E59" s="68">
         <v>39637</v>
@@ -11727,7 +11688,7 @@
         <v>22</v>
       </c>
       <c r="D60" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E60" s="68">
         <v>39679</v>
@@ -11748,7 +11709,7 @@
         <v>22</v>
       </c>
       <c r="D61" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E61" s="68">
         <v>39735</v>
@@ -11980,10 +11941,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12018,7 +11979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="69">
         <v>4</v>
       </c>
@@ -12041,7 +12002,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="69">
         <v>4</v>
       </c>
@@ -12060,7 +12021,7 @@
       <c r="F3" s="52"/>
       <c r="G3" s="81"/>
     </row>
-    <row r="4" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="69">
         <v>4</v>
       </c>
@@ -12081,7 +12042,7 @@
       </c>
       <c r="G4" s="81"/>
     </row>
-    <row r="5" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="69">
         <v>4</v>
       </c>
@@ -12102,7 +12063,7 @@
       </c>
       <c r="G5" s="86"/>
     </row>
-    <row r="6" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="69">
         <v>4</v>
       </c>
@@ -12125,7 +12086,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="69">
         <v>4</v>
       </c>
@@ -12144,7 +12105,7 @@
       <c r="F7" s="52"/>
       <c r="G7" s="81"/>
     </row>
-    <row r="8" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="69">
         <v>4</v>
       </c>
@@ -12165,7 +12126,7 @@
       </c>
       <c r="G8" s="81"/>
     </row>
-    <row r="9" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="69">
         <v>4</v>
       </c>
@@ -12186,7 +12147,7 @@
       </c>
       <c r="G9" s="81"/>
     </row>
-    <row r="10" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="69">
         <v>4</v>
       </c>
@@ -12197,7 +12158,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="87">
         <v>35222</v>
@@ -12207,7 +12168,7 @@
       </c>
       <c r="G10" s="81"/>
     </row>
-    <row r="11" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="69">
         <v>4</v>
       </c>
@@ -12230,7 +12191,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="69">
         <v>4</v>
       </c>
@@ -12241,7 +12202,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="87">
         <v>35592</v>
@@ -12251,7 +12212,7 @@
       </c>
       <c r="G12" s="82"/>
     </row>
-    <row r="13" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="69">
         <v>4</v>
       </c>
@@ -12274,7 +12235,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="69">
         <v>4</v>
       </c>
@@ -12293,7 +12254,7 @@
       <c r="F14" s="52"/>
       <c r="G14" s="81"/>
     </row>
-    <row r="15" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="69">
         <v>4</v>
       </c>
@@ -12314,7 +12275,7 @@
       </c>
       <c r="G15" s="81"/>
     </row>
-    <row r="16" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="69">
         <v>4</v>
       </c>
@@ -12335,7 +12296,7 @@
       </c>
       <c r="G16" s="81"/>
     </row>
-    <row r="17" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="69">
         <v>4</v>
       </c>
@@ -12358,7 +12319,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="69">
         <v>4</v>
       </c>
@@ -12377,7 +12338,7 @@
       <c r="F18" s="52"/>
       <c r="G18" s="81"/>
     </row>
-    <row r="19" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="69">
         <v>4</v>
       </c>
@@ -12398,7 +12359,7 @@
       </c>
       <c r="G19" s="81"/>
     </row>
-    <row r="20" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="69">
         <v>4</v>
       </c>
@@ -12419,7 +12380,7 @@
       </c>
       <c r="G20" s="81"/>
     </row>
-    <row r="21" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="69">
         <v>4</v>
       </c>
@@ -12442,7 +12403,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="69">
         <v>4</v>
       </c>
@@ -12461,7 +12422,7 @@
       <c r="F22" s="92"/>
       <c r="G22" s="81"/>
     </row>
-    <row r="23" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="69">
         <v>4</v>
       </c>
@@ -12482,7 +12443,7 @@
       </c>
       <c r="G23" s="81"/>
     </row>
-    <row r="24" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="69">
         <v>4</v>
       </c>
@@ -12503,7 +12464,7 @@
       </c>
       <c r="G24" s="81"/>
     </row>
-    <row r="25" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="69">
         <v>4</v>
       </c>
@@ -12526,7 +12487,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="69">
         <v>4</v>
       </c>
@@ -12545,7 +12506,7 @@
       <c r="F26" s="52"/>
       <c r="G26" s="82"/>
     </row>
-    <row r="27" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="69">
         <v>4</v>
       </c>
@@ -12566,7 +12527,7 @@
       </c>
       <c r="G27" s="81"/>
     </row>
-    <row r="28" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="69">
         <v>4</v>
       </c>
@@ -12587,7 +12548,7 @@
       </c>
       <c r="G28" s="81"/>
     </row>
-    <row r="29" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="69">
         <v>4</v>
       </c>
@@ -12598,7 +12559,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E29" s="67">
         <v>37405</v>
@@ -12608,7 +12569,7 @@
       </c>
       <c r="G29" s="81"/>
     </row>
-    <row r="30" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="69">
         <v>4</v>
       </c>
@@ -12618,18 +12579,18 @@
       <c r="C30" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="58" t="s">
-        <v>10</v>
+      <c r="D30" s="75" t="s">
+        <v>31</v>
       </c>
       <c r="E30" s="67">
-        <v>37727</v>
-      </c>
-      <c r="F30" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="86"/>
-    </row>
-    <row r="31" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+        <v>37469</v>
+      </c>
+      <c r="F30" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="81"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="69">
         <v>4</v>
       </c>
@@ -12639,18 +12600,20 @@
       <c r="C31" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="75" t="s">
-        <v>32</v>
+      <c r="D31" s="58" t="s">
+        <v>10</v>
       </c>
       <c r="E31" s="67">
-        <v>37774</v>
-      </c>
-      <c r="F31" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="81"/>
-    </row>
-    <row r="32" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+        <v>37727</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="69">
         <v>4</v>
       </c>
@@ -12660,20 +12623,18 @@
       <c r="C32" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="58" t="s">
-        <v>10</v>
+      <c r="D32" s="75" t="s">
+        <v>31</v>
       </c>
       <c r="E32" s="67">
-        <v>38075</v>
-      </c>
-      <c r="F32" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="86">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+        <v>37774</v>
+      </c>
+      <c r="F32" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="81"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="69">
         <v>4</v>
       </c>
@@ -12683,18 +12644,18 @@
       <c r="C33" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="58" t="s">
-        <v>13</v>
+      <c r="D33" s="75" t="s">
+        <v>31</v>
       </c>
       <c r="E33" s="67">
-        <v>38079</v>
+        <v>37834</v>
       </c>
       <c r="F33" s="58" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G33" s="81"/>
     </row>
-    <row r="34" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="69">
         <v>4</v>
       </c>
@@ -12705,17 +12666,19 @@
         <v>7</v>
       </c>
       <c r="D34" s="58" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="67">
-        <v>38092</v>
-      </c>
-      <c r="F34" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="81"/>
-    </row>
-    <row r="35" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+        <v>38075</v>
+      </c>
+      <c r="F34" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="69">
         <v>4</v>
       </c>
@@ -12726,61 +12689,59 @@
         <v>7</v>
       </c>
       <c r="D35" s="58" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E35" s="67">
-        <v>38233</v>
+        <v>38079</v>
       </c>
       <c r="F35" s="58" t="s">
         <v>17</v>
       </c>
       <c r="G35" s="81"/>
     </row>
-    <row r="36" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="69">
         <v>4</v>
       </c>
-      <c r="B36" s="78">
+      <c r="B36" s="58">
         <v>3</v>
       </c>
       <c r="C36" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="90">
-        <v>38443</v>
-      </c>
-      <c r="F36" s="91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="81">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="67">
+        <v>38092</v>
+      </c>
+      <c r="F36" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="81"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="69">
         <v>4</v>
       </c>
-      <c r="B37" s="78">
+      <c r="B37" s="58">
         <v>3</v>
       </c>
       <c r="C37" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="90">
-        <v>38443</v>
-      </c>
-      <c r="F37" s="94" t="s">
-        <v>18</v>
+      <c r="D37" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="67">
+        <v>38233</v>
+      </c>
+      <c r="F37" s="58" t="s">
+        <v>17</v>
       </c>
       <c r="G37" s="81"/>
     </row>
-    <row r="38" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="69">
         <v>4</v>
       </c>
@@ -12791,17 +12752,19 @@
         <v>7</v>
       </c>
       <c r="D38" s="75" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" s="90">
         <v>38443</v>
       </c>
-      <c r="F38" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" s="81"/>
-    </row>
-    <row r="39" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="69">
         <v>4</v>
       </c>
@@ -12812,15 +12775,17 @@
         <v>7</v>
       </c>
       <c r="D39" s="75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E39" s="90">
         <v>38443</v>
       </c>
-      <c r="F39" s="92"/>
-      <c r="G39" s="82"/>
-    </row>
-    <row r="40" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="81"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="69">
         <v>4</v>
       </c>
@@ -12831,78 +12796,76 @@
         <v>7</v>
       </c>
       <c r="D40" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="90">
+        <v>38443</v>
+      </c>
+      <c r="F40" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="81"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="69">
+        <v>4</v>
+      </c>
+      <c r="B41" s="78">
+        <v>3</v>
+      </c>
+      <c r="C41" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="90">
+        <v>38443</v>
+      </c>
+      <c r="F41" s="92"/>
+      <c r="G41" s="82"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="69">
+        <v>4</v>
+      </c>
+      <c r="B42" s="78">
+        <v>3</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="87">
+      <c r="E42" s="87">
         <v>38586</v>
       </c>
-      <c r="F40" s="58" t="s">
+      <c r="F42" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="81"/>
-    </row>
-    <row r="41" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="66">
-        <v>4</v>
-      </c>
-      <c r="B41" s="52">
+      <c r="G42" s="81"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="66">
+        <v>4</v>
+      </c>
+      <c r="B43" s="52">
         <v>3</v>
       </c>
-      <c r="C41" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="52" t="s">
+      <c r="C43" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="54">
+      <c r="E43" s="54">
         <v>38826</v>
       </c>
-      <c r="F41" s="52"/>
-      <c r="G41" s="82"/>
-    </row>
-    <row r="42" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="66">
-        <v>4</v>
-      </c>
-      <c r="B42" s="52">
-        <v>3</v>
-      </c>
-      <c r="C42" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="54">
-        <v>38834</v>
-      </c>
-      <c r="F42" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" s="82"/>
-    </row>
-    <row r="43" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="66">
-        <v>4</v>
-      </c>
-      <c r="B43" s="58">
-        <v>3</v>
-      </c>
-      <c r="C43" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="67">
-        <v>38882</v>
-      </c>
       <c r="F43" s="52"/>
-      <c r="G43" s="86">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="82"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="66">
         <v>4</v>
       </c>
@@ -12912,18 +12875,18 @@
       <c r="C44" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="52" t="s">
-        <v>8</v>
+      <c r="D44" s="54" t="s">
+        <v>13</v>
       </c>
       <c r="E44" s="54">
-        <v>38896</v>
+        <v>38834</v>
       </c>
       <c r="F44" s="52" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G44" s="82"/>
     </row>
-    <row r="45" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="66">
         <v>4</v>
       </c>
@@ -12937,14 +12900,14 @@
         <v>20</v>
       </c>
       <c r="E45" s="67">
-        <v>38906</v>
+        <v>38882</v>
       </c>
       <c r="F45" s="52"/>
       <c r="G45" s="86">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="66">
         <v>4</v>
       </c>
@@ -12955,38 +12918,38 @@
         <v>7</v>
       </c>
       <c r="D46" s="52" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E46" s="54">
-        <v>38953</v>
+        <v>38896</v>
       </c>
       <c r="F46" s="52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G46" s="82"/>
     </row>
-    <row r="47" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="66">
         <v>4</v>
       </c>
-      <c r="B47" s="52">
+      <c r="B47" s="58">
         <v>3</v>
       </c>
-      <c r="C47" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="54">
-        <v>39002</v>
-      </c>
-      <c r="F47" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="82"/>
-    </row>
-    <row r="48" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="67">
+        <v>38906</v>
+      </c>
+      <c r="F47" s="52"/>
+      <c r="G47" s="86">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="66">
         <v>4</v>
       </c>
@@ -12997,15 +12960,17 @@
         <v>7</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E48" s="54">
-        <v>39169</v>
-      </c>
-      <c r="F48" s="52"/>
+        <v>38953</v>
+      </c>
+      <c r="F48" s="52" t="s">
+        <v>18</v>
+      </c>
       <c r="G48" s="82"/>
     </row>
-    <row r="49" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="66">
         <v>4</v>
       </c>
@@ -13015,18 +12980,18 @@
       <c r="C49" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="54" t="s">
-        <v>13</v>
+      <c r="D49" s="52" t="s">
+        <v>31</v>
       </c>
       <c r="E49" s="54">
-        <v>39175</v>
+        <v>39002</v>
       </c>
       <c r="F49" s="52" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G49" s="82"/>
     </row>
-    <row r="50" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="66">
         <v>4</v>
       </c>
@@ -13037,61 +13002,57 @@
         <v>7</v>
       </c>
       <c r="D50" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="54">
+        <v>39169</v>
+      </c>
+      <c r="F50" s="52"/>
+      <c r="G50" s="82"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="66">
+        <v>4</v>
+      </c>
+      <c r="B51" s="52">
+        <v>3</v>
+      </c>
+      <c r="C51" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="54">
+        <v>39175</v>
+      </c>
+      <c r="F51" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="82"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="66">
+        <v>4</v>
+      </c>
+      <c r="B52" s="52">
+        <v>3</v>
+      </c>
+      <c r="C52" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="54">
+      <c r="E52" s="54">
         <v>39296</v>
       </c>
-      <c r="F50" s="52" t="s">
+      <c r="F52" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="G50" s="82"/>
-    </row>
-    <row r="51" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="69">
-        <v>4</v>
-      </c>
-      <c r="B51" s="69">
-        <v>3</v>
-      </c>
-      <c r="C51" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="70">
-        <v>39546</v>
-      </c>
-      <c r="F51" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="63">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="66">
-        <v>4</v>
-      </c>
-      <c r="B52" s="66">
-        <v>3</v>
-      </c>
-      <c r="C52" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="68">
-        <v>39594</v>
-      </c>
-      <c r="F52" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="97"/>
-    </row>
-    <row r="53" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G52" s="82"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="69">
         <v>4</v>
       </c>
@@ -13105,16 +13066,16 @@
         <v>10</v>
       </c>
       <c r="E53" s="70">
-        <v>39603</v>
+        <v>39546</v>
       </c>
       <c r="F53" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G53" s="63">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="66">
         <v>4</v>
       </c>
@@ -13125,38 +13086,40 @@
         <v>7</v>
       </c>
       <c r="D54" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E54" s="68">
-        <v>39637</v>
+        <v>39594</v>
       </c>
       <c r="F54" s="52" t="s">
         <v>9</v>
       </c>
       <c r="G54" s="97"/>
     </row>
-    <row r="55" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="66">
-        <v>4</v>
-      </c>
-      <c r="B55" s="66">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="69">
+        <v>4</v>
+      </c>
+      <c r="B55" s="69">
         <v>3</v>
       </c>
-      <c r="C55" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="68">
-        <v>39681</v>
-      </c>
-      <c r="F55" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="97"/>
-    </row>
-    <row r="56" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="70">
+        <v>39603</v>
+      </c>
+      <c r="F55" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="63">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="66">
         <v>4</v>
       </c>
@@ -13167,40 +13130,38 @@
         <v>7</v>
       </c>
       <c r="D56" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E56" s="68">
-        <v>39735</v>
+        <v>39637</v>
       </c>
       <c r="F56" s="52" t="s">
         <v>9</v>
       </c>
       <c r="G56" s="97"/>
     </row>
-    <row r="57" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="69">
-        <v>4</v>
-      </c>
-      <c r="B57" s="69">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="66">
+        <v>4</v>
+      </c>
+      <c r="B57" s="66">
         <v>3</v>
       </c>
-      <c r="C57" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="70">
-        <v>39898</v>
-      </c>
-      <c r="F57" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="63">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="68">
+        <v>39681</v>
+      </c>
+      <c r="F57" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="97"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="66">
         <v>4</v>
       </c>
@@ -13211,17 +13172,17 @@
         <v>7</v>
       </c>
       <c r="D58" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E58" s="68">
-        <v>39959</v>
+        <v>39735</v>
       </c>
       <c r="F58" s="52" t="s">
         <v>9</v>
       </c>
       <c r="G58" s="97"/>
     </row>
-    <row r="59" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="69">
         <v>4</v>
       </c>
@@ -13235,79 +13196,81 @@
         <v>10</v>
       </c>
       <c r="E59" s="70">
-        <v>39962</v>
+        <v>39898</v>
       </c>
       <c r="F59" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="63">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="66">
+        <v>4</v>
+      </c>
+      <c r="B60" s="66">
+        <v>3</v>
+      </c>
+      <c r="C60" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="68">
+        <v>39959</v>
+      </c>
+      <c r="F60" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="97"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="69">
+        <v>4</v>
+      </c>
+      <c r="B61" s="69">
+        <v>3</v>
+      </c>
+      <c r="C61" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="70">
+        <v>39962</v>
+      </c>
+      <c r="F61" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="63">
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="66">
-        <v>4</v>
-      </c>
-      <c r="B60" s="58">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="66">
+        <v>4</v>
+      </c>
+      <c r="B62" s="58">
         <v>3</v>
       </c>
-      <c r="C60" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="58" t="s">
+      <c r="C62" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="67">
+      <c r="E62" s="67">
         <v>39967</v>
       </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="86">
+      <c r="F62" s="52"/>
+      <c r="G62" s="86">
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="66">
-        <v>4</v>
-      </c>
-      <c r="B61" s="58">
-        <v>3</v>
-      </c>
-      <c r="C61" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E61" s="67">
-        <v>39990</v>
-      </c>
-      <c r="F61" s="52"/>
-      <c r="G61" s="86">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="66">
-        <v>4</v>
-      </c>
-      <c r="B62" s="66">
-        <v>3</v>
-      </c>
-      <c r="C62" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E62" s="68">
-        <v>40000</v>
-      </c>
-      <c r="F62" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="82"/>
-    </row>
-    <row r="63" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="66">
         <v>4</v>
       </c>
@@ -13321,14 +13284,14 @@
         <v>20</v>
       </c>
       <c r="E63" s="67">
-        <v>40002</v>
+        <v>39990</v>
       </c>
       <c r="F63" s="52"/>
       <c r="G63" s="86">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="66">
         <v>4</v>
       </c>
@@ -13339,38 +13302,38 @@
         <v>7</v>
       </c>
       <c r="D64" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E64" s="68">
-        <v>40044</v>
+        <v>40000</v>
       </c>
       <c r="F64" s="52" t="s">
         <v>9</v>
       </c>
       <c r="G64" s="82"/>
     </row>
-    <row r="65" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="66">
         <v>4</v>
       </c>
-      <c r="B65" s="66">
+      <c r="B65" s="58">
         <v>3</v>
       </c>
-      <c r="C65" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E65" s="68">
-        <v>40106</v>
-      </c>
-      <c r="F65" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G65" s="82"/>
-    </row>
-    <row r="66" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="67">
+        <v>40002</v>
+      </c>
+      <c r="F65" s="52"/>
+      <c r="G65" s="86">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="66">
         <v>4</v>
       </c>
@@ -13381,38 +13344,38 @@
         <v>7</v>
       </c>
       <c r="D66" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E66" s="68">
-        <v>40337</v>
+        <v>40044</v>
       </c>
       <c r="F66" s="52" t="s">
         <v>9</v>
       </c>
       <c r="G66" s="82"/>
     </row>
-    <row r="67" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="66">
         <v>4</v>
       </c>
-      <c r="B67" s="58">
+      <c r="B67" s="66">
         <v>3</v>
       </c>
-      <c r="C67" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E67" s="67">
-        <v>40361</v>
-      </c>
-      <c r="F67" s="52"/>
-      <c r="G67" s="86">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" s="68">
+        <v>40106</v>
+      </c>
+      <c r="F67" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="82"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="66">
         <v>4</v>
       </c>
@@ -13423,17 +13386,17 @@
         <v>7</v>
       </c>
       <c r="D68" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E68" s="68">
-        <v>40373</v>
+        <v>40337</v>
       </c>
       <c r="F68" s="52" t="s">
         <v>9</v>
       </c>
       <c r="G68" s="82"/>
     </row>
-    <row r="69" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="66">
         <v>4</v>
       </c>
@@ -13447,14 +13410,14 @@
         <v>20</v>
       </c>
       <c r="E69" s="67">
-        <v>40387</v>
+        <v>40361</v>
       </c>
       <c r="F69" s="52"/>
-      <c r="G69" s="100">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="86">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="66">
         <v>4</v>
       </c>
@@ -13465,57 +13428,99 @@
         <v>7</v>
       </c>
       <c r="D70" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E70" s="68">
-        <v>40416</v>
+        <v>40373</v>
       </c>
       <c r="F70" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G70" s="98"/>
-    </row>
-    <row r="71" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G70" s="82"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="66">
         <v>4</v>
       </c>
-      <c r="B71" s="66">
+      <c r="B71" s="58">
         <v>3</v>
       </c>
-      <c r="C71" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E71" s="68">
+      <c r="C71" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" s="67">
+        <v>40387</v>
+      </c>
+      <c r="F71" s="52"/>
+      <c r="G71" s="100">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="66">
+        <v>4</v>
+      </c>
+      <c r="B72" s="66">
+        <v>3</v>
+      </c>
+      <c r="C72" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="68">
+        <v>40416</v>
+      </c>
+      <c r="F72" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="98"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="66">
+        <v>4</v>
+      </c>
+      <c r="B73" s="66">
+        <v>3</v>
+      </c>
+      <c r="C73" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" s="68">
         <v>40463</v>
       </c>
-      <c r="F71" s="52" t="s">
+      <c r="F73" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G71" s="98"/>
-    </row>
-    <row r="72" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="69">
-        <v>4</v>
-      </c>
-      <c r="B72" s="69">
+      <c r="G73" s="98"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="69">
+        <v>4</v>
+      </c>
+      <c r="B74" s="69">
         <v>3</v>
       </c>
-      <c r="C72" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="69" t="s">
+      <c r="C74" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="70">
+      <c r="E74" s="70">
         <v>40625</v>
       </c>
-      <c r="F72" s="69" t="s">
+      <c r="F74" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G72" s="63">
+      <c r="G74" s="63">
         <v>95</v>
       </c>
     </row>
@@ -13529,10 +13534,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V144"/>
+  <dimension ref="A1:V146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13869,7 +13874,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="87">
         <v>35222</v>
@@ -13941,7 +13946,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="87">
         <v>35592</v>
@@ -14536,7 +14541,7 @@
         <v>22</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E29" s="67">
         <v>37405</v>
@@ -14570,30 +14575,30 @@
       <c r="C30" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="67">
-        <v>37727</v>
-      </c>
-      <c r="F30" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="58"/>
+      <c r="D30" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="101">
+        <v>37467</v>
+      </c>
+      <c r="F30" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="46"/>
       <c r="H30" s="69"/>
-      <c r="I30" s="78"/>
+      <c r="I30" s="58"/>
       <c r="J30" s="46"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="91"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="58"/>
       <c r="N30" s="46"/>
       <c r="P30" s="69"/>
-      <c r="Q30" s="78"/>
+      <c r="Q30" s="58"/>
       <c r="R30" s="46"/>
-      <c r="S30" s="75"/>
-      <c r="T30" s="90"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="67"/>
       <c r="U30" s="46"/>
-      <c r="V30" s="78"/>
+      <c r="V30" s="58"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="69">
@@ -14605,30 +14610,32 @@
       <c r="C31" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="75" t="s">
-        <v>32</v>
+      <c r="D31" s="58" t="s">
+        <v>10</v>
       </c>
       <c r="E31" s="67">
-        <v>37774</v>
-      </c>
-      <c r="F31" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="46"/>
+        <v>37727</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="58">
+        <v>100</v>
+      </c>
       <c r="H31" s="69"/>
-      <c r="I31" s="58"/>
+      <c r="I31" s="78"/>
       <c r="J31" s="46"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="58"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="46"/>
       <c r="P31" s="69"/>
-      <c r="Q31" s="58"/>
+      <c r="Q31" s="78"/>
       <c r="R31" s="46"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="67"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="46"/>
+      <c r="S31" s="75"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="78"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="69">
@@ -14640,31 +14647,29 @@
       <c r="C32" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="58" t="s">
-        <v>10</v>
+      <c r="D32" s="75" t="s">
+        <v>31</v>
       </c>
       <c r="E32" s="67">
-        <v>38075</v>
-      </c>
-      <c r="F32" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="58">
-        <v>100</v>
-      </c>
+        <v>37774</v>
+      </c>
+      <c r="F32" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="46"/>
       <c r="H32" s="69"/>
-      <c r="I32" s="78"/>
+      <c r="I32" s="58"/>
       <c r="J32" s="46"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="90"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="67"/>
       <c r="M32" s="46"/>
-      <c r="N32" s="78"/>
+      <c r="N32" s="58"/>
       <c r="P32" s="69"/>
-      <c r="Q32" s="78"/>
+      <c r="Q32" s="58"/>
       <c r="R32" s="46"/>
-      <c r="S32" s="75"/>
-      <c r="T32" s="90"/>
-      <c r="U32" s="52"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="67"/>
+      <c r="U32" s="58"/>
       <c r="V32" s="46"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
@@ -14677,30 +14682,30 @@
       <c r="C33" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="67">
-        <v>38079</v>
+      <c r="D33" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="101">
+        <v>37834</v>
       </c>
       <c r="F33" s="58" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G33" s="46"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="58"/>
       <c r="P33" s="69"/>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="69"/>
-      <c r="S33" s="69"/>
-      <c r="T33" s="70"/>
-      <c r="U33" s="69"/>
-      <c r="V33" s="63"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="67"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="46"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="69">
@@ -14713,28 +14718,26 @@
         <v>22</v>
       </c>
       <c r="D34" s="58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" s="67">
-        <v>38092</v>
-      </c>
-      <c r="F34" s="58" t="s">
-        <v>18</v>
-      </c>
+        <v>38078</v>
+      </c>
+      <c r="F34" s="58"/>
       <c r="G34" s="46"/>
       <c r="H34" s="69"/>
       <c r="I34" s="78"/>
       <c r="J34" s="46"/>
       <c r="K34" s="75"/>
       <c r="L34" s="90"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="78"/>
       <c r="P34" s="69"/>
       <c r="Q34" s="78"/>
       <c r="R34" s="46"/>
       <c r="S34" s="75"/>
       <c r="T34" s="90"/>
-      <c r="U34" s="91"/>
+      <c r="U34" s="52"/>
       <c r="V34" s="46"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
@@ -14748,15 +14751,17 @@
         <v>22</v>
       </c>
       <c r="D35" s="58" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E35" s="67">
-        <v>38233</v>
-      </c>
-      <c r="F35" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="46"/>
+        <v>38075</v>
+      </c>
+      <c r="F35" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="58">
+        <v>100</v>
+      </c>
       <c r="H35" s="66"/>
       <c r="I35" s="66"/>
       <c r="J35" s="66"/>
@@ -14764,42 +14769,40 @@
       <c r="L35" s="68"/>
       <c r="M35" s="52"/>
       <c r="N35" s="52"/>
-      <c r="P35" s="66"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="58"/>
-      <c r="S35" s="58"/>
-      <c r="T35" s="67"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="58"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="69"/>
+      <c r="R35" s="69"/>
+      <c r="S35" s="69"/>
+      <c r="T35" s="70"/>
+      <c r="U35" s="69"/>
+      <c r="V35" s="63"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="69">
         <v>4</v>
       </c>
-      <c r="B36" s="78">
+      <c r="B36" s="58">
         <v>3</v>
       </c>
       <c r="C36" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="90">
-        <v>38443</v>
-      </c>
-      <c r="F36" s="91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="46">
-        <v>100</v>
-      </c>
+      <c r="D36" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="67">
+        <v>38079</v>
+      </c>
+      <c r="F36" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="46"/>
       <c r="H36" s="69"/>
       <c r="I36" s="78"/>
       <c r="J36" s="46"/>
       <c r="K36" s="75"/>
       <c r="L36" s="90"/>
-      <c r="M36" s="52"/>
+      <c r="M36" s="91"/>
       <c r="N36" s="46"/>
       <c r="P36" s="69"/>
       <c r="Q36" s="78"/>
@@ -14813,71 +14816,71 @@
       <c r="A37" s="69">
         <v>4</v>
       </c>
-      <c r="B37" s="78">
+      <c r="B37" s="58">
         <v>3</v>
       </c>
       <c r="C37" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="75" t="s">
+      <c r="D37" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="90">
-        <v>38443</v>
+      <c r="E37" s="67">
+        <v>38092</v>
       </c>
       <c r="F37" s="58" t="s">
         <v>18</v>
       </c>
       <c r="G37" s="46"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="90"/>
-      <c r="M37" s="91"/>
-      <c r="N37" s="46"/>
-      <c r="P37" s="69"/>
-      <c r="Q37" s="78"/>
-      <c r="R37" s="46"/>
-      <c r="S37" s="75"/>
-      <c r="T37" s="90"/>
-      <c r="U37" s="91"/>
-      <c r="V37" s="46"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="P37" s="66"/>
+      <c r="Q37" s="58"/>
+      <c r="R37" s="58"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="67"/>
+      <c r="U37" s="52"/>
+      <c r="V37" s="58"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="69">
         <v>4</v>
       </c>
-      <c r="B38" s="78">
+      <c r="B38" s="58">
         <v>3</v>
       </c>
       <c r="C38" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="90">
-        <v>38443</v>
+      <c r="D38" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="67">
+        <v>38233</v>
       </c>
       <c r="F38" s="58" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G38" s="46"/>
       <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="70"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="63"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="66"/>
-      <c r="R38" s="66"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="68"/>
-      <c r="U38" s="52"/>
-      <c r="V38" s="52"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="46"/>
+      <c r="P38" s="69"/>
+      <c r="Q38" s="78"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="75"/>
+      <c r="T38" s="90"/>
+      <c r="U38" s="91"/>
+      <c r="V38" s="46"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="69">
@@ -14890,27 +14893,31 @@
         <v>22</v>
       </c>
       <c r="D39" s="75" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E39" s="90">
         <v>38443</v>
       </c>
-      <c r="F39" s="52"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="58"/>
+      <c r="F39" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="46">
+        <v>100</v>
+      </c>
+      <c r="H39" s="69"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="91"/>
+      <c r="N39" s="46"/>
       <c r="P39" s="69"/>
-      <c r="Q39" s="75"/>
+      <c r="Q39" s="78"/>
       <c r="R39" s="46"/>
       <c r="S39" s="75"/>
-      <c r="T39" s="87"/>
-      <c r="U39" s="75"/>
-      <c r="V39" s="58"/>
+      <c r="T39" s="90"/>
+      <c r="U39" s="91"/>
+      <c r="V39" s="46"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="69">
@@ -14923,165 +14930,163 @@
         <v>22</v>
       </c>
       <c r="D40" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="87">
-        <v>38586</v>
+        <v>13</v>
+      </c>
+      <c r="E40" s="90">
+        <v>38443</v>
       </c>
       <c r="F40" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="46"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="63"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="66"/>
+      <c r="R40" s="66"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="68"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="52"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="69">
+        <v>4</v>
+      </c>
+      <c r="B41" s="78">
+        <v>3</v>
+      </c>
+      <c r="C41" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="90">
+        <v>38443</v>
+      </c>
+      <c r="F41" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="46"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="P40" s="69"/>
-      <c r="Q40" s="69"/>
-      <c r="R40" s="69"/>
-      <c r="S40" s="69"/>
-      <c r="T40" s="70"/>
-      <c r="U40" s="69"/>
-      <c r="V40" s="63"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="66">
-        <v>4</v>
-      </c>
-      <c r="B41" s="52">
-        <v>3</v>
-      </c>
-      <c r="C41" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="54">
-        <v>38826</v>
-      </c>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="70"/>
-      <c r="M41" s="69"/>
-      <c r="N41" s="63"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="58"/>
       <c r="P41" s="69"/>
       <c r="Q41" s="75"/>
       <c r="R41" s="46"/>
       <c r="S41" s="75"/>
       <c r="T41" s="87"/>
-      <c r="U41" s="46"/>
-      <c r="V41" s="75"/>
+      <c r="U41" s="75"/>
+      <c r="V41" s="58"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="66">
-        <v>4</v>
-      </c>
-      <c r="B42" s="52">
+      <c r="A42" s="69">
+        <v>4</v>
+      </c>
+      <c r="B42" s="78">
         <v>3</v>
       </c>
-      <c r="C42" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="54">
-        <v>38832</v>
-      </c>
-      <c r="F42" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" s="52"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="46"/>
-      <c r="P42" s="66"/>
-      <c r="Q42" s="66"/>
-      <c r="R42" s="66"/>
-      <c r="S42" s="52"/>
-      <c r="T42" s="68"/>
-      <c r="U42" s="52"/>
-      <c r="V42" s="52"/>
+      <c r="C42" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="90">
+        <v>38443</v>
+      </c>
+      <c r="F42" s="52"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="P42" s="69"/>
+      <c r="Q42" s="69"/>
+      <c r="R42" s="69"/>
+      <c r="S42" s="69"/>
+      <c r="T42" s="70"/>
+      <c r="U42" s="69"/>
+      <c r="V42" s="63"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="66">
-        <v>4</v>
-      </c>
-      <c r="B43" s="58">
+      <c r="A43" s="69">
+        <v>4</v>
+      </c>
+      <c r="B43" s="78">
         <v>3</v>
       </c>
-      <c r="C43" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="67">
-        <v>38882</v>
-      </c>
-      <c r="F43" s="52"/>
-      <c r="G43" s="58">
-        <v>33</v>
-      </c>
-      <c r="H43" s="66"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="67"/>
-      <c r="M43" s="52"/>
-      <c r="N43" s="58"/>
-      <c r="P43" s="66"/>
-      <c r="Q43" s="52"/>
-      <c r="R43" s="52"/>
-      <c r="S43" s="52"/>
-      <c r="T43" s="54"/>
-      <c r="U43" s="52"/>
-      <c r="V43" s="52"/>
+      <c r="C43" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="87">
+        <v>38586</v>
+      </c>
+      <c r="F43" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="46"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="63"/>
+      <c r="P43" s="69"/>
+      <c r="Q43" s="75"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="75"/>
+      <c r="T43" s="87"/>
+      <c r="U43" s="46"/>
+      <c r="V43" s="75"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="66">
         <v>4</v>
       </c>
-      <c r="B44" s="58">
+      <c r="B44" s="52">
         <v>3</v>
       </c>
-      <c r="C44" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="67">
-        <v>38906</v>
+      <c r="C44" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="54">
+        <v>38826</v>
       </c>
       <c r="F44" s="52"/>
-      <c r="G44" s="58">
-        <v>40</v>
-      </c>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="68"/>
-      <c r="M44" s="52"/>
-      <c r="N44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="46"/>
       <c r="P44" s="66"/>
-      <c r="Q44" s="52"/>
-      <c r="R44" s="52"/>
-      <c r="S44" s="54"/>
-      <c r="T44" s="54"/>
+      <c r="Q44" s="66"/>
+      <c r="R44" s="66"/>
+      <c r="S44" s="52"/>
+      <c r="T44" s="68"/>
       <c r="U44" s="52"/>
       <c r="V44" s="52"/>
     </row>
@@ -15095,28 +15100,28 @@
       <c r="C45" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="52" t="s">
-        <v>8</v>
+      <c r="D45" s="54" t="s">
+        <v>13</v>
       </c>
       <c r="E45" s="54">
-        <v>38967</v>
+        <v>38832</v>
       </c>
       <c r="F45" s="52" t="s">
         <v>27</v>
       </c>
       <c r="G45" s="52"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="75"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="75"/>
-      <c r="L45" s="87"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="67"/>
       <c r="M45" s="52"/>
-      <c r="N45" s="46"/>
+      <c r="N45" s="58"/>
       <c r="P45" s="66"/>
-      <c r="Q45" s="66"/>
-      <c r="R45" s="66"/>
+      <c r="Q45" s="52"/>
+      <c r="R45" s="52"/>
       <c r="S45" s="52"/>
-      <c r="T45" s="68"/>
+      <c r="T45" s="54"/>
       <c r="U45" s="52"/>
       <c r="V45" s="52"/>
     </row>
@@ -15124,34 +15129,34 @@
       <c r="A46" s="66">
         <v>4</v>
       </c>
-      <c r="B46" s="52">
+      <c r="B46" s="58">
         <v>3</v>
       </c>
-      <c r="C46" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="54">
-        <v>38973</v>
-      </c>
-      <c r="F46" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" s="52"/>
+      <c r="C46" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="67">
+        <v>38882</v>
+      </c>
+      <c r="F46" s="52"/>
+      <c r="G46" s="58">
+        <v>33</v>
+      </c>
       <c r="H46" s="66"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="67"/>
+      <c r="I46" s="66"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="68"/>
       <c r="M46" s="52"/>
-      <c r="N46" s="58"/>
+      <c r="N46" s="52"/>
       <c r="P46" s="66"/>
-      <c r="Q46" s="66"/>
-      <c r="R46" s="66"/>
-      <c r="S46" s="52"/>
-      <c r="T46" s="68"/>
+      <c r="Q46" s="52"/>
+      <c r="R46" s="52"/>
+      <c r="S46" s="54"/>
+      <c r="T46" s="54"/>
       <c r="U46" s="52"/>
       <c r="V46" s="52"/>
     </row>
@@ -15159,34 +15164,36 @@
       <c r="A47" s="66">
         <v>4</v>
       </c>
-      <c r="B47" s="52">
+      <c r="B47" s="58">
         <v>3</v>
       </c>
-      <c r="C47" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="54">
-        <v>39169</v>
+      <c r="C47" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="67">
+        <v>38906</v>
       </c>
       <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
+      <c r="G47" s="58">
+        <v>40</v>
+      </c>
       <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="69"/>
-      <c r="K47" s="69"/>
-      <c r="L47" s="70"/>
-      <c r="M47" s="69"/>
-      <c r="N47" s="63"/>
-      <c r="P47" s="69"/>
-      <c r="Q47" s="75"/>
-      <c r="R47" s="46"/>
-      <c r="S47" s="75"/>
-      <c r="T47" s="87"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="75"/>
+      <c r="L47" s="87"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="46"/>
+      <c r="P47" s="66"/>
+      <c r="Q47" s="66"/>
+      <c r="R47" s="66"/>
+      <c r="S47" s="52"/>
+      <c r="T47" s="68"/>
       <c r="U47" s="52"/>
-      <c r="V47" s="46"/>
+      <c r="V47" s="52"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="66">
@@ -15198,23 +15205,23 @@
       <c r="C48" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="54" t="s">
-        <v>13</v>
+      <c r="D48" s="52" t="s">
+        <v>8</v>
       </c>
       <c r="E48" s="54">
-        <v>39175</v>
+        <v>38967</v>
       </c>
       <c r="F48" s="52" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G48" s="52"/>
       <c r="H48" s="66"/>
-      <c r="I48" s="66"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="68"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="67"/>
       <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
+      <c r="N48" s="58"/>
       <c r="P48" s="66"/>
       <c r="Q48" s="66"/>
       <c r="R48" s="66"/>
@@ -15233,136 +15240,132 @@
       <c r="C49" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="52" t="s">
-        <v>8</v>
+      <c r="D49" s="54" t="s">
+        <v>13</v>
       </c>
       <c r="E49" s="54">
-        <v>39296</v>
-      </c>
-      <c r="F49" s="52" t="s">
-        <v>17</v>
+        <v>38973</v>
+      </c>
+      <c r="F49" s="103" t="s">
+        <v>32</v>
       </c>
       <c r="G49" s="52"/>
-      <c r="H49" s="66"/>
-      <c r="I49" s="66"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="68"/>
-      <c r="M49" s="52"/>
-      <c r="N49" s="52"/>
-      <c r="P49" s="66"/>
-      <c r="Q49" s="52"/>
-      <c r="R49" s="52"/>
-      <c r="S49" s="52"/>
-      <c r="T49" s="54"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="70"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="63"/>
+      <c r="P49" s="69"/>
+      <c r="Q49" s="75"/>
+      <c r="R49" s="46"/>
+      <c r="S49" s="75"/>
+      <c r="T49" s="87"/>
       <c r="U49" s="52"/>
-      <c r="V49" s="52"/>
+      <c r="V49" s="46"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="69">
-        <v>4</v>
-      </c>
-      <c r="B50" s="69">
+      <c r="A50" s="66">
+        <v>4</v>
+      </c>
+      <c r="B50" s="52">
         <v>3</v>
       </c>
-      <c r="C50" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="70">
-        <v>39546</v>
-      </c>
-      <c r="F50" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="63">
-        <v>100</v>
-      </c>
-      <c r="H50" s="69"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="75"/>
-      <c r="L50" s="90"/>
-      <c r="M50" s="91"/>
-      <c r="N50" s="46"/>
-      <c r="P50" s="69"/>
-      <c r="Q50" s="78"/>
-      <c r="R50" s="46"/>
-      <c r="S50" s="75"/>
-      <c r="T50" s="90"/>
-      <c r="U50" s="91"/>
-      <c r="V50" s="46"/>
+      <c r="C50" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="54">
+        <v>39169</v>
+      </c>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="68"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
+      <c r="P50" s="66"/>
+      <c r="Q50" s="66"/>
+      <c r="R50" s="66"/>
+      <c r="S50" s="52"/>
+      <c r="T50" s="68"/>
+      <c r="U50" s="52"/>
+      <c r="V50" s="52"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="66">
         <v>4</v>
       </c>
-      <c r="B51" s="66">
+      <c r="B51" s="52">
         <v>3</v>
       </c>
-      <c r="C51" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="68">
-        <v>39595</v>
+      <c r="C51" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="54">
+        <v>39175</v>
       </c>
       <c r="F51" s="52" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G51" s="52"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="58"/>
-      <c r="L51" s="67"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="46"/>
-      <c r="P51" s="69"/>
-      <c r="Q51" s="58"/>
-      <c r="R51" s="46"/>
-      <c r="S51" s="58"/>
-      <c r="T51" s="67"/>
-      <c r="U51" s="58"/>
-      <c r="V51" s="46"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="66"/>
+      <c r="J51" s="66"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="68"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="P51" s="66"/>
+      <c r="Q51" s="52"/>
+      <c r="R51" s="52"/>
+      <c r="S51" s="52"/>
+      <c r="T51" s="54"/>
+      <c r="U51" s="52"/>
+      <c r="V51" s="52"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="66">
         <v>4</v>
       </c>
-      <c r="B52" s="66">
+      <c r="B52" s="52">
         <v>3</v>
       </c>
-      <c r="C52" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="68">
-        <v>39595</v>
+      <c r="C52" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="54">
+        <v>39296</v>
       </c>
       <c r="F52" s="52" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G52" s="52"/>
       <c r="H52" s="69"/>
-      <c r="I52" s="58"/>
+      <c r="I52" s="78"/>
       <c r="J52" s="46"/>
-      <c r="K52" s="58"/>
-      <c r="L52" s="67"/>
-      <c r="M52" s="58"/>
+      <c r="K52" s="75"/>
+      <c r="L52" s="90"/>
+      <c r="M52" s="91"/>
       <c r="N52" s="46"/>
       <c r="P52" s="69"/>
-      <c r="Q52" s="58"/>
+      <c r="Q52" s="78"/>
       <c r="R52" s="46"/>
-      <c r="S52" s="58"/>
-      <c r="T52" s="67"/>
-      <c r="U52" s="58"/>
+      <c r="S52" s="75"/>
+      <c r="T52" s="90"/>
+      <c r="U52" s="91"/>
       <c r="V52" s="46"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
@@ -15379,28 +15382,28 @@
         <v>10</v>
       </c>
       <c r="E53" s="70">
-        <v>39603</v>
+        <v>39546</v>
       </c>
       <c r="F53" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G53" s="63">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H53" s="69"/>
-      <c r="I53" s="78"/>
+      <c r="I53" s="58"/>
       <c r="J53" s="46"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="90"/>
-      <c r="M53" s="91"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="67"/>
+      <c r="M53" s="58"/>
       <c r="N53" s="46"/>
       <c r="P53" s="69"/>
-      <c r="Q53" s="78"/>
+      <c r="Q53" s="58"/>
       <c r="R53" s="46"/>
-      <c r="S53" s="75"/>
-      <c r="T53" s="87"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="75"/>
+      <c r="S53" s="58"/>
+      <c r="T53" s="67"/>
+      <c r="U53" s="58"/>
+      <c r="V53" s="46"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="66">
@@ -15413,10 +15416,10 @@
         <v>22</v>
       </c>
       <c r="D54" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E54" s="68">
-        <v>39637</v>
+        <v>39595</v>
       </c>
       <c r="F54" s="52" t="s">
         <v>9</v>
@@ -15448,10 +15451,10 @@
         <v>22</v>
       </c>
       <c r="D55" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E55" s="68">
-        <v>39637</v>
+        <v>39595</v>
       </c>
       <c r="F55" s="52" t="s">
         <v>9</v>
@@ -15465,47 +15468,49 @@
       <c r="M55" s="91"/>
       <c r="N55" s="46"/>
       <c r="P55" s="69"/>
-      <c r="Q55" s="58"/>
+      <c r="Q55" s="78"/>
       <c r="R55" s="46"/>
-      <c r="S55" s="58"/>
-      <c r="T55" s="67"/>
-      <c r="U55" s="58"/>
-      <c r="V55" s="46"/>
+      <c r="S55" s="75"/>
+      <c r="T55" s="87"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="75"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="66">
-        <v>4</v>
-      </c>
-      <c r="B56" s="66">
+      <c r="A56" s="69">
+        <v>4</v>
+      </c>
+      <c r="B56" s="69">
         <v>3</v>
       </c>
-      <c r="C56" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" s="68">
-        <v>39679</v>
-      </c>
-      <c r="F56" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="52"/>
+      <c r="C56" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="70">
+        <v>39603</v>
+      </c>
+      <c r="F56" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="63">
+        <v>104</v>
+      </c>
       <c r="H56" s="69"/>
-      <c r="I56" s="78"/>
+      <c r="I56" s="58"/>
       <c r="J56" s="46"/>
-      <c r="K56" s="75"/>
-      <c r="L56" s="90"/>
-      <c r="M56" s="52"/>
+      <c r="K56" s="58"/>
+      <c r="L56" s="67"/>
+      <c r="M56" s="58"/>
       <c r="N56" s="46"/>
       <c r="P56" s="69"/>
       <c r="Q56" s="58"/>
       <c r="R56" s="46"/>
       <c r="S56" s="58"/>
       <c r="T56" s="67"/>
-      <c r="U56" s="46"/>
-      <c r="V56" s="58"/>
+      <c r="U56" s="58"/>
+      <c r="V56" s="46"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="66">
@@ -15518,10 +15523,10 @@
         <v>22</v>
       </c>
       <c r="D57" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E57" s="68">
-        <v>39679</v>
+        <v>39637</v>
       </c>
       <c r="F57" s="52" t="s">
         <v>9</v>
@@ -15532,7 +15537,7 @@
       <c r="J57" s="46"/>
       <c r="K57" s="75"/>
       <c r="L57" s="90"/>
-      <c r="M57" s="58"/>
+      <c r="M57" s="91"/>
       <c r="N57" s="46"/>
       <c r="P57" s="69"/>
       <c r="Q57" s="58"/>
@@ -15553,10 +15558,10 @@
         <v>22</v>
       </c>
       <c r="D58" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E58" s="68">
-        <v>39735</v>
+        <v>39637</v>
       </c>
       <c r="F58" s="52" t="s">
         <v>9</v>
@@ -15567,15 +15572,15 @@
       <c r="J58" s="46"/>
       <c r="K58" s="75"/>
       <c r="L58" s="90"/>
-      <c r="M58" s="58"/>
+      <c r="M58" s="52"/>
       <c r="N58" s="46"/>
       <c r="P58" s="69"/>
       <c r="Q58" s="58"/>
       <c r="R58" s="46"/>
       <c r="S58" s="58"/>
       <c r="T58" s="67"/>
-      <c r="U58" s="58"/>
-      <c r="V58" s="46"/>
+      <c r="U58" s="46"/>
+      <c r="V58" s="58"/>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="66">
@@ -15588,10 +15593,10 @@
         <v>22</v>
       </c>
       <c r="D59" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E59" s="68">
-        <v>39735</v>
+        <v>39679</v>
       </c>
       <c r="F59" s="52" t="s">
         <v>9</v>
@@ -15601,7 +15606,7 @@
       <c r="I59" s="78"/>
       <c r="J59" s="46"/>
       <c r="K59" s="75"/>
-      <c r="L59" s="87"/>
+      <c r="L59" s="90"/>
       <c r="M59" s="58"/>
       <c r="N59" s="46"/>
       <c r="P59" s="69"/>
@@ -15609,44 +15614,42 @@
       <c r="R59" s="46"/>
       <c r="S59" s="58"/>
       <c r="T59" s="67"/>
-      <c r="U59" s="46"/>
-      <c r="V59" s="58"/>
+      <c r="U59" s="58"/>
+      <c r="V59" s="46"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" s="69">
-        <v>4</v>
-      </c>
-      <c r="B60" s="69">
+      <c r="A60" s="66">
+        <v>4</v>
+      </c>
+      <c r="B60" s="66">
         <v>3</v>
       </c>
-      <c r="C60" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="70">
-        <v>39898</v>
-      </c>
-      <c r="F60" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="63">
-        <v>103</v>
-      </c>
+      <c r="C60" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="68">
+        <v>39679</v>
+      </c>
+      <c r="F60" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="52"/>
       <c r="H60" s="69"/>
       <c r="I60" s="78"/>
       <c r="J60" s="46"/>
       <c r="K60" s="75"/>
-      <c r="L60" s="87"/>
-      <c r="M60" s="46"/>
-      <c r="N60" s="75"/>
+      <c r="L60" s="90"/>
+      <c r="M60" s="58"/>
+      <c r="N60" s="46"/>
       <c r="P60" s="69"/>
-      <c r="Q60" s="78"/>
+      <c r="Q60" s="58"/>
       <c r="R60" s="46"/>
-      <c r="S60" s="75"/>
-      <c r="T60" s="87"/>
-      <c r="U60" s="52"/>
+      <c r="S60" s="58"/>
+      <c r="T60" s="67"/>
+      <c r="U60" s="58"/>
       <c r="V60" s="46"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
@@ -15660,29 +15663,29 @@
         <v>22</v>
       </c>
       <c r="D61" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E61" s="68">
-        <v>39952</v>
+        <v>39735</v>
       </c>
       <c r="F61" s="52" t="s">
         <v>9</v>
       </c>
       <c r="G61" s="52"/>
-      <c r="H61" s="66"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="52"/>
-      <c r="K61" s="52"/>
-      <c r="L61" s="54"/>
-      <c r="M61" s="52"/>
-      <c r="N61" s="52"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="78"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="75"/>
+      <c r="L61" s="87"/>
+      <c r="M61" s="58"/>
+      <c r="N61" s="46"/>
       <c r="P61" s="69"/>
       <c r="Q61" s="58"/>
       <c r="R61" s="46"/>
       <c r="S61" s="58"/>
       <c r="T61" s="67"/>
-      <c r="U61" s="58"/>
-      <c r="V61" s="46"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="58"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="66">
@@ -15695,28 +15698,28 @@
         <v>22</v>
       </c>
       <c r="D62" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E62" s="68">
-        <v>39952</v>
+        <v>39735</v>
       </c>
       <c r="F62" s="52" t="s">
         <v>9</v>
       </c>
       <c r="G62" s="52"/>
-      <c r="H62" s="66"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="52"/>
-      <c r="N62" s="52"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="75"/>
+      <c r="L62" s="87"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="75"/>
       <c r="P62" s="69"/>
-      <c r="Q62" s="58"/>
+      <c r="Q62" s="78"/>
       <c r="R62" s="46"/>
-      <c r="S62" s="58"/>
-      <c r="T62" s="67"/>
-      <c r="U62" s="58"/>
+      <c r="S62" s="75"/>
+      <c r="T62" s="87"/>
+      <c r="U62" s="52"/>
       <c r="V62" s="46"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
@@ -15733,154 +15736,156 @@
         <v>10</v>
       </c>
       <c r="E63" s="70">
-        <v>39962</v>
+        <v>39898</v>
       </c>
       <c r="F63" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G63" s="63">
-        <v>91</v>
-      </c>
-      <c r="H63" s="69"/>
-      <c r="I63" s="78"/>
-      <c r="J63" s="46"/>
-      <c r="K63" s="75"/>
-      <c r="L63" s="87"/>
+        <v>103</v>
+      </c>
+      <c r="H63" s="66"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="54"/>
       <c r="M63" s="52"/>
-      <c r="N63" s="46"/>
+      <c r="N63" s="52"/>
       <c r="P63" s="69"/>
-      <c r="Q63" s="78"/>
+      <c r="Q63" s="58"/>
       <c r="R63" s="46"/>
-      <c r="S63" s="75"/>
-      <c r="T63" s="87"/>
-      <c r="U63" s="75"/>
+      <c r="S63" s="58"/>
+      <c r="T63" s="67"/>
+      <c r="U63" s="58"/>
       <c r="V63" s="46"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="66">
         <v>4</v>
       </c>
-      <c r="B64" s="58">
+      <c r="B64" s="66">
         <v>3</v>
       </c>
-      <c r="C64" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E64" s="67">
-        <v>39967</v>
-      </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="58">
-        <v>45</v>
-      </c>
+      <c r="C64" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" s="68">
+        <v>39952</v>
+      </c>
+      <c r="F64" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="52"/>
       <c r="H64" s="66"/>
-      <c r="I64" s="66"/>
-      <c r="J64" s="66"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="68"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="54"/>
+      <c r="L64" s="54"/>
       <c r="M64" s="52"/>
       <c r="N64" s="52"/>
-      <c r="P64" s="66"/>
+      <c r="P64" s="69"/>
       <c r="Q64" s="58"/>
-      <c r="R64" s="58"/>
+      <c r="R64" s="46"/>
       <c r="S64" s="58"/>
       <c r="T64" s="67"/>
-      <c r="U64" s="52"/>
-      <c r="V64" s="58"/>
+      <c r="U64" s="58"/>
+      <c r="V64" s="46"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="66">
         <v>4</v>
       </c>
-      <c r="B65" s="58">
+      <c r="B65" s="66">
         <v>3</v>
       </c>
-      <c r="C65" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E65" s="67">
-        <v>39990</v>
-      </c>
-      <c r="F65" s="52"/>
-      <c r="G65" s="58">
-        <v>42</v>
-      </c>
-      <c r="H65" s="66"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="58"/>
-      <c r="K65" s="58"/>
-      <c r="L65" s="67"/>
+      <c r="C65" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" s="68">
+        <v>39952</v>
+      </c>
+      <c r="F65" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="52"/>
+      <c r="H65" s="69"/>
+      <c r="I65" s="78"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="75"/>
+      <c r="L65" s="87"/>
       <c r="M65" s="52"/>
-      <c r="N65" s="58"/>
-      <c r="P65" s="66"/>
-      <c r="Q65" s="58"/>
-      <c r="R65" s="58"/>
-      <c r="S65" s="58"/>
-      <c r="T65" s="67"/>
-      <c r="U65" s="52"/>
-      <c r="V65" s="58"/>
+      <c r="N65" s="46"/>
+      <c r="P65" s="69"/>
+      <c r="Q65" s="78"/>
+      <c r="R65" s="46"/>
+      <c r="S65" s="75"/>
+      <c r="T65" s="87"/>
+      <c r="U65" s="75"/>
+      <c r="V65" s="46"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A66" s="66">
-        <v>4</v>
-      </c>
-      <c r="B66" s="66">
+      <c r="A66" s="69">
+        <v>4</v>
+      </c>
+      <c r="B66" s="69">
         <v>3</v>
       </c>
-      <c r="C66" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D66" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E66" s="68">
-        <v>40000</v>
-      </c>
-      <c r="F66" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" s="52"/>
+      <c r="C66" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="70">
+        <v>39962</v>
+      </c>
+      <c r="F66" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="63">
+        <v>91</v>
+      </c>
       <c r="H66" s="66"/>
-      <c r="I66" s="58"/>
-      <c r="J66" s="58"/>
-      <c r="K66" s="58"/>
-      <c r="L66" s="67"/>
+      <c r="I66" s="66"/>
+      <c r="J66" s="66"/>
+      <c r="K66" s="52"/>
+      <c r="L66" s="68"/>
       <c r="M66" s="52"/>
-      <c r="N66" s="58"/>
-      <c r="P66" s="69"/>
+      <c r="N66" s="52"/>
+      <c r="P66" s="66"/>
       <c r="Q66" s="58"/>
-      <c r="R66" s="46"/>
+      <c r="R66" s="58"/>
       <c r="S66" s="58"/>
       <c r="T66" s="67"/>
-      <c r="U66" s="58"/>
-      <c r="V66" s="46"/>
+      <c r="U66" s="52"/>
+      <c r="V66" s="58"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="66">
         <v>4</v>
       </c>
-      <c r="B67" s="66">
+      <c r="B67" s="58">
         <v>3</v>
       </c>
-      <c r="C67" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E67" s="68">
-        <v>40000</v>
-      </c>
-      <c r="F67" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="52"/>
+      <c r="C67" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="67">
+        <v>39967</v>
+      </c>
+      <c r="F67" s="52"/>
+      <c r="G67" s="58">
+        <v>45</v>
+      </c>
       <c r="H67" s="66"/>
       <c r="I67" s="58"/>
       <c r="J67" s="58"/>
@@ -15888,13 +15893,13 @@
       <c r="L67" s="67"/>
       <c r="M67" s="52"/>
       <c r="N67" s="58"/>
-      <c r="P67" s="69"/>
+      <c r="P67" s="66"/>
       <c r="Q67" s="58"/>
-      <c r="R67" s="46"/>
+      <c r="R67" s="58"/>
       <c r="S67" s="58"/>
       <c r="T67" s="67"/>
-      <c r="U67" s="58"/>
-      <c r="V67" s="46"/>
+      <c r="U67" s="52"/>
+      <c r="V67" s="58"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="66">
@@ -15910,26 +15915,26 @@
         <v>20</v>
       </c>
       <c r="E68" s="67">
-        <v>40002</v>
+        <v>39990</v>
       </c>
       <c r="F68" s="52"/>
       <c r="G68" s="58">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H68" s="66"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="52"/>
-      <c r="L68" s="68"/>
+      <c r="I68" s="58"/>
+      <c r="J68" s="58"/>
+      <c r="K68" s="58"/>
+      <c r="L68" s="67"/>
       <c r="M68" s="52"/>
-      <c r="N68" s="52"/>
+      <c r="N68" s="58"/>
       <c r="P68" s="69"/>
-      <c r="Q68" s="69"/>
-      <c r="R68" s="69"/>
-      <c r="S68" s="69"/>
-      <c r="T68" s="70"/>
-      <c r="U68" s="69"/>
-      <c r="V68" s="63"/>
+      <c r="Q68" s="58"/>
+      <c r="R68" s="46"/>
+      <c r="S68" s="58"/>
+      <c r="T68" s="67"/>
+      <c r="U68" s="58"/>
+      <c r="V68" s="46"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="66">
@@ -15942,22 +15947,22 @@
         <v>22</v>
       </c>
       <c r="D69" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E69" s="68">
-        <v>40039</v>
+        <v>40000</v>
       </c>
       <c r="F69" s="52" t="s">
         <v>9</v>
       </c>
       <c r="G69" s="52"/>
       <c r="H69" s="66"/>
-      <c r="I69" s="52"/>
-      <c r="J69" s="52"/>
-      <c r="K69" s="52"/>
-      <c r="L69" s="54"/>
+      <c r="I69" s="58"/>
+      <c r="J69" s="58"/>
+      <c r="K69" s="58"/>
+      <c r="L69" s="67"/>
       <c r="M69" s="52"/>
-      <c r="N69" s="52"/>
+      <c r="N69" s="58"/>
       <c r="P69" s="69"/>
       <c r="Q69" s="58"/>
       <c r="R69" s="46"/>
@@ -15977,50 +15982,50 @@
         <v>22</v>
       </c>
       <c r="D70" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E70" s="68">
-        <v>40039</v>
+        <v>40000</v>
       </c>
       <c r="F70" s="52" t="s">
         <v>9</v>
       </c>
       <c r="G70" s="52"/>
       <c r="H70" s="66"/>
-      <c r="I70" s="52"/>
-      <c r="J70" s="52"/>
-      <c r="K70" s="54"/>
-      <c r="L70" s="54"/>
+      <c r="I70" s="66"/>
+      <c r="J70" s="66"/>
+      <c r="K70" s="52"/>
+      <c r="L70" s="68"/>
       <c r="M70" s="52"/>
       <c r="N70" s="52"/>
       <c r="P70" s="69"/>
-      <c r="Q70" s="58"/>
-      <c r="R70" s="46"/>
-      <c r="S70" s="58"/>
-      <c r="T70" s="93"/>
-      <c r="U70" s="58"/>
-      <c r="V70" s="46"/>
+      <c r="Q70" s="69"/>
+      <c r="R70" s="69"/>
+      <c r="S70" s="69"/>
+      <c r="T70" s="70"/>
+      <c r="U70" s="69"/>
+      <c r="V70" s="63"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="66">
         <v>4</v>
       </c>
-      <c r="B71" s="66">
+      <c r="B71" s="58">
         <v>3</v>
       </c>
-      <c r="C71" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="E71" s="68">
-        <v>40107</v>
-      </c>
-      <c r="F71" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="52"/>
+      <c r="C71" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" s="67">
+        <v>40002</v>
+      </c>
+      <c r="F71" s="52"/>
+      <c r="G71" s="58">
+        <v>40</v>
+      </c>
       <c r="H71" s="66"/>
       <c r="I71" s="52"/>
       <c r="J71" s="52"/>
@@ -16032,7 +16037,7 @@
       <c r="Q71" s="58"/>
       <c r="R71" s="46"/>
       <c r="S71" s="58"/>
-      <c r="T71" s="93"/>
+      <c r="T71" s="67"/>
       <c r="U71" s="58"/>
       <c r="V71" s="46"/>
     </row>
@@ -16047,10 +16052,10 @@
         <v>22</v>
       </c>
       <c r="D72" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E72" s="68">
-        <v>40107</v>
+        <v>40039</v>
       </c>
       <c r="F72" s="52" t="s">
         <v>9</v>
@@ -16063,111 +16068,118 @@
       <c r="L72" s="54"/>
       <c r="M72" s="52"/>
       <c r="N72" s="52"/>
-      <c r="P72" s="66"/>
-      <c r="Q72" s="52"/>
-      <c r="R72" s="52"/>
-      <c r="S72" s="52"/>
-      <c r="T72" s="54"/>
-      <c r="U72" s="52"/>
-      <c r="V72" s="52"/>
+      <c r="P72" s="69"/>
+      <c r="Q72" s="58"/>
+      <c r="R72" s="46"/>
+      <c r="S72" s="58"/>
+      <c r="T72" s="93"/>
+      <c r="U72" s="58"/>
+      <c r="V72" s="46"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A73" s="69">
-        <v>4</v>
-      </c>
-      <c r="B73" s="69">
+      <c r="A73" s="66">
+        <v>4</v>
+      </c>
+      <c r="B73" s="66">
         <v>3</v>
       </c>
-      <c r="C73" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D73" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="70">
-        <v>40262</v>
-      </c>
-      <c r="F73" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="63">
-        <v>111</v>
-      </c>
-      <c r="H73" s="69"/>
-      <c r="I73" s="78"/>
-      <c r="J73" s="46"/>
-      <c r="K73" s="75"/>
-      <c r="L73" s="87"/>
-      <c r="M73" s="75"/>
-      <c r="N73" s="46"/>
+      <c r="C73" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" s="68">
+        <v>40039</v>
+      </c>
+      <c r="F73" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="52"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="52"/>
+      <c r="J73" s="52"/>
+      <c r="K73" s="52"/>
+      <c r="L73" s="54"/>
+      <c r="M73" s="52"/>
+      <c r="N73" s="52"/>
       <c r="P73" s="69"/>
-      <c r="Q73" s="78"/>
+      <c r="Q73" s="58"/>
       <c r="R73" s="46"/>
-      <c r="S73" s="75"/>
-      <c r="T73" s="87"/>
-      <c r="U73" s="75"/>
+      <c r="S73" s="58"/>
+      <c r="T73" s="93"/>
+      <c r="U73" s="58"/>
       <c r="V73" s="46"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="66">
         <v>4</v>
       </c>
-      <c r="B74" s="52">
+      <c r="B74" s="66">
         <v>3</v>
       </c>
-      <c r="C74" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="D74" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="54">
-        <v>40283</v>
-      </c>
-      <c r="F74" s="52"/>
+      <c r="C74" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" s="68">
+        <v>40107</v>
+      </c>
+      <c r="F74" s="52" t="s">
+        <v>9</v>
+      </c>
       <c r="G74" s="52"/>
-      <c r="I74" s="69"/>
-      <c r="J74" s="75"/>
-      <c r="K74" s="46"/>
-      <c r="L74" s="75"/>
-      <c r="M74" s="87"/>
-      <c r="N74" s="75"/>
-      <c r="O74" s="46"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="52"/>
+      <c r="J74" s="52"/>
+      <c r="K74" s="54"/>
+      <c r="L74" s="54"/>
+      <c r="M74" s="52"/>
+      <c r="N74" s="52"/>
+      <c r="P74" s="66"/>
+      <c r="Q74" s="52"/>
+      <c r="R74" s="52"/>
+      <c r="S74" s="52"/>
+      <c r="T74" s="54"/>
+      <c r="U74" s="52"/>
+      <c r="V74" s="52"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="66">
         <v>4</v>
       </c>
-      <c r="B75" s="52">
+      <c r="B75" s="66">
         <v>3</v>
       </c>
-      <c r="C75" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="D75" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="54">
-        <v>40290</v>
+      <c r="C75" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E75" s="68">
+        <v>40107</v>
       </c>
       <c r="F75" s="52" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G75" s="52"/>
-      <c r="H75" s="66"/>
-      <c r="I75" s="66"/>
-      <c r="J75" s="66"/>
-      <c r="K75" s="52"/>
-      <c r="L75" s="68"/>
-      <c r="M75" s="52"/>
-      <c r="N75" s="52"/>
+      <c r="H75" s="69"/>
+      <c r="I75" s="78"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="75"/>
+      <c r="L75" s="87"/>
+      <c r="M75" s="75"/>
+      <c r="N75" s="46"/>
       <c r="P75" s="69"/>
-      <c r="Q75" s="69"/>
-      <c r="R75" s="69"/>
-      <c r="S75" s="69"/>
-      <c r="T75" s="70"/>
-      <c r="U75" s="69"/>
-      <c r="V75" s="63"/>
+      <c r="Q75" s="78"/>
+      <c r="R75" s="46"/>
+      <c r="S75" s="75"/>
+      <c r="T75" s="87"/>
+      <c r="U75" s="75"/>
+      <c r="V75" s="46"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="69">
@@ -16183,49 +16195,40 @@
         <v>10</v>
       </c>
       <c r="E76" s="70">
-        <v>40343</v>
+        <v>40262</v>
       </c>
       <c r="F76" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G76" s="63">
-        <v>106</v>
-      </c>
-      <c r="H76" s="69"/>
-      <c r="I76" s="78"/>
-      <c r="J76" s="46"/>
-      <c r="K76" s="75"/>
-      <c r="L76" s="87"/>
-      <c r="M76" s="75"/>
-      <c r="N76" s="46"/>
-      <c r="P76" s="69"/>
-      <c r="Q76" s="78"/>
-      <c r="R76" s="46"/>
-      <c r="S76" s="75"/>
-      <c r="T76" s="90"/>
-      <c r="U76" s="46"/>
-      <c r="V76" s="78"/>
+        <v>111</v>
+      </c>
+      <c r="I76" s="69"/>
+      <c r="J76" s="75"/>
+      <c r="K76" s="46"/>
+      <c r="L76" s="75"/>
+      <c r="M76" s="87"/>
+      <c r="N76" s="75"/>
+      <c r="O76" s="46"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="66">
         <v>4</v>
       </c>
-      <c r="B77" s="58">
+      <c r="B77" s="52">
         <v>3</v>
       </c>
-      <c r="C77" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E77" s="67">
-        <v>40361</v>
+      <c r="C77" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="54">
+        <v>40283</v>
       </c>
       <c r="F77" s="52"/>
-      <c r="G77" s="58">
-        <v>40</v>
-      </c>
+      <c r="G77" s="52"/>
       <c r="H77" s="66"/>
       <c r="I77" s="66"/>
       <c r="J77" s="66"/>
@@ -16245,36 +16248,36 @@
       <c r="A78" s="66">
         <v>4</v>
       </c>
-      <c r="B78" s="58">
+      <c r="B78" s="52">
         <v>3</v>
       </c>
-      <c r="C78" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E78" s="67">
-        <v>40387</v>
-      </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="58">
-        <v>45</v>
-      </c>
-      <c r="H78" s="66"/>
-      <c r="I78" s="66"/>
-      <c r="J78" s="66"/>
-      <c r="K78" s="52"/>
-      <c r="L78" s="68"/>
-      <c r="M78" s="52"/>
-      <c r="N78" s="52"/>
-      <c r="P78" s="66"/>
-      <c r="Q78" s="52"/>
-      <c r="R78" s="52"/>
-      <c r="S78" s="54"/>
-      <c r="T78" s="54"/>
-      <c r="U78" s="52"/>
-      <c r="V78" s="52"/>
+      <c r="C78" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="54">
+        <v>40290</v>
+      </c>
+      <c r="F78" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="G78" s="52"/>
+      <c r="H78" s="69"/>
+      <c r="I78" s="78"/>
+      <c r="J78" s="46"/>
+      <c r="K78" s="75"/>
+      <c r="L78" s="87"/>
+      <c r="M78" s="75"/>
+      <c r="N78" s="46"/>
+      <c r="P78" s="69"/>
+      <c r="Q78" s="78"/>
+      <c r="R78" s="46"/>
+      <c r="S78" s="75"/>
+      <c r="T78" s="90"/>
+      <c r="U78" s="46"/>
+      <c r="V78" s="78"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="69">
@@ -16290,208 +16293,281 @@
         <v>10</v>
       </c>
       <c r="E79" s="70">
-        <v>40625</v>
+        <v>40343</v>
       </c>
       <c r="F79" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G79" s="63">
+        <v>106</v>
+      </c>
+      <c r="H79" s="66"/>
+      <c r="I79" s="66"/>
+      <c r="J79" s="66"/>
+      <c r="K79" s="52"/>
+      <c r="L79" s="68"/>
+      <c r="M79" s="52"/>
+      <c r="N79" s="52"/>
+      <c r="P79" s="69"/>
+      <c r="Q79" s="69"/>
+      <c r="R79" s="69"/>
+      <c r="S79" s="69"/>
+      <c r="T79" s="70"/>
+      <c r="U79" s="69"/>
+      <c r="V79" s="63"/>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A80" s="66">
+        <v>4</v>
+      </c>
+      <c r="B80" s="58">
+        <v>3</v>
+      </c>
+      <c r="C80" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" s="67">
+        <v>40361</v>
+      </c>
+      <c r="F80" s="52"/>
+      <c r="G80" s="58">
+        <v>40</v>
+      </c>
+      <c r="H80" s="66"/>
+      <c r="I80" s="66"/>
+      <c r="J80" s="66"/>
+      <c r="K80" s="52"/>
+      <c r="L80" s="68"/>
+      <c r="M80" s="52"/>
+      <c r="N80" s="52"/>
+      <c r="P80" s="66"/>
+      <c r="Q80" s="52"/>
+      <c r="R80" s="52"/>
+      <c r="S80" s="54"/>
+      <c r="T80" s="54"/>
+      <c r="U80" s="52"/>
+      <c r="V80" s="52"/>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A81" s="66">
+        <v>4</v>
+      </c>
+      <c r="B81" s="58">
+        <v>3</v>
+      </c>
+      <c r="C81" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" s="67">
+        <v>40387</v>
+      </c>
+      <c r="F81" s="52"/>
+      <c r="G81" s="58">
+        <v>45</v>
+      </c>
+      <c r="H81" s="69"/>
+      <c r="I81" s="78"/>
+      <c r="J81" s="46"/>
+      <c r="K81" s="75"/>
+      <c r="L81" s="90"/>
+      <c r="M81" s="46"/>
+      <c r="N81" s="78"/>
+      <c r="P81" s="69"/>
+      <c r="Q81" s="78"/>
+      <c r="R81" s="46"/>
+      <c r="S81" s="75"/>
+      <c r="T81" s="90"/>
+      <c r="U81" s="52"/>
+      <c r="V81" s="46"/>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A82" s="69">
+        <v>4</v>
+      </c>
+      <c r="B82" s="69">
+        <v>3</v>
+      </c>
+      <c r="C82" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="70">
+        <v>40625</v>
+      </c>
+      <c r="F82" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="63">
         <v>95</v>
       </c>
-      <c r="H79" s="69"/>
-      <c r="I79" s="78"/>
-      <c r="J79" s="46"/>
-      <c r="K79" s="75"/>
-      <c r="L79" s="90"/>
-      <c r="M79" s="46"/>
-      <c r="N79" s="78"/>
-      <c r="P79" s="69"/>
-      <c r="Q79" s="78"/>
-      <c r="R79" s="46"/>
-      <c r="S79" s="75"/>
-      <c r="T79" s="90"/>
-      <c r="U79" s="52"/>
-      <c r="V79" s="46"/>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A80" s="69">
-        <v>4</v>
-      </c>
-      <c r="B80" s="69">
+      <c r="H82" s="69"/>
+      <c r="I82" s="78"/>
+      <c r="J82" s="46"/>
+      <c r="K82" s="75"/>
+      <c r="L82" s="90"/>
+      <c r="M82" s="52"/>
+      <c r="N82" s="46"/>
+      <c r="P82" s="69"/>
+      <c r="Q82" s="78"/>
+      <c r="R82" s="46"/>
+      <c r="S82" s="75"/>
+      <c r="T82" s="90"/>
+      <c r="U82" s="91"/>
+      <c r="V82" s="46"/>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A83" s="69">
+        <v>4</v>
+      </c>
+      <c r="B83" s="69">
         <v>3</v>
       </c>
-      <c r="C80" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D80" s="69" t="s">
+      <c r="C83" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="70">
+      <c r="E83" s="70">
         <v>40710</v>
       </c>
-      <c r="F80" s="69" t="s">
+      <c r="F83" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G80" s="63">
+      <c r="G83" s="63">
         <v>106</v>
       </c>
-      <c r="H80" s="69"/>
-      <c r="I80" s="78"/>
-      <c r="J80" s="46"/>
-      <c r="K80" s="75"/>
-      <c r="L80" s="90"/>
-      <c r="M80" s="52"/>
-      <c r="N80" s="46"/>
-      <c r="P80" s="69"/>
-      <c r="Q80" s="78"/>
-      <c r="R80" s="46"/>
-      <c r="S80" s="75"/>
-      <c r="T80" s="90"/>
-      <c r="U80" s="91"/>
-      <c r="V80" s="46"/>
-    </row>
-    <row r="81" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I81" s="69"/>
-      <c r="J81" s="75"/>
-      <c r="K81" s="46"/>
-      <c r="L81" s="75"/>
-      <c r="M81" s="87"/>
-      <c r="N81" s="75"/>
-      <c r="O81" s="46"/>
-    </row>
-    <row r="82" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I82" s="69"/>
-      <c r="J82" s="75"/>
-      <c r="K82" s="46"/>
-      <c r="L82" s="75"/>
-      <c r="M82" s="87"/>
-      <c r="N82" s="75"/>
-      <c r="O82" s="46"/>
-    </row>
-    <row r="83" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I83" s="69"/>
       <c r="J83" s="75"/>
       <c r="K83" s="46"/>
       <c r="L83" s="75"/>
       <c r="M83" s="87"/>
-      <c r="N83" s="46"/>
-      <c r="O83" s="75"/>
-    </row>
-    <row r="84" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="N83" s="75"/>
+      <c r="O83" s="46"/>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I84" s="69"/>
       <c r="J84" s="75"/>
       <c r="K84" s="46"/>
       <c r="L84" s="75"/>
       <c r="M84" s="87"/>
       <c r="N84" s="75"/>
-      <c r="O84" s="52"/>
-    </row>
-    <row r="85" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O84" s="46"/>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I85" s="69"/>
-      <c r="J85" s="78"/>
+      <c r="J85" s="75"/>
       <c r="K85" s="46"/>
       <c r="L85" s="75"/>
-      <c r="M85" s="90"/>
+      <c r="M85" s="87"/>
       <c r="N85" s="46"/>
-      <c r="O85" s="78"/>
-    </row>
-    <row r="86" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O85" s="75"/>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I86" s="69"/>
-      <c r="J86" s="78"/>
+      <c r="J86" s="75"/>
       <c r="K86" s="46"/>
       <c r="L86" s="75"/>
-      <c r="M86" s="90"/>
-      <c r="N86" s="52"/>
-      <c r="O86" s="46"/>
-    </row>
-    <row r="87" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="M86" s="87"/>
+      <c r="N86" s="75"/>
+      <c r="O86" s="52"/>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I87" s="69"/>
       <c r="J87" s="78"/>
       <c r="K87" s="46"/>
       <c r="L87" s="75"/>
       <c r="M87" s="90"/>
-      <c r="N87" s="91"/>
-      <c r="O87" s="46"/>
-    </row>
-    <row r="88" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="N87" s="46"/>
+      <c r="O87" s="78"/>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I88" s="69"/>
       <c r="J88" s="78"/>
       <c r="K88" s="46"/>
       <c r="L88" s="75"/>
       <c r="M88" s="90"/>
-      <c r="N88" s="91"/>
+      <c r="N88" s="52"/>
       <c r="O88" s="46"/>
     </row>
-    <row r="89" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I89" s="69"/>
       <c r="J89" s="78"/>
       <c r="K89" s="46"/>
       <c r="L89" s="75"/>
       <c r="M89" s="90"/>
-      <c r="N89" s="46"/>
-      <c r="O89" s="78"/>
-    </row>
-    <row r="90" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="N89" s="91"/>
+      <c r="O89" s="46"/>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I90" s="69"/>
       <c r="J90" s="78"/>
       <c r="K90" s="46"/>
       <c r="L90" s="75"/>
       <c r="M90" s="90"/>
-      <c r="N90" s="52"/>
+      <c r="N90" s="91"/>
       <c r="O90" s="46"/>
     </row>
-    <row r="91" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I91" s="69"/>
       <c r="J91" s="78"/>
       <c r="K91" s="46"/>
       <c r="L91" s="75"/>
       <c r="M91" s="90"/>
-      <c r="N91" s="91"/>
-      <c r="O91" s="46"/>
-    </row>
-    <row r="92" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="N91" s="46"/>
+      <c r="O91" s="78"/>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I92" s="69"/>
       <c r="J92" s="78"/>
       <c r="K92" s="46"/>
       <c r="L92" s="75"/>
       <c r="M92" s="90"/>
-      <c r="N92" s="91"/>
+      <c r="N92" s="52"/>
       <c r="O92" s="46"/>
     </row>
-    <row r="93" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I93" s="69"/>
       <c r="J93" s="78"/>
       <c r="K93" s="46"/>
       <c r="L93" s="75"/>
-      <c r="M93" s="87"/>
-      <c r="N93" s="92"/>
-      <c r="O93" s="75"/>
-    </row>
-    <row r="94" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="M93" s="90"/>
+      <c r="N93" s="91"/>
+      <c r="O93" s="46"/>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I94" s="69"/>
       <c r="J94" s="78"/>
       <c r="K94" s="46"/>
       <c r="L94" s="75"/>
-      <c r="M94" s="87"/>
-      <c r="N94" s="92"/>
+      <c r="M94" s="90"/>
+      <c r="N94" s="91"/>
       <c r="O94" s="46"/>
     </row>
-    <row r="95" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I95" s="69"/>
       <c r="J95" s="78"/>
       <c r="K95" s="46"/>
       <c r="L95" s="75"/>
       <c r="M95" s="87"/>
-      <c r="N95" s="95"/>
-      <c r="O95" s="46"/>
-    </row>
-    <row r="96" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="N95" s="92"/>
+      <c r="O95" s="75"/>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I96" s="69"/>
       <c r="J96" s="78"/>
       <c r="K96" s="46"/>
       <c r="L96" s="75"/>
       <c r="M96" s="87"/>
-      <c r="N96" s="75"/>
+      <c r="N96" s="92"/>
       <c r="O96" s="46"/>
     </row>
     <row r="97" spans="9:15" x14ac:dyDescent="0.25">
@@ -16499,17 +16575,17 @@
       <c r="J97" s="78"/>
       <c r="K97" s="46"/>
       <c r="L97" s="75"/>
-      <c r="M97" s="90"/>
-      <c r="N97" s="46"/>
-      <c r="O97" s="78"/>
+      <c r="M97" s="87"/>
+      <c r="N97" s="95"/>
+      <c r="O97" s="46"/>
     </row>
     <row r="98" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I98" s="69"/>
       <c r="J98" s="78"/>
       <c r="K98" s="46"/>
       <c r="L98" s="75"/>
-      <c r="M98" s="90"/>
-      <c r="N98" s="52"/>
+      <c r="M98" s="87"/>
+      <c r="N98" s="75"/>
       <c r="O98" s="46"/>
     </row>
     <row r="99" spans="9:15" x14ac:dyDescent="0.25">
@@ -16518,8 +16594,8 @@
       <c r="K99" s="46"/>
       <c r="L99" s="75"/>
       <c r="M99" s="90"/>
-      <c r="N99" s="91"/>
-      <c r="O99" s="46"/>
+      <c r="N99" s="46"/>
+      <c r="O99" s="78"/>
     </row>
     <row r="100" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I100" s="69"/>
@@ -16527,26 +16603,26 @@
       <c r="K100" s="46"/>
       <c r="L100" s="75"/>
       <c r="M100" s="90"/>
-      <c r="N100" s="91"/>
+      <c r="N100" s="52"/>
       <c r="O100" s="46"/>
     </row>
     <row r="101" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I101" s="69"/>
-      <c r="J101" s="58"/>
+      <c r="J101" s="78"/>
       <c r="K101" s="46"/>
-      <c r="L101" s="58"/>
-      <c r="M101" s="67"/>
-      <c r="N101" s="58"/>
+      <c r="L101" s="75"/>
+      <c r="M101" s="90"/>
+      <c r="N101" s="91"/>
       <c r="O101" s="46"/>
     </row>
     <row r="102" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I102" s="69"/>
-      <c r="J102" s="58"/>
+      <c r="J102" s="78"/>
       <c r="K102" s="46"/>
-      <c r="L102" s="58"/>
-      <c r="M102" s="67"/>
-      <c r="N102" s="46"/>
-      <c r="O102" s="58"/>
+      <c r="L102" s="75"/>
+      <c r="M102" s="90"/>
+      <c r="N102" s="91"/>
+      <c r="O102" s="46"/>
     </row>
     <row r="103" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I103" s="69"/>
@@ -16581,8 +16657,8 @@
       <c r="K106" s="46"/>
       <c r="L106" s="58"/>
       <c r="M106" s="67"/>
-      <c r="N106" s="58"/>
-      <c r="O106" s="46"/>
+      <c r="N106" s="46"/>
+      <c r="O106" s="58"/>
     </row>
     <row r="107" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I107" s="69"/>
@@ -16595,20 +16671,20 @@
     </row>
     <row r="108" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I108" s="69"/>
-      <c r="J108" s="78"/>
+      <c r="J108" s="58"/>
       <c r="K108" s="46"/>
-      <c r="L108" s="75"/>
-      <c r="M108" s="90"/>
-      <c r="N108" s="91"/>
+      <c r="L108" s="58"/>
+      <c r="M108" s="67"/>
+      <c r="N108" s="58"/>
       <c r="O108" s="46"/>
     </row>
     <row r="109" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I109" s="69"/>
-      <c r="J109" s="78"/>
+      <c r="J109" s="58"/>
       <c r="K109" s="46"/>
-      <c r="L109" s="75"/>
-      <c r="M109" s="90"/>
-      <c r="N109" s="92"/>
+      <c r="L109" s="58"/>
+      <c r="M109" s="67"/>
+      <c r="N109" s="58"/>
       <c r="O109" s="46"/>
     </row>
     <row r="110" spans="9:15" x14ac:dyDescent="0.25">
@@ -16617,7 +16693,7 @@
       <c r="K110" s="46"/>
       <c r="L110" s="75"/>
       <c r="M110" s="90"/>
-      <c r="N110" s="94"/>
+      <c r="N110" s="91"/>
       <c r="O110" s="46"/>
     </row>
     <row r="111" spans="9:15" x14ac:dyDescent="0.25">
@@ -16626,7 +16702,7 @@
       <c r="K111" s="46"/>
       <c r="L111" s="75"/>
       <c r="M111" s="90"/>
-      <c r="N111" s="94"/>
+      <c r="N111" s="92"/>
       <c r="O111" s="46"/>
     </row>
     <row r="112" spans="9:15" x14ac:dyDescent="0.25">
@@ -16634,42 +16710,42 @@
       <c r="J112" s="78"/>
       <c r="K112" s="46"/>
       <c r="L112" s="75"/>
-      <c r="M112" s="87"/>
-      <c r="N112" s="58"/>
+      <c r="M112" s="90"/>
+      <c r="N112" s="94"/>
       <c r="O112" s="46"/>
     </row>
     <row r="113" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I113" s="66"/>
-      <c r="J113" s="52"/>
-      <c r="K113" s="52"/>
-      <c r="L113" s="52"/>
-      <c r="M113" s="54"/>
-      <c r="N113" s="52"/>
-      <c r="O113" s="52"/>
+      <c r="I113" s="69"/>
+      <c r="J113" s="78"/>
+      <c r="K113" s="46"/>
+      <c r="L113" s="75"/>
+      <c r="M113" s="90"/>
+      <c r="N113" s="94"/>
+      <c r="O113" s="46"/>
     </row>
     <row r="114" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I114" s="66"/>
-      <c r="J114" s="52"/>
-      <c r="K114" s="52"/>
-      <c r="L114" s="54"/>
-      <c r="M114" s="54"/>
-      <c r="N114" s="52"/>
-      <c r="O114" s="52"/>
+      <c r="I114" s="69"/>
+      <c r="J114" s="78"/>
+      <c r="K114" s="46"/>
+      <c r="L114" s="75"/>
+      <c r="M114" s="87"/>
+      <c r="N114" s="58"/>
+      <c r="O114" s="46"/>
     </row>
     <row r="115" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I115" s="66"/>
-      <c r="J115" s="58"/>
-      <c r="K115" s="58"/>
-      <c r="L115" s="58"/>
-      <c r="M115" s="67"/>
+      <c r="J115" s="52"/>
+      <c r="K115" s="52"/>
+      <c r="L115" s="52"/>
+      <c r="M115" s="54"/>
       <c r="N115" s="52"/>
-      <c r="O115" s="58"/>
+      <c r="O115" s="52"/>
     </row>
     <row r="116" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I116" s="66"/>
       <c r="J116" s="52"/>
       <c r="K116" s="52"/>
-      <c r="L116" s="52"/>
+      <c r="L116" s="54"/>
       <c r="M116" s="54"/>
       <c r="N116" s="52"/>
       <c r="O116" s="52"/>
@@ -16694,12 +16770,12 @@
     </row>
     <row r="119" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I119" s="66"/>
-      <c r="J119" s="52"/>
-      <c r="K119" s="52"/>
-      <c r="L119" s="52"/>
-      <c r="M119" s="54"/>
+      <c r="J119" s="58"/>
+      <c r="K119" s="58"/>
+      <c r="L119" s="58"/>
+      <c r="M119" s="67"/>
       <c r="N119" s="52"/>
-      <c r="O119" s="52"/>
+      <c r="O119" s="58"/>
     </row>
     <row r="120" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I120" s="66"/>
@@ -16714,7 +16790,7 @@
       <c r="I121" s="66"/>
       <c r="J121" s="52"/>
       <c r="K121" s="52"/>
-      <c r="L121" s="54"/>
+      <c r="L121" s="52"/>
       <c r="M121" s="54"/>
       <c r="N121" s="52"/>
       <c r="O121" s="52"/>
@@ -16729,20 +16805,20 @@
       <c r="O122" s="52"/>
     </row>
     <row r="123" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I123" s="69"/>
-      <c r="J123" s="69"/>
-      <c r="K123" s="69"/>
-      <c r="L123" s="69"/>
-      <c r="M123" s="70"/>
-      <c r="N123" s="69"/>
-      <c r="O123" s="63"/>
+      <c r="I123" s="66"/>
+      <c r="J123" s="52"/>
+      <c r="K123" s="52"/>
+      <c r="L123" s="54"/>
+      <c r="M123" s="54"/>
+      <c r="N123" s="52"/>
+      <c r="O123" s="52"/>
     </row>
     <row r="124" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I124" s="66"/>
-      <c r="J124" s="66"/>
-      <c r="K124" s="66"/>
+      <c r="J124" s="52"/>
+      <c r="K124" s="52"/>
       <c r="L124" s="52"/>
-      <c r="M124" s="68"/>
+      <c r="M124" s="54"/>
       <c r="N124" s="52"/>
       <c r="O124" s="52"/>
     </row>
@@ -16765,13 +16841,13 @@
       <c r="O126" s="52"/>
     </row>
     <row r="127" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I127" s="66"/>
-      <c r="J127" s="66"/>
-      <c r="K127" s="66"/>
-      <c r="L127" s="52"/>
-      <c r="M127" s="68"/>
-      <c r="N127" s="52"/>
-      <c r="O127" s="52"/>
+      <c r="I127" s="69"/>
+      <c r="J127" s="69"/>
+      <c r="K127" s="69"/>
+      <c r="L127" s="69"/>
+      <c r="M127" s="70"/>
+      <c r="N127" s="69"/>
+      <c r="O127" s="63"/>
     </row>
     <row r="128" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I128" s="66"/>
@@ -16783,13 +16859,13 @@
       <c r="O128" s="52"/>
     </row>
     <row r="129" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I129" s="69"/>
-      <c r="J129" s="69"/>
-      <c r="K129" s="69"/>
-      <c r="L129" s="69"/>
-      <c r="M129" s="70"/>
-      <c r="N129" s="69"/>
-      <c r="O129" s="63"/>
+      <c r="I129" s="66"/>
+      <c r="J129" s="66"/>
+      <c r="K129" s="66"/>
+      <c r="L129" s="52"/>
+      <c r="M129" s="68"/>
+      <c r="N129" s="52"/>
+      <c r="O129" s="52"/>
     </row>
     <row r="130" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I130" s="66"/>
@@ -16811,30 +16887,30 @@
     </row>
     <row r="132" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I132" s="66"/>
-      <c r="J132" s="58"/>
-      <c r="K132" s="58"/>
-      <c r="L132" s="58"/>
-      <c r="M132" s="67"/>
+      <c r="J132" s="66"/>
+      <c r="K132" s="66"/>
+      <c r="L132" s="52"/>
+      <c r="M132" s="68"/>
       <c r="N132" s="52"/>
-      <c r="O132" s="58"/>
+      <c r="O132" s="52"/>
     </row>
     <row r="133" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I133" s="66"/>
-      <c r="J133" s="58"/>
-      <c r="K133" s="58"/>
-      <c r="L133" s="58"/>
-      <c r="M133" s="67"/>
-      <c r="N133" s="52"/>
-      <c r="O133" s="58"/>
+      <c r="I133" s="69"/>
+      <c r="J133" s="69"/>
+      <c r="K133" s="69"/>
+      <c r="L133" s="69"/>
+      <c r="M133" s="70"/>
+      <c r="N133" s="69"/>
+      <c r="O133" s="63"/>
     </row>
     <row r="134" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I134" s="66"/>
-      <c r="J134" s="66"/>
-      <c r="K134" s="66"/>
-      <c r="L134" s="52"/>
-      <c r="M134" s="68"/>
+      <c r="J134" s="58"/>
+      <c r="K134" s="58"/>
+      <c r="L134" s="58"/>
+      <c r="M134" s="67"/>
       <c r="N134" s="52"/>
-      <c r="O134" s="52"/>
+      <c r="O134" s="58"/>
     </row>
     <row r="135" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I135" s="66"/>
@@ -16856,12 +16932,12 @@
     </row>
     <row r="137" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I137" s="66"/>
-      <c r="J137" s="66"/>
-      <c r="K137" s="66"/>
-      <c r="L137" s="52"/>
-      <c r="M137" s="68"/>
+      <c r="J137" s="58"/>
+      <c r="K137" s="58"/>
+      <c r="L137" s="58"/>
+      <c r="M137" s="67"/>
       <c r="N137" s="52"/>
-      <c r="O137" s="52"/>
+      <c r="O137" s="58"/>
     </row>
     <row r="138" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I138" s="66"/>
@@ -16874,12 +16950,12 @@
     </row>
     <row r="139" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I139" s="66"/>
-      <c r="J139" s="58"/>
-      <c r="K139" s="58"/>
-      <c r="L139" s="58"/>
-      <c r="M139" s="67"/>
+      <c r="J139" s="66"/>
+      <c r="K139" s="66"/>
+      <c r="L139" s="52"/>
+      <c r="M139" s="68"/>
       <c r="N139" s="52"/>
-      <c r="O139" s="58"/>
+      <c r="O139" s="52"/>
     </row>
     <row r="140" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I140" s="66"/>
@@ -16897,7 +16973,7 @@
       <c r="L141" s="58"/>
       <c r="M141" s="67"/>
       <c r="N141" s="52"/>
-      <c r="O141" s="94"/>
+      <c r="O141" s="58"/>
     </row>
     <row r="142" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I142" s="66"/>
@@ -16906,25 +16982,43 @@
       <c r="L142" s="52"/>
       <c r="M142" s="68"/>
       <c r="N142" s="52"/>
-      <c r="O142" s="92"/>
+      <c r="O142" s="52"/>
     </row>
     <row r="143" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I143" s="66"/>
-      <c r="J143" s="66"/>
-      <c r="K143" s="66"/>
-      <c r="L143" s="52"/>
-      <c r="M143" s="68"/>
+      <c r="J143" s="58"/>
+      <c r="K143" s="58"/>
+      <c r="L143" s="58"/>
+      <c r="M143" s="67"/>
       <c r="N143" s="52"/>
-      <c r="O143" s="92"/>
+      <c r="O143" s="94"/>
     </row>
     <row r="144" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I144" s="69"/>
-      <c r="J144" s="69"/>
-      <c r="K144" s="69"/>
-      <c r="L144" s="69"/>
-      <c r="M144" s="70"/>
-      <c r="N144" s="69"/>
-      <c r="O144" s="63"/>
+      <c r="I144" s="66"/>
+      <c r="J144" s="66"/>
+      <c r="K144" s="66"/>
+      <c r="L144" s="52"/>
+      <c r="M144" s="68"/>
+      <c r="N144" s="52"/>
+      <c r="O144" s="92"/>
+    </row>
+    <row r="145" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I145" s="66"/>
+      <c r="J145" s="66"/>
+      <c r="K145" s="66"/>
+      <c r="L145" s="52"/>
+      <c r="M145" s="68"/>
+      <c r="N145" s="52"/>
+      <c r="O145" s="92"/>
+    </row>
+    <row r="146" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I146" s="69"/>
+      <c r="J146" s="69"/>
+      <c r="K146" s="69"/>
+      <c r="L146" s="69"/>
+      <c r="M146" s="70"/>
+      <c r="N146" s="69"/>
+      <c r="O146" s="63"/>
     </row>
   </sheetData>
   <sortState ref="A2:V144">

--- a/Projects/STYR-N/Treat4_S1_S3.xlsx
+++ b/Projects/STYR-N/Treat4_S1_S3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="T4_S1_IND" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="33">
   <si>
     <t>treatment</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Aert</t>
   </si>
   <si>
-    <t>Spring Barley/Ryegrass</t>
-  </si>
-  <si>
     <t>SB, Ryegrass, Wclover</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Rug</t>
+  </si>
+  <si>
+    <t>SB,Ryegrass, Wclover</t>
   </si>
 </sst>
 </file>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,7 +784,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="72">
         <v>34487</v>
@@ -828,7 +828,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="74">
         <v>34852</v>
@@ -1161,7 +1161,7 @@
         <v>36259</v>
       </c>
       <c r="F21" s="79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1195,7 +1195,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="77">
         <v>36668</v>
@@ -1238,7 +1238,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="77">
         <v>37050</v>
@@ -1530,7 +1530,7 @@
         <v>38176</v>
       </c>
       <c r="F39" s="51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1688,7 +1688,7 @@
         <v>7</v>
       </c>
       <c r="D47" s="73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E47" s="65">
         <v>38874</v>
@@ -1753,7 +1753,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E50" s="68">
         <v>38910</v>
@@ -1774,7 +1774,7 @@
         <v>7</v>
       </c>
       <c r="D51" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E51" s="68">
         <v>38952</v>
@@ -1795,7 +1795,7 @@
         <v>7</v>
       </c>
       <c r="D52" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E52" s="68">
         <v>39001</v>
@@ -1839,7 +1839,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E54" s="68">
         <v>39226</v>
@@ -1883,7 +1883,7 @@
         <v>7</v>
       </c>
       <c r="D56" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E56" s="68">
         <v>39266</v>
@@ -1904,7 +1904,7 @@
         <v>7</v>
       </c>
       <c r="D57" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E57" s="68">
         <v>39301</v>
@@ -1925,7 +1925,7 @@
         <v>7</v>
       </c>
       <c r="D58" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E58" s="68">
         <v>39371</v>
@@ -1969,7 +1969,7 @@
         <v>7</v>
       </c>
       <c r="D60" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E60" s="68">
         <v>39595</v>
@@ -2013,7 +2013,7 @@
         <v>7</v>
       </c>
       <c r="D62" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E62" s="68">
         <v>39637</v>
@@ -2034,7 +2034,7 @@
         <v>7</v>
       </c>
       <c r="D63" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E63" s="68">
         <v>39679</v>
@@ -2055,7 +2055,7 @@
         <v>7</v>
       </c>
       <c r="D64" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E64" s="68">
         <v>39735</v>
@@ -2099,7 +2099,7 @@
         <v>7</v>
       </c>
       <c r="D66" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E66" s="68">
         <v>39952</v>
@@ -2185,7 +2185,7 @@
         <v>7</v>
       </c>
       <c r="D70" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E70" s="68">
         <v>40000</v>
@@ -2227,7 +2227,7 @@
         <v>7</v>
       </c>
       <c r="D72" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E72" s="68">
         <v>40039</v>
@@ -2248,7 +2248,7 @@
         <v>7</v>
       </c>
       <c r="D73" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E73" s="68">
         <v>40107</v>
@@ -2353,8 +2353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L375"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2420,7 +2420,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="72">
         <v>34487</v>
@@ -2466,7 +2466,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="74">
         <v>34852</v>
@@ -2826,7 +2826,7 @@
         <v>36259</v>
       </c>
       <c r="F21" s="79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G21" s="81"/>
       <c r="L21" s="1"/>
@@ -2864,7 +2864,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="77">
         <v>36668</v>
@@ -2910,7 +2910,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="77">
         <v>37050</v>
@@ -3223,8 +3223,8 @@
       <c r="E39" s="61">
         <v>38176</v>
       </c>
-      <c r="F39" s="51" t="s">
-        <v>30</v>
+      <c r="F39" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="G39" s="81"/>
       <c r="L39" s="1"/>
@@ -3394,7 +3394,7 @@
         <v>22</v>
       </c>
       <c r="D47" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E47" s="68">
         <v>38874</v>
@@ -3459,7 +3459,7 @@
         <v>22</v>
       </c>
       <c r="D50" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E50" s="68">
         <v>38910</v>
@@ -3480,7 +3480,7 @@
         <v>22</v>
       </c>
       <c r="D51" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E51" s="68">
         <v>38952</v>
@@ -3501,7 +3501,7 @@
         <v>22</v>
       </c>
       <c r="D52" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E52" s="68">
         <v>39001</v>
@@ -3545,7 +3545,7 @@
         <v>22</v>
       </c>
       <c r="D54" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E54" s="68">
         <v>39226</v>
@@ -3589,7 +3589,7 @@
         <v>22</v>
       </c>
       <c r="D56" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E56" s="68">
         <v>39266</v>
@@ -3610,7 +3610,7 @@
         <v>22</v>
       </c>
       <c r="D57" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E57" s="68">
         <v>39301</v>
@@ -3631,7 +3631,7 @@
         <v>22</v>
       </c>
       <c r="D58" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E58" s="68">
         <v>39371</v>
@@ -6670,10 +6670,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G302"/>
+  <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6802,7 +6802,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="87">
         <v>34852</v>
@@ -6846,7 +6846,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="87">
         <v>35222</v>
@@ -7203,7 +7203,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="77">
         <v>37050</v>
@@ -7247,7 +7247,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" s="61">
         <v>37405</v>
@@ -7580,13 +7580,15 @@
       <c r="C43" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="51" t="s">
-        <v>12</v>
+      <c r="D43" s="60" t="s">
+        <v>13</v>
       </c>
       <c r="E43" s="61">
-        <v>38449</v>
-      </c>
-      <c r="F43" s="52"/>
+        <v>38452</v>
+      </c>
+      <c r="F43" s="53" t="s">
+        <v>27</v>
+      </c>
       <c r="G43" s="51"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -7600,12 +7602,12 @@
         <v>7</v>
       </c>
       <c r="D44" s="60" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E44" s="61">
-        <v>38452</v>
-      </c>
-      <c r="F44" s="53" t="s">
+        <v>38601</v>
+      </c>
+      <c r="F44" s="58" t="s">
         <v>27</v>
       </c>
       <c r="G44" s="51"/>
@@ -7621,36 +7623,34 @@
         <v>7</v>
       </c>
       <c r="D45" s="60" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E45" s="61">
-        <v>38601</v>
-      </c>
-      <c r="F45" s="58" t="s">
-        <v>27</v>
+        <v>38608</v>
+      </c>
+      <c r="F45" s="102" t="s">
+        <v>31</v>
       </c>
       <c r="G45" s="51"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="69">
-        <v>4</v>
-      </c>
-      <c r="B46" s="60">
+      <c r="A46" s="66">
+        <v>4</v>
+      </c>
+      <c r="B46" s="52">
         <v>2</v>
       </c>
-      <c r="C46" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="61">
-        <v>38608</v>
-      </c>
-      <c r="F46" s="102" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="51"/>
+      <c r="C46" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="54">
+        <v>38826</v>
+      </c>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="66">
@@ -7662,35 +7662,37 @@
       <c r="C47" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="51" t="s">
-        <v>12</v>
+      <c r="D47" s="83" t="s">
+        <v>13</v>
       </c>
       <c r="E47" s="54">
-        <v>38826</v>
-      </c>
-      <c r="F47" s="52"/>
+        <v>38834</v>
+      </c>
+      <c r="F47" s="52" t="s">
+        <v>28</v>
+      </c>
       <c r="G47" s="52"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="66">
         <v>4</v>
       </c>
-      <c r="B48" s="52">
+      <c r="B48" s="58">
         <v>2</v>
       </c>
-      <c r="C48" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="54">
-        <v>38834</v>
-      </c>
-      <c r="F48" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="52"/>
+      <c r="C48" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="67">
+        <v>38887</v>
+      </c>
+      <c r="F48" s="52"/>
+      <c r="G48" s="58">
+        <v>32</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="66">
@@ -7706,121 +7708,121 @@
         <v>20</v>
       </c>
       <c r="E49" s="67">
-        <v>38887</v>
+        <v>38906</v>
       </c>
       <c r="F49" s="52"/>
       <c r="G49" s="58">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="66">
         <v>4</v>
       </c>
-      <c r="B50" s="58">
+      <c r="B50" s="52">
         <v>2</v>
       </c>
-      <c r="C50" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="67">
-        <v>38906</v>
-      </c>
-      <c r="F50" s="52"/>
-      <c r="G50" s="58">
-        <v>40</v>
-      </c>
+      <c r="C50" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="54">
+        <v>38940</v>
+      </c>
+      <c r="F50" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="52"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="66">
-        <v>4</v>
-      </c>
-      <c r="B51" s="52">
+      <c r="A51" s="69">
+        <v>4</v>
+      </c>
+      <c r="B51" s="69">
         <v>2</v>
       </c>
-      <c r="C51" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="54">
-        <v>38940</v>
-      </c>
-      <c r="F51" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" s="52"/>
+      <c r="C51" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="70">
+        <v>39163</v>
+      </c>
+      <c r="F51" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="63">
+        <v>105</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="69">
-        <v>4</v>
-      </c>
-      <c r="B52" s="69">
+      <c r="A52" s="66">
+        <v>4</v>
+      </c>
+      <c r="B52" s="66">
         <v>2</v>
       </c>
-      <c r="C52" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="69" t="s">
+      <c r="C52" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="68">
+        <v>39226</v>
+      </c>
+      <c r="F52" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="52"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="69">
+        <v>4</v>
+      </c>
+      <c r="B53" s="69">
+        <v>2</v>
+      </c>
+      <c r="C53" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="70">
-        <v>39163</v>
-      </c>
-      <c r="F52" s="69" t="s">
+      <c r="E53" s="70">
+        <v>39231</v>
+      </c>
+      <c r="F53" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G52" s="63">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="66">
-        <v>4</v>
-      </c>
-      <c r="B53" s="66">
+      <c r="G53" s="63">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="66">
+        <v>4</v>
+      </c>
+      <c r="B54" s="66">
         <v>2</v>
       </c>
-      <c r="C53" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="E53" s="68">
-        <v>39226</v>
-      </c>
-      <c r="F53" s="52" t="s">
+      <c r="C54" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="68">
+        <v>39266</v>
+      </c>
+      <c r="F54" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G53" s="52"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="69">
-        <v>4</v>
-      </c>
-      <c r="B54" s="69">
-        <v>2</v>
-      </c>
-      <c r="C54" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="70">
-        <v>39231</v>
-      </c>
-      <c r="F54" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="63">
-        <v>109</v>
-      </c>
+      <c r="G54" s="52"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="66">
@@ -7833,10 +7835,10 @@
         <v>7</v>
       </c>
       <c r="D55" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E55" s="68">
-        <v>39266</v>
+        <v>39308</v>
       </c>
       <c r="F55" s="52" t="s">
         <v>9</v>
@@ -7854,10 +7856,10 @@
         <v>7</v>
       </c>
       <c r="D56" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E56" s="68">
-        <v>39308</v>
+        <v>39371</v>
       </c>
       <c r="F56" s="52" t="s">
         <v>9</v>
@@ -7865,132 +7867,132 @@
       <c r="G56" s="52"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="66">
-        <v>4</v>
-      </c>
-      <c r="B57" s="66">
+      <c r="A57" s="69">
+        <v>4</v>
+      </c>
+      <c r="B57" s="69">
         <v>2</v>
       </c>
-      <c r="C57" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="E57" s="68">
-        <v>39371</v>
-      </c>
-      <c r="F57" s="52" t="s">
+      <c r="C57" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="70">
+        <v>39546</v>
+      </c>
+      <c r="F57" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="66">
+        <v>4</v>
+      </c>
+      <c r="B58" s="66">
+        <v>2</v>
+      </c>
+      <c r="C58" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="68">
+        <v>39594</v>
+      </c>
+      <c r="F58" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G57" s="52"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="69">
-        <v>4</v>
-      </c>
-      <c r="B58" s="69">
+      <c r="G58" s="52"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="69">
+        <v>4</v>
+      </c>
+      <c r="B59" s="69">
         <v>2</v>
       </c>
-      <c r="C58" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="69" t="s">
+      <c r="C59" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="70">
-        <v>39546</v>
-      </c>
-      <c r="F58" s="69" t="s">
+      <c r="E59" s="70">
+        <v>39603</v>
+      </c>
+      <c r="F59" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G58" s="63">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="66">
-        <v>4</v>
-      </c>
-      <c r="B59" s="66">
+      <c r="G59" s="63">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="66">
+        <v>4</v>
+      </c>
+      <c r="B60" s="66">
         <v>2</v>
       </c>
-      <c r="C59" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="E59" s="68">
-        <v>39594</v>
-      </c>
-      <c r="F59" s="52" t="s">
+      <c r="C60" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="68">
+        <v>39637</v>
+      </c>
+      <c r="F60" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="52"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="69">
-        <v>4</v>
-      </c>
-      <c r="B60" s="69">
+      <c r="G60" s="52"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="69">
+        <v>4</v>
+      </c>
+      <c r="B61" s="58">
         <v>2</v>
       </c>
-      <c r="C60" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="70">
-        <v>39603</v>
-      </c>
-      <c r="F60" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="63">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="66">
-        <v>4</v>
-      </c>
-      <c r="B61" s="66">
+      <c r="C61" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="54">
+        <v>39679.4</v>
+      </c>
+      <c r="F61" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" s="52"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="66">
+        <v>4</v>
+      </c>
+      <c r="B62" s="66">
         <v>2</v>
       </c>
-      <c r="C61" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="E61" s="68">
-        <v>39637</v>
-      </c>
-      <c r="F61" s="52" t="s">
+      <c r="C62" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" s="68">
+        <v>39681</v>
+      </c>
+      <c r="F62" s="52" t="s">
         <v>9</v>
-      </c>
-      <c r="G61" s="52"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="69">
-        <v>4</v>
-      </c>
-      <c r="B62" s="58">
-        <v>2</v>
-      </c>
-      <c r="C62" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E62" s="54">
-        <v>39679.4</v>
-      </c>
-      <c r="F62" s="58" t="s">
-        <v>26</v>
       </c>
       <c r="G62" s="52"/>
     </row>
@@ -8005,10 +8007,10 @@
         <v>7</v>
       </c>
       <c r="D63" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E63" s="68">
-        <v>39681</v>
+        <v>39735</v>
       </c>
       <c r="F63" s="52" t="s">
         <v>9</v>
@@ -8016,23 +8018,23 @@
       <c r="G63" s="52"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="66">
-        <v>4</v>
-      </c>
-      <c r="B64" s="66">
+      <c r="A64" s="69">
+        <v>4</v>
+      </c>
+      <c r="B64" s="58">
         <v>2</v>
       </c>
-      <c r="C64" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="E64" s="68">
-        <v>39735</v>
-      </c>
-      <c r="F64" s="52" t="s">
-        <v>9</v>
+      <c r="C64" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" s="54">
+        <v>39740.400000000001</v>
+      </c>
+      <c r="F64" s="58" t="s">
+        <v>26</v>
       </c>
       <c r="G64" s="52"/>
     </row>
@@ -8040,88 +8042,88 @@
       <c r="A65" s="69">
         <v>4</v>
       </c>
-      <c r="B65" s="58">
+      <c r="B65" s="69">
         <v>2</v>
       </c>
-      <c r="C65" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E65" s="54">
-        <v>39740.400000000001</v>
-      </c>
-      <c r="F65" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" s="52"/>
+      <c r="C65" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="70">
+        <v>39898</v>
+      </c>
+      <c r="F65" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="63">
+        <v>103</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="69">
-        <v>4</v>
-      </c>
-      <c r="B66" s="69">
+      <c r="A66" s="66">
+        <v>4</v>
+      </c>
+      <c r="B66" s="66">
         <v>2</v>
       </c>
-      <c r="C66" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="69" t="s">
+      <c r="C66" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" s="68">
+        <v>39959</v>
+      </c>
+      <c r="F66" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="52"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="69">
+        <v>4</v>
+      </c>
+      <c r="B67" s="69">
+        <v>2</v>
+      </c>
+      <c r="C67" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="70">
-        <v>39898</v>
-      </c>
-      <c r="F66" s="69" t="s">
+      <c r="E67" s="70">
+        <v>39962</v>
+      </c>
+      <c r="F67" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G66" s="63">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="66">
-        <v>4</v>
-      </c>
-      <c r="B67" s="66">
+      <c r="G67" s="63">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="66">
+        <v>4</v>
+      </c>
+      <c r="B68" s="58">
         <v>2</v>
       </c>
-      <c r="C67" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="E67" s="68">
-        <v>39959</v>
-      </c>
-      <c r="F67" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="52"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="69">
-        <v>4</v>
-      </c>
-      <c r="B68" s="69">
-        <v>2</v>
-      </c>
-      <c r="C68" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="70">
-        <v>39962</v>
-      </c>
-      <c r="F68" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" s="63">
-        <v>91</v>
+      <c r="C68" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" s="67">
+        <v>39968</v>
+      </c>
+      <c r="F68" s="52"/>
+      <c r="G68" s="58">
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -8138,75 +8140,75 @@
         <v>20</v>
       </c>
       <c r="E69" s="67">
-        <v>39968</v>
+        <v>39989</v>
       </c>
       <c r="F69" s="52"/>
       <c r="G69" s="58">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="66">
         <v>4</v>
       </c>
-      <c r="B70" s="58">
+      <c r="B70" s="66">
         <v>2</v>
       </c>
-      <c r="C70" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E70" s="67">
-        <v>39989</v>
-      </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="58">
-        <v>42</v>
-      </c>
+      <c r="C70" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" s="68">
+        <v>40000</v>
+      </c>
+      <c r="F70" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="52"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="66">
         <v>4</v>
       </c>
-      <c r="B71" s="66">
+      <c r="B71" s="58">
         <v>2</v>
       </c>
-      <c r="C71" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="E71" s="68">
-        <v>40000</v>
-      </c>
-      <c r="F71" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="52"/>
+      <c r="C71" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" s="67">
+        <v>40003</v>
+      </c>
+      <c r="F71" s="52"/>
+      <c r="G71" s="58">
+        <v>45</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="66">
         <v>4</v>
       </c>
-      <c r="B72" s="58">
+      <c r="B72" s="66">
         <v>2</v>
       </c>
-      <c r="C72" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E72" s="67">
-        <v>40003</v>
-      </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="58">
-        <v>45</v>
-      </c>
+      <c r="C72" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" s="68">
+        <v>40045</v>
+      </c>
+      <c r="F72" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="52"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="66">
@@ -8219,10 +8221,10 @@
         <v>7</v>
       </c>
       <c r="D73" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E73" s="68">
-        <v>40045</v>
+        <v>40106</v>
       </c>
       <c r="F73" s="52" t="s">
         <v>9</v>
@@ -8230,155 +8232,155 @@
       <c r="G73" s="52"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="66">
-        <v>4</v>
-      </c>
-      <c r="B74" s="66">
+      <c r="A74" s="69">
+        <v>4</v>
+      </c>
+      <c r="B74" s="69">
         <v>2</v>
       </c>
-      <c r="C74" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="E74" s="68">
-        <v>40106</v>
-      </c>
-      <c r="F74" s="52" t="s">
+      <c r="C74" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="70">
+        <v>40262</v>
+      </c>
+      <c r="F74" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="63">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="66">
+        <v>4</v>
+      </c>
+      <c r="B75" s="66">
+        <v>2</v>
+      </c>
+      <c r="C75" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="E75" s="68">
+        <v>40337</v>
+      </c>
+      <c r="F75" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G74" s="52"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="69">
-        <v>4</v>
-      </c>
-      <c r="B75" s="69">
+      <c r="G75" s="92"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="69">
+        <v>4</v>
+      </c>
+      <c r="B76" s="69">
         <v>2</v>
       </c>
-      <c r="C75" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" s="69" t="s">
+      <c r="C76" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="70">
-        <v>40262</v>
-      </c>
-      <c r="F75" s="69" t="s">
+      <c r="E76" s="70">
+        <v>40343</v>
+      </c>
+      <c r="F76" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G75" s="63">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="66">
-        <v>4</v>
-      </c>
-      <c r="B76" s="66">
+      <c r="G76" s="96">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="66">
+        <v>4</v>
+      </c>
+      <c r="B77" s="58">
         <v>2</v>
       </c>
-      <c r="C76" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="E76" s="68">
-        <v>40337</v>
-      </c>
-      <c r="F76" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76" s="92"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="69">
-        <v>4</v>
-      </c>
-      <c r="B77" s="69">
-        <v>2</v>
-      </c>
-      <c r="C77" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="70">
-        <v>40343</v>
-      </c>
-      <c r="F77" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="96">
-        <v>106</v>
+      <c r="C77" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" s="67">
+        <v>40364</v>
+      </c>
+      <c r="F77" s="52"/>
+      <c r="G77" s="94">
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="66">
         <v>4</v>
       </c>
-      <c r="B78" s="58">
+      <c r="B78" s="66">
         <v>2</v>
       </c>
-      <c r="C78" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E78" s="67">
-        <v>40364</v>
-      </c>
-      <c r="F78" s="52"/>
-      <c r="G78" s="94">
-        <v>40</v>
-      </c>
+      <c r="C78" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="E78" s="68">
+        <v>40373</v>
+      </c>
+      <c r="F78" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="52"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="66">
         <v>4</v>
       </c>
-      <c r="B79" s="66">
+      <c r="B79" s="58">
         <v>2</v>
       </c>
-      <c r="C79" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="E79" s="68">
-        <v>40373</v>
-      </c>
-      <c r="F79" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G79" s="52"/>
+      <c r="C79" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" s="67">
+        <v>40388</v>
+      </c>
+      <c r="F79" s="52"/>
+      <c r="G79" s="58">
+        <v>40</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="66">
         <v>4</v>
       </c>
-      <c r="B80" s="58">
+      <c r="B80" s="66">
         <v>2</v>
       </c>
-      <c r="C80" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E80" s="67">
-        <v>40388</v>
-      </c>
-      <c r="F80" s="52"/>
-      <c r="G80" s="58">
-        <v>40</v>
-      </c>
+      <c r="C80" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="68">
+        <v>40416</v>
+      </c>
+      <c r="F80" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="52"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="66">
@@ -8391,10 +8393,10 @@
         <v>7</v>
       </c>
       <c r="D81" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E81" s="68">
-        <v>40416</v>
+        <v>40463</v>
       </c>
       <c r="F81" s="52" t="s">
         <v>9</v>
@@ -8402,25 +8404,13 @@
       <c r="G81" s="52"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="66">
-        <v>4</v>
-      </c>
-      <c r="B82" s="66">
-        <v>2</v>
-      </c>
-      <c r="C82" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="E82" s="68">
-        <v>40463</v>
-      </c>
-      <c r="F82" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G82" s="52"/>
+      <c r="A82" s="69"/>
+      <c r="B82" s="75"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="75"/>
+      <c r="E82" s="87"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="75"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="69"/>
@@ -8428,8 +8418,8 @@
       <c r="C83" s="46"/>
       <c r="D83" s="75"/>
       <c r="E83" s="87"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="75"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="46"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="69"/>
@@ -8437,7 +8427,7 @@
       <c r="C84" s="46"/>
       <c r="D84" s="75"/>
       <c r="E84" s="87"/>
-      <c r="F84" s="52"/>
+      <c r="F84" s="75"/>
       <c r="G84" s="46"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -8447,7 +8437,7 @@
       <c r="D85" s="75"/>
       <c r="E85" s="87"/>
       <c r="F85" s="75"/>
-      <c r="G85" s="46"/>
+      <c r="G85" s="58"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="69"/>
@@ -8456,7 +8446,7 @@
       <c r="D86" s="75"/>
       <c r="E86" s="87"/>
       <c r="F86" s="75"/>
-      <c r="G86" s="58"/>
+      <c r="G86" s="46"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="69"/>
@@ -8464,8 +8454,8 @@
       <c r="C87" s="46"/>
       <c r="D87" s="75"/>
       <c r="E87" s="87"/>
-      <c r="F87" s="75"/>
-      <c r="G87" s="46"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="75"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="69"/>
@@ -8473,8 +8463,8 @@
       <c r="C88" s="46"/>
       <c r="D88" s="75"/>
       <c r="E88" s="87"/>
-      <c r="F88" s="46"/>
-      <c r="G88" s="75"/>
+      <c r="F88" s="75"/>
+      <c r="G88" s="46"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="69"/>
@@ -8482,8 +8472,8 @@
       <c r="C89" s="46"/>
       <c r="D89" s="75"/>
       <c r="E89" s="87"/>
-      <c r="F89" s="75"/>
-      <c r="G89" s="46"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="75"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="69"/>
@@ -8491,8 +8481,8 @@
       <c r="C90" s="46"/>
       <c r="D90" s="75"/>
       <c r="E90" s="87"/>
-      <c r="F90" s="46"/>
-      <c r="G90" s="75"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="46"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="69"/>
@@ -8500,7 +8490,7 @@
       <c r="C91" s="46"/>
       <c r="D91" s="75"/>
       <c r="E91" s="87"/>
-      <c r="F91" s="52"/>
+      <c r="F91" s="75"/>
       <c r="G91" s="46"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -8514,12 +8504,12 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="69"/>
-      <c r="B93" s="75"/>
+      <c r="B93" s="78"/>
       <c r="C93" s="46"/>
       <c r="D93" s="75"/>
-      <c r="E93" s="87"/>
-      <c r="F93" s="75"/>
-      <c r="G93" s="46"/>
+      <c r="E93" s="90"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="78"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="69"/>
@@ -8527,8 +8517,8 @@
       <c r="C94" s="46"/>
       <c r="D94" s="75"/>
       <c r="E94" s="90"/>
-      <c r="F94" s="46"/>
-      <c r="G94" s="78"/>
+      <c r="F94" s="52"/>
+      <c r="G94" s="46"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="69"/>
@@ -8536,7 +8526,7 @@
       <c r="C95" s="46"/>
       <c r="D95" s="75"/>
       <c r="E95" s="90"/>
-      <c r="F95" s="52"/>
+      <c r="F95" s="78"/>
       <c r="G95" s="46"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -8553,9 +8543,9 @@
       <c r="B97" s="78"/>
       <c r="C97" s="46"/>
       <c r="D97" s="75"/>
-      <c r="E97" s="90"/>
-      <c r="F97" s="78"/>
-      <c r="G97" s="46"/>
+      <c r="E97" s="87"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="75"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="69"/>
@@ -8563,8 +8553,8 @@
       <c r="C98" s="46"/>
       <c r="D98" s="75"/>
       <c r="E98" s="87"/>
-      <c r="F98" s="46"/>
-      <c r="G98" s="75"/>
+      <c r="F98" s="52"/>
+      <c r="G98" s="46"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="69"/>
@@ -8572,7 +8562,7 @@
       <c r="C99" s="46"/>
       <c r="D99" s="75"/>
       <c r="E99" s="87"/>
-      <c r="F99" s="52"/>
+      <c r="F99" s="75"/>
       <c r="G99" s="46"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -8589,9 +8579,9 @@
       <c r="B101" s="78"/>
       <c r="C101" s="46"/>
       <c r="D101" s="75"/>
-      <c r="E101" s="87"/>
-      <c r="F101" s="75"/>
-      <c r="G101" s="46"/>
+      <c r="E101" s="90"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="78"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="69"/>
@@ -8599,8 +8589,8 @@
       <c r="C102" s="46"/>
       <c r="D102" s="75"/>
       <c r="E102" s="90"/>
-      <c r="F102" s="46"/>
-      <c r="G102" s="78"/>
+      <c r="F102" s="52"/>
+      <c r="G102" s="46"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="69"/>
@@ -8608,7 +8598,7 @@
       <c r="C103" s="46"/>
       <c r="D103" s="75"/>
       <c r="E103" s="90"/>
-      <c r="F103" s="52"/>
+      <c r="F103" s="78"/>
       <c r="G103" s="46"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -8631,12 +8621,12 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="69"/>
-      <c r="B106" s="78"/>
+      <c r="B106" s="58"/>
       <c r="C106" s="46"/>
-      <c r="D106" s="75"/>
-      <c r="E106" s="90"/>
-      <c r="F106" s="78"/>
-      <c r="G106" s="46"/>
+      <c r="D106" s="58"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="58"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="69"/>
@@ -8644,8 +8634,8 @@
       <c r="C107" s="46"/>
       <c r="D107" s="58"/>
       <c r="E107" s="67"/>
-      <c r="F107" s="46"/>
-      <c r="G107" s="58"/>
+      <c r="F107" s="58"/>
+      <c r="G107" s="46"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="69"/>
@@ -8653,8 +8643,8 @@
       <c r="C108" s="46"/>
       <c r="D108" s="58"/>
       <c r="E108" s="67"/>
-      <c r="F108" s="58"/>
-      <c r="G108" s="46"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="58"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="69"/>
@@ -8662,8 +8652,8 @@
       <c r="C109" s="46"/>
       <c r="D109" s="58"/>
       <c r="E109" s="67"/>
-      <c r="F109" s="46"/>
-      <c r="G109" s="58"/>
+      <c r="F109" s="58"/>
+      <c r="G109" s="46"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="69"/>
@@ -8707,8 +8697,8 @@
       <c r="C114" s="46"/>
       <c r="D114" s="58"/>
       <c r="E114" s="67"/>
-      <c r="F114" s="58"/>
-      <c r="G114" s="46"/>
+      <c r="F114" s="46"/>
+      <c r="G114" s="58"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="69"/>
@@ -8716,8 +8706,8 @@
       <c r="C115" s="46"/>
       <c r="D115" s="58"/>
       <c r="E115" s="67"/>
-      <c r="F115" s="46"/>
-      <c r="G115" s="58"/>
+      <c r="F115" s="58"/>
+      <c r="G115" s="46"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="69"/>
@@ -8734,8 +8724,8 @@
       <c r="C117" s="46"/>
       <c r="D117" s="58"/>
       <c r="E117" s="67"/>
-      <c r="F117" s="58"/>
-      <c r="G117" s="46"/>
+      <c r="F117" s="46"/>
+      <c r="G117" s="58"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="69"/>
@@ -8743,8 +8733,8 @@
       <c r="C118" s="46"/>
       <c r="D118" s="58"/>
       <c r="E118" s="67"/>
-      <c r="F118" s="46"/>
-      <c r="G118" s="58"/>
+      <c r="F118" s="58"/>
+      <c r="G118" s="46"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="69"/>
@@ -8787,7 +8777,7 @@
       <c r="B123" s="58"/>
       <c r="C123" s="46"/>
       <c r="D123" s="58"/>
-      <c r="E123" s="67"/>
+      <c r="E123" s="93"/>
       <c r="F123" s="58"/>
       <c r="G123" s="46"/>
     </row>
@@ -8801,31 +8791,31 @@
       <c r="G124" s="46"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="69"/>
-      <c r="B125" s="58"/>
-      <c r="C125" s="46"/>
-      <c r="D125" s="58"/>
-      <c r="E125" s="93"/>
-      <c r="F125" s="58"/>
-      <c r="G125" s="46"/>
+      <c r="A125" s="66"/>
+      <c r="B125" s="52"/>
+      <c r="C125" s="52"/>
+      <c r="D125" s="52"/>
+      <c r="E125" s="54"/>
+      <c r="F125" s="52"/>
+      <c r="G125" s="52"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="66"/>
       <c r="B126" s="52"/>
       <c r="C126" s="52"/>
-      <c r="D126" s="52"/>
+      <c r="D126" s="54"/>
       <c r="E126" s="54"/>
       <c r="F126" s="52"/>
       <c r="G126" s="52"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="66"/>
-      <c r="B127" s="52"/>
-      <c r="C127" s="52"/>
-      <c r="D127" s="54"/>
-      <c r="E127" s="54"/>
+      <c r="B127" s="58"/>
+      <c r="C127" s="58"/>
+      <c r="D127" s="58"/>
+      <c r="E127" s="67"/>
       <c r="F127" s="52"/>
-      <c r="G127" s="52"/>
+      <c r="G127" s="58"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="66"/>
@@ -8838,48 +8828,48 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="66"/>
-      <c r="B129" s="58"/>
-      <c r="C129" s="58"/>
-      <c r="D129" s="58"/>
-      <c r="E129" s="67"/>
+      <c r="B129" s="52"/>
+      <c r="C129" s="52"/>
+      <c r="D129" s="52"/>
+      <c r="E129" s="54"/>
       <c r="F129" s="52"/>
-      <c r="G129" s="58"/>
+      <c r="G129" s="52"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="66"/>
-      <c r="B130" s="52"/>
-      <c r="C130" s="52"/>
-      <c r="D130" s="52"/>
-      <c r="E130" s="54"/>
-      <c r="F130" s="52"/>
-      <c r="G130" s="52"/>
+      <c r="A130" s="69"/>
+      <c r="B130" s="69"/>
+      <c r="C130" s="69"/>
+      <c r="D130" s="69"/>
+      <c r="E130" s="70"/>
+      <c r="F130" s="69"/>
+      <c r="G130" s="63"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="69"/>
-      <c r="B131" s="69"/>
-      <c r="C131" s="69"/>
-      <c r="D131" s="69"/>
-      <c r="E131" s="70"/>
-      <c r="F131" s="69"/>
-      <c r="G131" s="63"/>
+      <c r="A131" s="66"/>
+      <c r="B131" s="66"/>
+      <c r="C131" s="66"/>
+      <c r="D131" s="52"/>
+      <c r="E131" s="68"/>
+      <c r="F131" s="52"/>
+      <c r="G131" s="52"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="66"/>
-      <c r="B132" s="66"/>
-      <c r="C132" s="66"/>
-      <c r="D132" s="52"/>
-      <c r="E132" s="68"/>
-      <c r="F132" s="52"/>
-      <c r="G132" s="52"/>
+      <c r="A132" s="69"/>
+      <c r="B132" s="69"/>
+      <c r="C132" s="69"/>
+      <c r="D132" s="69"/>
+      <c r="E132" s="70"/>
+      <c r="F132" s="69"/>
+      <c r="G132" s="63"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="69"/>
-      <c r="B133" s="69"/>
-      <c r="C133" s="69"/>
-      <c r="D133" s="69"/>
-      <c r="E133" s="70"/>
-      <c r="F133" s="69"/>
-      <c r="G133" s="63"/>
+      <c r="A133" s="66"/>
+      <c r="B133" s="66"/>
+      <c r="C133" s="66"/>
+      <c r="D133" s="52"/>
+      <c r="E133" s="68"/>
+      <c r="F133" s="52"/>
+      <c r="G133" s="52"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="66"/>
@@ -8900,40 +8890,40 @@
       <c r="G135" s="52"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="66"/>
-      <c r="B136" s="66"/>
-      <c r="C136" s="66"/>
-      <c r="D136" s="52"/>
-      <c r="E136" s="68"/>
-      <c r="F136" s="52"/>
-      <c r="G136" s="52"/>
+      <c r="A136" s="69"/>
+      <c r="B136" s="69"/>
+      <c r="C136" s="69"/>
+      <c r="D136" s="69"/>
+      <c r="E136" s="70"/>
+      <c r="F136" s="69"/>
+      <c r="G136" s="63"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="69"/>
-      <c r="B137" s="69"/>
-      <c r="C137" s="69"/>
-      <c r="D137" s="69"/>
-      <c r="E137" s="70"/>
-      <c r="F137" s="69"/>
-      <c r="G137" s="63"/>
+      <c r="A137" s="66"/>
+      <c r="B137" s="66"/>
+      <c r="C137" s="66"/>
+      <c r="D137" s="52"/>
+      <c r="E137" s="68"/>
+      <c r="F137" s="52"/>
+      <c r="G137" s="52"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="66"/>
-      <c r="B138" s="66"/>
-      <c r="C138" s="66"/>
-      <c r="D138" s="52"/>
-      <c r="E138" s="68"/>
-      <c r="F138" s="52"/>
-      <c r="G138" s="52"/>
+      <c r="A138" s="69"/>
+      <c r="B138" s="69"/>
+      <c r="C138" s="69"/>
+      <c r="D138" s="69"/>
+      <c r="E138" s="70"/>
+      <c r="F138" s="69"/>
+      <c r="G138" s="63"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="69"/>
-      <c r="B139" s="69"/>
-      <c r="C139" s="69"/>
-      <c r="D139" s="69"/>
-      <c r="E139" s="70"/>
-      <c r="F139" s="69"/>
-      <c r="G139" s="63"/>
+      <c r="A139" s="66"/>
+      <c r="B139" s="66"/>
+      <c r="C139" s="66"/>
+      <c r="D139" s="52"/>
+      <c r="E139" s="68"/>
+      <c r="F139" s="52"/>
+      <c r="G139" s="52"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="66"/>
@@ -8955,10 +8945,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="66"/>
-      <c r="B142" s="66"/>
-      <c r="C142" s="66"/>
+      <c r="B142" s="52"/>
+      <c r="C142" s="52"/>
       <c r="D142" s="52"/>
-      <c r="E142" s="68"/>
+      <c r="E142" s="54"/>
       <c r="F142" s="52"/>
       <c r="G142" s="52"/>
     </row>
@@ -8966,19 +8956,19 @@
       <c r="A143" s="66"/>
       <c r="B143" s="52"/>
       <c r="C143" s="52"/>
-      <c r="D143" s="52"/>
+      <c r="D143" s="54"/>
       <c r="E143" s="54"/>
       <c r="F143" s="52"/>
       <c r="G143" s="52"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="66"/>
-      <c r="B144" s="52"/>
-      <c r="C144" s="52"/>
-      <c r="D144" s="54"/>
-      <c r="E144" s="54"/>
+      <c r="B144" s="58"/>
+      <c r="C144" s="58"/>
+      <c r="D144" s="58"/>
+      <c r="E144" s="67"/>
       <c r="F144" s="52"/>
-      <c r="G144" s="52"/>
+      <c r="G144" s="58"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="66"/>
@@ -8990,13 +8980,13 @@
       <c r="G145" s="58"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="66"/>
-      <c r="B146" s="58"/>
-      <c r="C146" s="58"/>
-      <c r="D146" s="58"/>
-      <c r="E146" s="67"/>
-      <c r="F146" s="52"/>
-      <c r="G146" s="58"/>
+      <c r="A146" s="69"/>
+      <c r="B146" s="69"/>
+      <c r="C146" s="69"/>
+      <c r="D146" s="69"/>
+      <c r="E146" s="70"/>
+      <c r="F146" s="69"/>
+      <c r="G146" s="63"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="69"/>
@@ -9008,22 +8998,22 @@
       <c r="G147" s="63"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="69"/>
-      <c r="B148" s="69"/>
-      <c r="C148" s="69"/>
-      <c r="D148" s="69"/>
-      <c r="E148" s="70"/>
-      <c r="F148" s="69"/>
-      <c r="G148" s="63"/>
+      <c r="A148" s="66"/>
+      <c r="B148" s="52"/>
+      <c r="C148" s="52"/>
+      <c r="D148" s="54"/>
+      <c r="E148" s="54"/>
+      <c r="F148" s="52"/>
+      <c r="G148" s="52"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="66"/>
-      <c r="B149" s="52"/>
-      <c r="C149" s="52"/>
-      <c r="D149" s="54"/>
-      <c r="E149" s="54"/>
+      <c r="B149" s="58"/>
+      <c r="C149" s="58"/>
+      <c r="D149" s="58"/>
+      <c r="E149" s="67"/>
       <c r="F149" s="52"/>
-      <c r="G149" s="52"/>
+      <c r="G149" s="58"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="66"/>
@@ -9036,21 +9026,21 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="66"/>
-      <c r="B151" s="58"/>
-      <c r="C151" s="58"/>
-      <c r="D151" s="58"/>
-      <c r="E151" s="67"/>
+      <c r="B151" s="52"/>
+      <c r="C151" s="52"/>
+      <c r="D151" s="52"/>
+      <c r="E151" s="54"/>
       <c r="F151" s="52"/>
-      <c r="G151" s="58"/>
+      <c r="G151" s="52"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="66"/>
-      <c r="B152" s="52"/>
-      <c r="C152" s="52"/>
-      <c r="D152" s="52"/>
-      <c r="E152" s="54"/>
-      <c r="F152" s="52"/>
-      <c r="G152" s="52"/>
+      <c r="A152" s="69"/>
+      <c r="B152" s="75"/>
+      <c r="C152" s="46"/>
+      <c r="D152" s="75"/>
+      <c r="E152" s="87"/>
+      <c r="F152" s="46"/>
+      <c r="G152" s="75"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="69"/>
@@ -9058,8 +9048,8 @@
       <c r="C153" s="46"/>
       <c r="D153" s="75"/>
       <c r="E153" s="87"/>
-      <c r="F153" s="46"/>
-      <c r="G153" s="75"/>
+      <c r="F153" s="52"/>
+      <c r="G153" s="46"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="69"/>
@@ -9067,7 +9057,7 @@
       <c r="C154" s="46"/>
       <c r="D154" s="75"/>
       <c r="E154" s="87"/>
-      <c r="F154" s="52"/>
+      <c r="F154" s="75"/>
       <c r="G154" s="46"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -9077,7 +9067,7 @@
       <c r="D155" s="75"/>
       <c r="E155" s="87"/>
       <c r="F155" s="75"/>
-      <c r="G155" s="46"/>
+      <c r="G155" s="58"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="69"/>
@@ -9085,8 +9075,8 @@
       <c r="C156" s="46"/>
       <c r="D156" s="75"/>
       <c r="E156" s="87"/>
-      <c r="F156" s="75"/>
-      <c r="G156" s="58"/>
+      <c r="F156" s="46"/>
+      <c r="G156" s="75"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="69"/>
@@ -9094,8 +9084,8 @@
       <c r="C157" s="46"/>
       <c r="D157" s="75"/>
       <c r="E157" s="87"/>
-      <c r="F157" s="46"/>
-      <c r="G157" s="75"/>
+      <c r="F157" s="52"/>
+      <c r="G157" s="46"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="69"/>
@@ -9103,7 +9093,7 @@
       <c r="C158" s="46"/>
       <c r="D158" s="75"/>
       <c r="E158" s="87"/>
-      <c r="F158" s="52"/>
+      <c r="F158" s="75"/>
       <c r="G158" s="46"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -9130,8 +9120,8 @@
       <c r="C161" s="46"/>
       <c r="D161" s="75"/>
       <c r="E161" s="87"/>
-      <c r="F161" s="75"/>
-      <c r="G161" s="46"/>
+      <c r="F161" s="46"/>
+      <c r="G161" s="75"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="69"/>
@@ -9139,17 +9129,17 @@
       <c r="C162" s="46"/>
       <c r="D162" s="75"/>
       <c r="E162" s="87"/>
-      <c r="F162" s="46"/>
-      <c r="G162" s="75"/>
+      <c r="F162" s="75"/>
+      <c r="G162" s="52"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="69"/>
-      <c r="B163" s="75"/>
+      <c r="B163" s="78"/>
       <c r="C163" s="46"/>
       <c r="D163" s="75"/>
-      <c r="E163" s="87"/>
-      <c r="F163" s="75"/>
-      <c r="G163" s="52"/>
+      <c r="E163" s="90"/>
+      <c r="F163" s="46"/>
+      <c r="G163" s="78"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="69"/>
@@ -9157,8 +9147,8 @@
       <c r="C164" s="46"/>
       <c r="D164" s="75"/>
       <c r="E164" s="90"/>
-      <c r="F164" s="46"/>
-      <c r="G164" s="78"/>
+      <c r="F164" s="52"/>
+      <c r="G164" s="46"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="69"/>
@@ -9166,7 +9156,7 @@
       <c r="C165" s="46"/>
       <c r="D165" s="75"/>
       <c r="E165" s="90"/>
-      <c r="F165" s="52"/>
+      <c r="F165" s="78"/>
       <c r="G165" s="46"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -9184,8 +9174,8 @@
       <c r="C167" s="46"/>
       <c r="D167" s="75"/>
       <c r="E167" s="90"/>
-      <c r="F167" s="78"/>
-      <c r="G167" s="46"/>
+      <c r="F167" s="46"/>
+      <c r="G167" s="78"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="69"/>
@@ -9193,8 +9183,8 @@
       <c r="C168" s="46"/>
       <c r="D168" s="75"/>
       <c r="E168" s="90"/>
-      <c r="F168" s="46"/>
-      <c r="G168" s="78"/>
+      <c r="F168" s="52"/>
+      <c r="G168" s="46"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="69"/>
@@ -9202,7 +9192,7 @@
       <c r="C169" s="46"/>
       <c r="D169" s="75"/>
       <c r="E169" s="90"/>
-      <c r="F169" s="52"/>
+      <c r="F169" s="78"/>
       <c r="G169" s="46"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -9219,9 +9209,9 @@
       <c r="B171" s="78"/>
       <c r="C171" s="46"/>
       <c r="D171" s="75"/>
-      <c r="E171" s="90"/>
-      <c r="F171" s="78"/>
-      <c r="G171" s="46"/>
+      <c r="E171" s="87"/>
+      <c r="F171" s="92"/>
+      <c r="G171" s="75"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="69"/>
@@ -9230,7 +9220,7 @@
       <c r="D172" s="75"/>
       <c r="E172" s="87"/>
       <c r="F172" s="92"/>
-      <c r="G172" s="75"/>
+      <c r="G172" s="46"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="69"/>
@@ -9238,7 +9228,7 @@
       <c r="C173" s="46"/>
       <c r="D173" s="75"/>
       <c r="E173" s="87"/>
-      <c r="F173" s="92"/>
+      <c r="F173" s="95"/>
       <c r="G173" s="46"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -9247,7 +9237,7 @@
       <c r="C174" s="46"/>
       <c r="D174" s="75"/>
       <c r="E174" s="87"/>
-      <c r="F174" s="95"/>
+      <c r="F174" s="75"/>
       <c r="G174" s="46"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -9255,9 +9245,9 @@
       <c r="B175" s="78"/>
       <c r="C175" s="46"/>
       <c r="D175" s="75"/>
-      <c r="E175" s="87"/>
-      <c r="F175" s="75"/>
-      <c r="G175" s="46"/>
+      <c r="E175" s="90"/>
+      <c r="F175" s="46"/>
+      <c r="G175" s="78"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="69"/>
@@ -9265,8 +9255,8 @@
       <c r="C176" s="46"/>
       <c r="D176" s="75"/>
       <c r="E176" s="90"/>
-      <c r="F176" s="46"/>
-      <c r="G176" s="78"/>
+      <c r="F176" s="52"/>
+      <c r="G176" s="46"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="69"/>
@@ -9274,7 +9264,7 @@
       <c r="C177" s="46"/>
       <c r="D177" s="75"/>
       <c r="E177" s="90"/>
-      <c r="F177" s="52"/>
+      <c r="F177" s="78"/>
       <c r="G177" s="46"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -9288,11 +9278,11 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="69"/>
-      <c r="B179" s="78"/>
+      <c r="B179" s="58"/>
       <c r="C179" s="46"/>
-      <c r="D179" s="75"/>
-      <c r="E179" s="90"/>
-      <c r="F179" s="78"/>
+      <c r="D179" s="58"/>
+      <c r="E179" s="67"/>
+      <c r="F179" s="58"/>
       <c r="G179" s="46"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -9301,8 +9291,8 @@
       <c r="C180" s="46"/>
       <c r="D180" s="58"/>
       <c r="E180" s="67"/>
-      <c r="F180" s="58"/>
-      <c r="G180" s="46"/>
+      <c r="F180" s="46"/>
+      <c r="G180" s="58"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="69"/>
@@ -9310,8 +9300,8 @@
       <c r="C181" s="46"/>
       <c r="D181" s="58"/>
       <c r="E181" s="67"/>
-      <c r="F181" s="46"/>
-      <c r="G181" s="58"/>
+      <c r="F181" s="58"/>
+      <c r="G181" s="46"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="69"/>
@@ -9319,8 +9309,8 @@
       <c r="C182" s="46"/>
       <c r="D182" s="58"/>
       <c r="E182" s="67"/>
-      <c r="F182" s="58"/>
-      <c r="G182" s="46"/>
+      <c r="F182" s="46"/>
+      <c r="G182" s="58"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="69"/>
@@ -9328,8 +9318,8 @@
       <c r="C183" s="46"/>
       <c r="D183" s="58"/>
       <c r="E183" s="67"/>
-      <c r="F183" s="46"/>
-      <c r="G183" s="58"/>
+      <c r="F183" s="58"/>
+      <c r="G183" s="46"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="69"/>
@@ -9351,11 +9341,11 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="69"/>
-      <c r="B186" s="58"/>
+      <c r="B186" s="78"/>
       <c r="C186" s="46"/>
-      <c r="D186" s="58"/>
-      <c r="E186" s="67"/>
-      <c r="F186" s="58"/>
+      <c r="D186" s="75"/>
+      <c r="E186" s="90"/>
+      <c r="F186" s="91"/>
       <c r="G186" s="46"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -9364,7 +9354,7 @@
       <c r="C187" s="46"/>
       <c r="D187" s="75"/>
       <c r="E187" s="90"/>
-      <c r="F187" s="91"/>
+      <c r="F187" s="92"/>
       <c r="G187" s="46"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -9373,7 +9363,7 @@
       <c r="C188" s="46"/>
       <c r="D188" s="75"/>
       <c r="E188" s="90"/>
-      <c r="F188" s="92"/>
+      <c r="F188" s="94"/>
       <c r="G188" s="46"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -9390,63 +9380,63 @@
       <c r="B190" s="78"/>
       <c r="C190" s="46"/>
       <c r="D190" s="75"/>
-      <c r="E190" s="90"/>
-      <c r="F190" s="94"/>
+      <c r="E190" s="87"/>
+      <c r="F190" s="58"/>
       <c r="G190" s="46"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="69"/>
-      <c r="B191" s="78"/>
-      <c r="C191" s="46"/>
-      <c r="D191" s="75"/>
-      <c r="E191" s="87"/>
-      <c r="F191" s="58"/>
-      <c r="G191" s="46"/>
+      <c r="A191" s="66"/>
+      <c r="B191" s="52"/>
+      <c r="C191" s="52"/>
+      <c r="D191" s="52"/>
+      <c r="E191" s="54"/>
+      <c r="F191" s="52"/>
+      <c r="G191" s="52"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="66"/>
       <c r="B192" s="52"/>
       <c r="C192" s="52"/>
-      <c r="D192" s="52"/>
+      <c r="D192" s="54"/>
       <c r="E192" s="54"/>
       <c r="F192" s="52"/>
       <c r="G192" s="52"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="66"/>
-      <c r="B193" s="52"/>
-      <c r="C193" s="52"/>
-      <c r="D193" s="54"/>
-      <c r="E193" s="54"/>
+      <c r="B193" s="58"/>
+      <c r="C193" s="58"/>
+      <c r="D193" s="58"/>
+      <c r="E193" s="67"/>
       <c r="F193" s="52"/>
-      <c r="G193" s="52"/>
+      <c r="G193" s="58"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="66"/>
-      <c r="B194" s="58"/>
-      <c r="C194" s="58"/>
-      <c r="D194" s="58"/>
-      <c r="E194" s="67"/>
+      <c r="B194" s="52"/>
+      <c r="C194" s="52"/>
+      <c r="D194" s="52"/>
+      <c r="E194" s="54"/>
       <c r="F194" s="52"/>
-      <c r="G194" s="58"/>
+      <c r="G194" s="52"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="66"/>
-      <c r="B195" s="52"/>
-      <c r="C195" s="52"/>
-      <c r="D195" s="52"/>
-      <c r="E195" s="54"/>
+      <c r="B195" s="58"/>
+      <c r="C195" s="58"/>
+      <c r="D195" s="58"/>
+      <c r="E195" s="67"/>
       <c r="F195" s="52"/>
-      <c r="G195" s="52"/>
+      <c r="G195" s="58"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="66"/>
-      <c r="B196" s="58"/>
-      <c r="C196" s="58"/>
-      <c r="D196" s="58"/>
-      <c r="E196" s="67"/>
+      <c r="B196" s="52"/>
+      <c r="C196" s="52"/>
+      <c r="D196" s="52"/>
+      <c r="E196" s="54"/>
       <c r="F196" s="52"/>
-      <c r="G196" s="58"/>
+      <c r="G196" s="52"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="66"/>
@@ -9470,7 +9460,7 @@
       <c r="A199" s="66"/>
       <c r="B199" s="52"/>
       <c r="C199" s="52"/>
-      <c r="D199" s="52"/>
+      <c r="D199" s="54"/>
       <c r="E199" s="54"/>
       <c r="F199" s="52"/>
       <c r="G199" s="52"/>
@@ -9479,46 +9469,46 @@
       <c r="A200" s="66"/>
       <c r="B200" s="52"/>
       <c r="C200" s="52"/>
-      <c r="D200" s="54"/>
+      <c r="D200" s="52"/>
       <c r="E200" s="54"/>
       <c r="F200" s="52"/>
       <c r="G200" s="52"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="66"/>
-      <c r="B201" s="52"/>
-      <c r="C201" s="52"/>
-      <c r="D201" s="52"/>
-      <c r="E201" s="54"/>
-      <c r="F201" s="52"/>
-      <c r="G201" s="52"/>
+      <c r="A201" s="69"/>
+      <c r="B201" s="69"/>
+      <c r="C201" s="69"/>
+      <c r="D201" s="69"/>
+      <c r="E201" s="70"/>
+      <c r="F201" s="69"/>
+      <c r="G201" s="63"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="69"/>
-      <c r="B202" s="69"/>
-      <c r="C202" s="69"/>
-      <c r="D202" s="69"/>
-      <c r="E202" s="70"/>
-      <c r="F202" s="69"/>
-      <c r="G202" s="63"/>
+      <c r="A202" s="66"/>
+      <c r="B202" s="66"/>
+      <c r="C202" s="66"/>
+      <c r="D202" s="52"/>
+      <c r="E202" s="68"/>
+      <c r="F202" s="52"/>
+      <c r="G202" s="52"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="66"/>
-      <c r="B203" s="66"/>
-      <c r="C203" s="66"/>
-      <c r="D203" s="52"/>
-      <c r="E203" s="68"/>
-      <c r="F203" s="52"/>
-      <c r="G203" s="52"/>
+      <c r="A203" s="69"/>
+      <c r="B203" s="69"/>
+      <c r="C203" s="69"/>
+      <c r="D203" s="69"/>
+      <c r="E203" s="70"/>
+      <c r="F203" s="69"/>
+      <c r="G203" s="63"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="69"/>
-      <c r="B204" s="69"/>
-      <c r="C204" s="69"/>
-      <c r="D204" s="69"/>
-      <c r="E204" s="70"/>
-      <c r="F204" s="69"/>
-      <c r="G204" s="63"/>
+      <c r="A204" s="66"/>
+      <c r="B204" s="66"/>
+      <c r="C204" s="66"/>
+      <c r="D204" s="52"/>
+      <c r="E204" s="68"/>
+      <c r="F204" s="52"/>
+      <c r="G204" s="52"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="66"/>
@@ -9539,40 +9529,40 @@
       <c r="G206" s="52"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="66"/>
-      <c r="B207" s="66"/>
-      <c r="C207" s="66"/>
-      <c r="D207" s="52"/>
-      <c r="E207" s="68"/>
-      <c r="F207" s="52"/>
-      <c r="G207" s="52"/>
+      <c r="A207" s="69"/>
+      <c r="B207" s="69"/>
+      <c r="C207" s="69"/>
+      <c r="D207" s="69"/>
+      <c r="E207" s="70"/>
+      <c r="F207" s="69"/>
+      <c r="G207" s="63"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="69"/>
-      <c r="B208" s="69"/>
-      <c r="C208" s="69"/>
-      <c r="D208" s="69"/>
-      <c r="E208" s="70"/>
-      <c r="F208" s="69"/>
-      <c r="G208" s="63"/>
+      <c r="A208" s="66"/>
+      <c r="B208" s="66"/>
+      <c r="C208" s="66"/>
+      <c r="D208" s="52"/>
+      <c r="E208" s="68"/>
+      <c r="F208" s="52"/>
+      <c r="G208" s="52"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="66"/>
-      <c r="B209" s="66"/>
-      <c r="C209" s="66"/>
-      <c r="D209" s="52"/>
-      <c r="E209" s="68"/>
-      <c r="F209" s="52"/>
-      <c r="G209" s="52"/>
+      <c r="A209" s="69"/>
+      <c r="B209" s="69"/>
+      <c r="C209" s="69"/>
+      <c r="D209" s="69"/>
+      <c r="E209" s="70"/>
+      <c r="F209" s="69"/>
+      <c r="G209" s="63"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="69"/>
-      <c r="B210" s="69"/>
-      <c r="C210" s="69"/>
-      <c r="D210" s="69"/>
-      <c r="E210" s="70"/>
-      <c r="F210" s="69"/>
-      <c r="G210" s="63"/>
+      <c r="A210" s="66"/>
+      <c r="B210" s="58"/>
+      <c r="C210" s="58"/>
+      <c r="D210" s="58"/>
+      <c r="E210" s="67"/>
+      <c r="F210" s="52"/>
+      <c r="G210" s="58"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="66"/>
@@ -9585,30 +9575,30 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="66"/>
-      <c r="B212" s="58"/>
-      <c r="C212" s="58"/>
-      <c r="D212" s="58"/>
-      <c r="E212" s="67"/>
+      <c r="B212" s="66"/>
+      <c r="C212" s="66"/>
+      <c r="D212" s="52"/>
+      <c r="E212" s="68"/>
       <c r="F212" s="52"/>
-      <c r="G212" s="58"/>
+      <c r="G212" s="52"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="66"/>
-      <c r="B213" s="66"/>
-      <c r="C213" s="66"/>
-      <c r="D213" s="52"/>
-      <c r="E213" s="68"/>
+      <c r="B213" s="58"/>
+      <c r="C213" s="58"/>
+      <c r="D213" s="58"/>
+      <c r="E213" s="67"/>
       <c r="F213" s="52"/>
-      <c r="G213" s="52"/>
+      <c r="G213" s="58"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="66"/>
-      <c r="B214" s="58"/>
-      <c r="C214" s="58"/>
-      <c r="D214" s="58"/>
-      <c r="E214" s="67"/>
+      <c r="B214" s="66"/>
+      <c r="C214" s="66"/>
+      <c r="D214" s="52"/>
+      <c r="E214" s="68"/>
       <c r="F214" s="52"/>
-      <c r="G214" s="58"/>
+      <c r="G214" s="52"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="66"/>
@@ -9630,39 +9620,39 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="66"/>
-      <c r="B217" s="66"/>
-      <c r="C217" s="66"/>
-      <c r="D217" s="52"/>
-      <c r="E217" s="68"/>
+      <c r="B217" s="58"/>
+      <c r="C217" s="58"/>
+      <c r="D217" s="58"/>
+      <c r="E217" s="67"/>
       <c r="F217" s="52"/>
-      <c r="G217" s="52"/>
+      <c r="G217" s="58"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="66"/>
-      <c r="B218" s="58"/>
-      <c r="C218" s="58"/>
-      <c r="D218" s="58"/>
-      <c r="E218" s="67"/>
+      <c r="B218" s="66"/>
+      <c r="C218" s="66"/>
+      <c r="D218" s="52"/>
+      <c r="E218" s="68"/>
       <c r="F218" s="52"/>
-      <c r="G218" s="58"/>
+      <c r="G218" s="52"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="66"/>
-      <c r="B219" s="66"/>
-      <c r="C219" s="66"/>
-      <c r="D219" s="52"/>
-      <c r="E219" s="68"/>
+      <c r="B219" s="58"/>
+      <c r="C219" s="58"/>
+      <c r="D219" s="58"/>
+      <c r="E219" s="67"/>
       <c r="F219" s="52"/>
-      <c r="G219" s="52"/>
+      <c r="G219" s="94"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="66"/>
-      <c r="B220" s="58"/>
-      <c r="C220" s="58"/>
-      <c r="D220" s="58"/>
-      <c r="E220" s="67"/>
+      <c r="B220" s="66"/>
+      <c r="C220" s="66"/>
+      <c r="D220" s="52"/>
+      <c r="E220" s="68"/>
       <c r="F220" s="52"/>
-      <c r="G220" s="94"/>
+      <c r="G220" s="92"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="66"/>
@@ -9674,22 +9664,22 @@
       <c r="G221" s="92"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="66"/>
-      <c r="B222" s="66"/>
-      <c r="C222" s="66"/>
-      <c r="D222" s="52"/>
-      <c r="E222" s="68"/>
-      <c r="F222" s="52"/>
-      <c r="G222" s="92"/>
+      <c r="A222" s="69"/>
+      <c r="B222" s="69"/>
+      <c r="C222" s="69"/>
+      <c r="D222" s="69"/>
+      <c r="E222" s="70"/>
+      <c r="F222" s="69"/>
+      <c r="G222" s="63"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="69"/>
-      <c r="B223" s="69"/>
-      <c r="C223" s="69"/>
-      <c r="D223" s="69"/>
-      <c r="E223" s="70"/>
-      <c r="F223" s="69"/>
-      <c r="G223" s="63"/>
+      <c r="B223" s="75"/>
+      <c r="C223" s="46"/>
+      <c r="D223" s="75"/>
+      <c r="E223" s="87"/>
+      <c r="F223" s="46"/>
+      <c r="G223" s="75"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="69"/>
@@ -9697,8 +9687,8 @@
       <c r="C224" s="46"/>
       <c r="D224" s="75"/>
       <c r="E224" s="87"/>
-      <c r="F224" s="46"/>
-      <c r="G224" s="75"/>
+      <c r="F224" s="52"/>
+      <c r="G224" s="46"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="69"/>
@@ -9706,7 +9696,7 @@
       <c r="C225" s="46"/>
       <c r="D225" s="75"/>
       <c r="E225" s="87"/>
-      <c r="F225" s="52"/>
+      <c r="F225" s="75"/>
       <c r="G225" s="46"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -9716,7 +9706,7 @@
       <c r="D226" s="75"/>
       <c r="E226" s="87"/>
       <c r="F226" s="75"/>
-      <c r="G226" s="46"/>
+      <c r="G226" s="58"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="69"/>
@@ -9724,8 +9714,8 @@
       <c r="C227" s="46"/>
       <c r="D227" s="75"/>
       <c r="E227" s="87"/>
-      <c r="F227" s="75"/>
-      <c r="G227" s="58"/>
+      <c r="F227" s="46"/>
+      <c r="G227" s="75"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="69"/>
@@ -9733,8 +9723,8 @@
       <c r="C228" s="46"/>
       <c r="D228" s="75"/>
       <c r="E228" s="87"/>
-      <c r="F228" s="46"/>
-      <c r="G228" s="75"/>
+      <c r="F228" s="52"/>
+      <c r="G228" s="46"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="69"/>
@@ -9742,7 +9732,7 @@
       <c r="C229" s="46"/>
       <c r="D229" s="75"/>
       <c r="E229" s="87"/>
-      <c r="F229" s="52"/>
+      <c r="F229" s="75"/>
       <c r="G229" s="46"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -9769,8 +9759,8 @@
       <c r="C232" s="46"/>
       <c r="D232" s="75"/>
       <c r="E232" s="87"/>
-      <c r="F232" s="75"/>
-      <c r="G232" s="46"/>
+      <c r="F232" s="46"/>
+      <c r="G232" s="75"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="69"/>
@@ -9778,17 +9768,17 @@
       <c r="C233" s="46"/>
       <c r="D233" s="75"/>
       <c r="E233" s="87"/>
-      <c r="F233" s="46"/>
-      <c r="G233" s="75"/>
+      <c r="F233" s="75"/>
+      <c r="G233" s="52"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="69"/>
-      <c r="B234" s="75"/>
+      <c r="B234" s="78"/>
       <c r="C234" s="46"/>
       <c r="D234" s="75"/>
-      <c r="E234" s="87"/>
-      <c r="F234" s="75"/>
-      <c r="G234" s="52"/>
+      <c r="E234" s="90"/>
+      <c r="F234" s="46"/>
+      <c r="G234" s="78"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="69"/>
@@ -9796,8 +9786,8 @@
       <c r="C235" s="46"/>
       <c r="D235" s="75"/>
       <c r="E235" s="90"/>
-      <c r="F235" s="46"/>
-      <c r="G235" s="78"/>
+      <c r="F235" s="52"/>
+      <c r="G235" s="46"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="69"/>
@@ -9805,7 +9795,7 @@
       <c r="C236" s="46"/>
       <c r="D236" s="75"/>
       <c r="E236" s="90"/>
-      <c r="F236" s="52"/>
+      <c r="F236" s="78"/>
       <c r="G236" s="46"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -9823,8 +9813,8 @@
       <c r="C238" s="46"/>
       <c r="D238" s="75"/>
       <c r="E238" s="90"/>
-      <c r="F238" s="78"/>
-      <c r="G238" s="46"/>
+      <c r="F238" s="46"/>
+      <c r="G238" s="78"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="69"/>
@@ -9832,8 +9822,8 @@
       <c r="C239" s="46"/>
       <c r="D239" s="75"/>
       <c r="E239" s="90"/>
-      <c r="F239" s="46"/>
-      <c r="G239" s="78"/>
+      <c r="F239" s="52"/>
+      <c r="G239" s="46"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="69"/>
@@ -9841,7 +9831,7 @@
       <c r="C240" s="46"/>
       <c r="D240" s="75"/>
       <c r="E240" s="90"/>
-      <c r="F240" s="52"/>
+      <c r="F240" s="78"/>
       <c r="G240" s="46"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -9858,9 +9848,9 @@
       <c r="B242" s="78"/>
       <c r="C242" s="46"/>
       <c r="D242" s="75"/>
-      <c r="E242" s="90"/>
-      <c r="F242" s="78"/>
-      <c r="G242" s="46"/>
+      <c r="E242" s="87"/>
+      <c r="F242" s="46"/>
+      <c r="G242" s="75"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="69"/>
@@ -9868,8 +9858,8 @@
       <c r="C243" s="46"/>
       <c r="D243" s="75"/>
       <c r="E243" s="87"/>
-      <c r="F243" s="46"/>
-      <c r="G243" s="75"/>
+      <c r="F243" s="52"/>
+      <c r="G243" s="46"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="69"/>
@@ -9877,7 +9867,7 @@
       <c r="C244" s="46"/>
       <c r="D244" s="75"/>
       <c r="E244" s="87"/>
-      <c r="F244" s="52"/>
+      <c r="F244" s="75"/>
       <c r="G244" s="46"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -9894,9 +9884,9 @@
       <c r="B246" s="78"/>
       <c r="C246" s="46"/>
       <c r="D246" s="75"/>
-      <c r="E246" s="87"/>
-      <c r="F246" s="75"/>
-      <c r="G246" s="46"/>
+      <c r="E246" s="90"/>
+      <c r="F246" s="46"/>
+      <c r="G246" s="78"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="69"/>
@@ -9904,8 +9894,8 @@
       <c r="C247" s="46"/>
       <c r="D247" s="75"/>
       <c r="E247" s="90"/>
-      <c r="F247" s="46"/>
-      <c r="G247" s="78"/>
+      <c r="F247" s="52"/>
+      <c r="G247" s="46"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="69"/>
@@ -9913,7 +9903,7 @@
       <c r="C248" s="46"/>
       <c r="D248" s="75"/>
       <c r="E248" s="90"/>
-      <c r="F248" s="52"/>
+      <c r="F248" s="78"/>
       <c r="G248" s="46"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -9927,11 +9917,11 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="69"/>
-      <c r="B250" s="78"/>
+      <c r="B250" s="58"/>
       <c r="C250" s="46"/>
-      <c r="D250" s="75"/>
-      <c r="E250" s="90"/>
-      <c r="F250" s="78"/>
+      <c r="D250" s="58"/>
+      <c r="E250" s="67"/>
+      <c r="F250" s="58"/>
       <c r="G250" s="46"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -9940,8 +9930,8 @@
       <c r="C251" s="46"/>
       <c r="D251" s="58"/>
       <c r="E251" s="67"/>
-      <c r="F251" s="58"/>
-      <c r="G251" s="46"/>
+      <c r="F251" s="46"/>
+      <c r="G251" s="58"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="69"/>
@@ -9949,8 +9939,8 @@
       <c r="C252" s="46"/>
       <c r="D252" s="58"/>
       <c r="E252" s="67"/>
-      <c r="F252" s="46"/>
-      <c r="G252" s="58"/>
+      <c r="F252" s="58"/>
+      <c r="G252" s="46"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="69"/>
@@ -9958,8 +9948,8 @@
       <c r="C253" s="46"/>
       <c r="D253" s="58"/>
       <c r="E253" s="67"/>
-      <c r="F253" s="58"/>
-      <c r="G253" s="46"/>
+      <c r="F253" s="46"/>
+      <c r="G253" s="58"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="69"/>
@@ -9967,8 +9957,8 @@
       <c r="C254" s="46"/>
       <c r="D254" s="58"/>
       <c r="E254" s="67"/>
-      <c r="F254" s="46"/>
-      <c r="G254" s="58"/>
+      <c r="F254" s="58"/>
+      <c r="G254" s="46"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="69"/>
@@ -9990,11 +9980,11 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="69"/>
-      <c r="B257" s="58"/>
+      <c r="B257" s="78"/>
       <c r="C257" s="46"/>
-      <c r="D257" s="58"/>
-      <c r="E257" s="67"/>
-      <c r="F257" s="58"/>
+      <c r="D257" s="75"/>
+      <c r="E257" s="90"/>
+      <c r="F257" s="91"/>
       <c r="G257" s="46"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -10003,7 +9993,7 @@
       <c r="C258" s="46"/>
       <c r="D258" s="75"/>
       <c r="E258" s="90"/>
-      <c r="F258" s="91"/>
+      <c r="F258" s="52"/>
       <c r="G258" s="46"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -10012,7 +10002,7 @@
       <c r="C259" s="46"/>
       <c r="D259" s="75"/>
       <c r="E259" s="90"/>
-      <c r="F259" s="52"/>
+      <c r="F259" s="58"/>
       <c r="G259" s="46"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -10029,36 +10019,36 @@
       <c r="B261" s="78"/>
       <c r="C261" s="46"/>
       <c r="D261" s="75"/>
-      <c r="E261" s="90"/>
+      <c r="E261" s="87"/>
       <c r="F261" s="58"/>
       <c r="G261" s="46"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="69"/>
-      <c r="B262" s="78"/>
-      <c r="C262" s="46"/>
-      <c r="D262" s="75"/>
-      <c r="E262" s="87"/>
-      <c r="F262" s="58"/>
-      <c r="G262" s="46"/>
+      <c r="A262" s="66"/>
+      <c r="B262" s="52"/>
+      <c r="C262" s="52"/>
+      <c r="D262" s="52"/>
+      <c r="E262" s="54"/>
+      <c r="F262" s="52"/>
+      <c r="G262" s="52"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="66"/>
       <c r="B263" s="52"/>
       <c r="C263" s="52"/>
-      <c r="D263" s="52"/>
+      <c r="D263" s="54"/>
       <c r="E263" s="54"/>
       <c r="F263" s="52"/>
       <c r="G263" s="52"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="66"/>
-      <c r="B264" s="52"/>
-      <c r="C264" s="52"/>
-      <c r="D264" s="54"/>
-      <c r="E264" s="54"/>
+      <c r="B264" s="58"/>
+      <c r="C264" s="58"/>
+      <c r="D264" s="58"/>
+      <c r="E264" s="67"/>
       <c r="F264" s="52"/>
-      <c r="G264" s="52"/>
+      <c r="G264" s="58"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="66"/>
@@ -10071,18 +10061,18 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="66"/>
-      <c r="B266" s="58"/>
-      <c r="C266" s="58"/>
-      <c r="D266" s="58"/>
-      <c r="E266" s="67"/>
+      <c r="B266" s="52"/>
+      <c r="C266" s="52"/>
+      <c r="D266" s="52"/>
+      <c r="E266" s="54"/>
       <c r="F266" s="52"/>
-      <c r="G266" s="58"/>
+      <c r="G266" s="52"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="66"/>
       <c r="B267" s="52"/>
       <c r="C267" s="52"/>
-      <c r="D267" s="52"/>
+      <c r="D267" s="54"/>
       <c r="E267" s="54"/>
       <c r="F267" s="52"/>
       <c r="G267" s="52"/>
@@ -10091,7 +10081,7 @@
       <c r="A268" s="66"/>
       <c r="B268" s="52"/>
       <c r="C268" s="52"/>
-      <c r="D268" s="54"/>
+      <c r="D268" s="52"/>
       <c r="E268" s="54"/>
       <c r="F268" s="52"/>
       <c r="G268" s="52"/>
@@ -10100,7 +10090,7 @@
       <c r="A269" s="66"/>
       <c r="B269" s="52"/>
       <c r="C269" s="52"/>
-      <c r="D269" s="52"/>
+      <c r="D269" s="54"/>
       <c r="E269" s="54"/>
       <c r="F269" s="52"/>
       <c r="G269" s="52"/>
@@ -10109,28 +10099,28 @@
       <c r="A270" s="66"/>
       <c r="B270" s="52"/>
       <c r="C270" s="52"/>
-      <c r="D270" s="54"/>
+      <c r="D270" s="52"/>
       <c r="E270" s="54"/>
       <c r="F270" s="52"/>
       <c r="G270" s="52"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" s="66"/>
-      <c r="B271" s="52"/>
-      <c r="C271" s="52"/>
-      <c r="D271" s="52"/>
-      <c r="E271" s="54"/>
-      <c r="F271" s="52"/>
-      <c r="G271" s="52"/>
+      <c r="A271" s="69"/>
+      <c r="B271" s="69"/>
+      <c r="C271" s="69"/>
+      <c r="D271" s="69"/>
+      <c r="E271" s="70"/>
+      <c r="F271" s="69"/>
+      <c r="G271" s="63"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" s="69"/>
-      <c r="B272" s="69"/>
-      <c r="C272" s="69"/>
-      <c r="D272" s="69"/>
-      <c r="E272" s="70"/>
-      <c r="F272" s="69"/>
-      <c r="G272" s="63"/>
+      <c r="A272" s="66"/>
+      <c r="B272" s="66"/>
+      <c r="C272" s="66"/>
+      <c r="D272" s="52"/>
+      <c r="E272" s="68"/>
+      <c r="F272" s="52"/>
+      <c r="G272" s="52"/>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="66"/>
@@ -10142,22 +10132,22 @@
       <c r="G273" s="52"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" s="66"/>
-      <c r="B274" s="66"/>
-      <c r="C274" s="66"/>
-      <c r="D274" s="52"/>
-      <c r="E274" s="68"/>
-      <c r="F274" s="52"/>
-      <c r="G274" s="52"/>
+      <c r="A274" s="69"/>
+      <c r="B274" s="69"/>
+      <c r="C274" s="69"/>
+      <c r="D274" s="69"/>
+      <c r="E274" s="70"/>
+      <c r="F274" s="69"/>
+      <c r="G274" s="63"/>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275" s="69"/>
-      <c r="B275" s="69"/>
-      <c r="C275" s="69"/>
-      <c r="D275" s="69"/>
-      <c r="E275" s="70"/>
-      <c r="F275" s="69"/>
-      <c r="G275" s="63"/>
+      <c r="A275" s="66"/>
+      <c r="B275" s="66"/>
+      <c r="C275" s="66"/>
+      <c r="D275" s="52"/>
+      <c r="E275" s="68"/>
+      <c r="F275" s="52"/>
+      <c r="G275" s="52"/>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="66"/>
@@ -10205,22 +10195,22 @@
       <c r="G280" s="52"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A281" s="66"/>
-      <c r="B281" s="66"/>
-      <c r="C281" s="66"/>
-      <c r="D281" s="52"/>
-      <c r="E281" s="68"/>
-      <c r="F281" s="52"/>
-      <c r="G281" s="52"/>
+      <c r="A281" s="69"/>
+      <c r="B281" s="69"/>
+      <c r="C281" s="69"/>
+      <c r="D281" s="69"/>
+      <c r="E281" s="70"/>
+      <c r="F281" s="69"/>
+      <c r="G281" s="63"/>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" s="69"/>
-      <c r="B282" s="69"/>
-      <c r="C282" s="69"/>
-      <c r="D282" s="69"/>
-      <c r="E282" s="70"/>
-      <c r="F282" s="69"/>
-      <c r="G282" s="63"/>
+      <c r="A282" s="66"/>
+      <c r="B282" s="66"/>
+      <c r="C282" s="66"/>
+      <c r="D282" s="52"/>
+      <c r="E282" s="68"/>
+      <c r="F282" s="52"/>
+      <c r="G282" s="52"/>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="66"/>
@@ -10232,22 +10222,22 @@
       <c r="G283" s="52"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A284" s="66"/>
-      <c r="B284" s="66"/>
-      <c r="C284" s="66"/>
-      <c r="D284" s="52"/>
-      <c r="E284" s="68"/>
-      <c r="F284" s="52"/>
-      <c r="G284" s="52"/>
+      <c r="A284" s="69"/>
+      <c r="B284" s="69"/>
+      <c r="C284" s="69"/>
+      <c r="D284" s="69"/>
+      <c r="E284" s="70"/>
+      <c r="F284" s="69"/>
+      <c r="G284" s="63"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285" s="69"/>
-      <c r="B285" s="69"/>
-      <c r="C285" s="69"/>
-      <c r="D285" s="69"/>
-      <c r="E285" s="70"/>
-      <c r="F285" s="69"/>
-      <c r="G285" s="63"/>
+      <c r="A285" s="66"/>
+      <c r="B285" s="58"/>
+      <c r="C285" s="58"/>
+      <c r="D285" s="58"/>
+      <c r="E285" s="67"/>
+      <c r="F285" s="52"/>
+      <c r="G285" s="58"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="66"/>
@@ -10260,12 +10250,12 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="66"/>
-      <c r="B287" s="58"/>
-      <c r="C287" s="58"/>
-      <c r="D287" s="58"/>
-      <c r="E287" s="67"/>
+      <c r="B287" s="66"/>
+      <c r="C287" s="66"/>
+      <c r="D287" s="52"/>
+      <c r="E287" s="68"/>
       <c r="F287" s="52"/>
-      <c r="G287" s="58"/>
+      <c r="G287" s="52"/>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="66"/>
@@ -10278,21 +10268,21 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="66"/>
-      <c r="B289" s="66"/>
-      <c r="C289" s="66"/>
-      <c r="D289" s="52"/>
-      <c r="E289" s="68"/>
+      <c r="B289" s="58"/>
+      <c r="C289" s="58"/>
+      <c r="D289" s="58"/>
+      <c r="E289" s="67"/>
       <c r="F289" s="52"/>
-      <c r="G289" s="52"/>
+      <c r="G289" s="58"/>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="66"/>
-      <c r="B290" s="58"/>
-      <c r="C290" s="58"/>
-      <c r="D290" s="58"/>
-      <c r="E290" s="67"/>
+      <c r="B290" s="66"/>
+      <c r="C290" s="66"/>
+      <c r="D290" s="52"/>
+      <c r="E290" s="68"/>
       <c r="F290" s="52"/>
-      <c r="G290" s="58"/>
+      <c r="G290" s="52"/>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="66"/>
@@ -10322,49 +10312,49 @@
       <c r="G293" s="52"/>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A294" s="66"/>
-      <c r="B294" s="66"/>
-      <c r="C294" s="66"/>
-      <c r="D294" s="52"/>
-      <c r="E294" s="68"/>
-      <c r="F294" s="52"/>
-      <c r="G294" s="52"/>
+      <c r="A294" s="69"/>
+      <c r="B294" s="69"/>
+      <c r="C294" s="69"/>
+      <c r="D294" s="69"/>
+      <c r="E294" s="70"/>
+      <c r="F294" s="69"/>
+      <c r="G294" s="63"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A295" s="69"/>
-      <c r="B295" s="69"/>
-      <c r="C295" s="69"/>
-      <c r="D295" s="69"/>
-      <c r="E295" s="70"/>
-      <c r="F295" s="69"/>
-      <c r="G295" s="63"/>
+      <c r="A295" s="66"/>
+      <c r="B295" s="52"/>
+      <c r="C295" s="52"/>
+      <c r="D295" s="52"/>
+      <c r="E295" s="54"/>
+      <c r="F295" s="52"/>
+      <c r="G295" s="52"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="66"/>
       <c r="B296" s="52"/>
       <c r="C296" s="52"/>
-      <c r="D296" s="52"/>
+      <c r="D296" s="54"/>
       <c r="E296" s="54"/>
       <c r="F296" s="52"/>
       <c r="G296" s="52"/>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A297" s="66"/>
-      <c r="B297" s="52"/>
-      <c r="C297" s="52"/>
-      <c r="D297" s="54"/>
-      <c r="E297" s="54"/>
-      <c r="F297" s="52"/>
-      <c r="G297" s="52"/>
+      <c r="A297" s="69"/>
+      <c r="B297" s="69"/>
+      <c r="C297" s="69"/>
+      <c r="D297" s="69"/>
+      <c r="E297" s="70"/>
+      <c r="F297" s="69"/>
+      <c r="G297" s="63"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A298" s="69"/>
-      <c r="B298" s="69"/>
-      <c r="C298" s="69"/>
-      <c r="D298" s="69"/>
-      <c r="E298" s="70"/>
-      <c r="F298" s="69"/>
-      <c r="G298" s="63"/>
+      <c r="A298" s="66"/>
+      <c r="B298" s="58"/>
+      <c r="C298" s="58"/>
+      <c r="D298" s="58"/>
+      <c r="E298" s="67"/>
+      <c r="F298" s="52"/>
+      <c r="G298" s="58"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="66"/>
@@ -10376,13 +10366,13 @@
       <c r="G299" s="58"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A300" s="66"/>
-      <c r="B300" s="58"/>
-      <c r="C300" s="58"/>
-      <c r="D300" s="58"/>
-      <c r="E300" s="67"/>
-      <c r="F300" s="52"/>
-      <c r="G300" s="58"/>
+      <c r="A300" s="69"/>
+      <c r="B300" s="69"/>
+      <c r="C300" s="69"/>
+      <c r="D300" s="69"/>
+      <c r="E300" s="70"/>
+      <c r="F300" s="69"/>
+      <c r="G300" s="63"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="69"/>
@@ -10392,15 +10382,6 @@
       <c r="E301" s="70"/>
       <c r="F301" s="69"/>
       <c r="G301" s="63"/>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A302" s="69"/>
-      <c r="B302" s="69"/>
-      <c r="C302" s="69"/>
-      <c r="D302" s="69"/>
-      <c r="E302" s="70"/>
-      <c r="F302" s="69"/>
-      <c r="G302" s="63"/>
     </row>
   </sheetData>
   <sortState ref="A2:G84">
@@ -10412,10 +10393,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10544,7 +10525,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="87">
         <v>34852</v>
@@ -10588,7 +10569,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="87">
         <v>35222</v>
@@ -10945,7 +10926,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="90">
         <v>37050</v>
@@ -10989,7 +10970,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" s="67">
         <v>37405</v>
@@ -11094,13 +11075,13 @@
         <v>22</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E32" s="67">
-        <v>37733</v>
+        <v>37844</v>
       </c>
       <c r="F32" s="58" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G32" s="46"/>
     </row>
@@ -11115,15 +11096,17 @@
         <v>22</v>
       </c>
       <c r="D33" s="58" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E33" s="67">
-        <v>37844</v>
-      </c>
-      <c r="F33" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="46"/>
+        <v>38075</v>
+      </c>
+      <c r="F33" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="58">
+        <v>250</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="69">
@@ -11136,17 +11119,13 @@
         <v>22</v>
       </c>
       <c r="D34" s="58" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E34" s="67">
         <v>38075</v>
       </c>
-      <c r="F34" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="58">
-        <v>250</v>
-      </c>
+      <c r="F34" s="58"/>
+      <c r="G34" s="46"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="69">
@@ -11159,12 +11138,14 @@
         <v>22</v>
       </c>
       <c r="D35" s="58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E35" s="67">
-        <v>38075</v>
-      </c>
-      <c r="F35" s="58"/>
+        <v>38078</v>
+      </c>
+      <c r="F35" s="58" t="s">
+        <v>25</v>
+      </c>
       <c r="G35" s="46"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -11178,15 +11159,17 @@
         <v>22</v>
       </c>
       <c r="D36" s="58" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" s="67">
-        <v>38078</v>
-      </c>
-      <c r="F36" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="46"/>
+        <v>38084</v>
+      </c>
+      <c r="F36" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="58">
+        <v>100</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="69">
@@ -11199,17 +11182,15 @@
         <v>22</v>
       </c>
       <c r="D37" s="58" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="67">
-        <v>38084</v>
-      </c>
-      <c r="F37" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="58">
-        <v>100</v>
-      </c>
+        <v>38106</v>
+      </c>
+      <c r="F37" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="46"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="69">
@@ -11222,12 +11203,14 @@
         <v>22</v>
       </c>
       <c r="D38" s="58" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E38" s="67">
-        <v>38084</v>
-      </c>
-      <c r="F38" s="58"/>
+        <v>38236</v>
+      </c>
+      <c r="F38" s="58" t="s">
+        <v>25</v>
+      </c>
       <c r="G38" s="46"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -11241,13 +11224,10 @@
         <v>22</v>
       </c>
       <c r="D39" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="67">
-        <v>38091</v>
-      </c>
-      <c r="F39" s="58" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="E39" s="101">
+        <v>38443</v>
       </c>
       <c r="G39" s="46"/>
     </row>
@@ -11264,11 +11244,11 @@
       <c r="D40" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="67">
-        <v>38106</v>
+      <c r="E40" s="101">
+        <v>38444</v>
       </c>
       <c r="F40" s="58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G40" s="46"/>
     </row>
@@ -11286,10 +11266,10 @@
         <v>8</v>
       </c>
       <c r="E41" s="67">
-        <v>38236</v>
+        <v>38523</v>
       </c>
       <c r="F41" s="58" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G41" s="46"/>
     </row>
@@ -11304,13 +11284,13 @@
         <v>22</v>
       </c>
       <c r="D42" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="67">
-        <v>38523</v>
+        <v>30</v>
+      </c>
+      <c r="E42" s="93">
+        <v>38583</v>
       </c>
       <c r="F42" s="58" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G42" s="46"/>
     </row>
@@ -11325,10 +11305,10 @@
         <v>22</v>
       </c>
       <c r="D43" s="58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E43" s="93">
-        <v>38583</v>
+        <v>38644</v>
       </c>
       <c r="F43" s="58" t="s">
         <v>26</v>
@@ -11336,25 +11316,23 @@
       <c r="G43" s="46"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="69">
-        <v>4</v>
-      </c>
-      <c r="B44" s="58">
+      <c r="A44" s="66">
+        <v>4</v>
+      </c>
+      <c r="B44" s="52">
         <v>2</v>
       </c>
-      <c r="C44" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" s="93">
-        <v>38644</v>
-      </c>
-      <c r="F44" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" s="46"/>
+      <c r="C44" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="54">
+        <v>38826</v>
+      </c>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="66">
@@ -11366,35 +11344,37 @@
       <c r="C45" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="52" t="s">
-        <v>12</v>
+      <c r="D45" s="54" t="s">
+        <v>13</v>
       </c>
       <c r="E45" s="54">
-        <v>38826</v>
-      </c>
-      <c r="F45" s="52"/>
+        <v>38834</v>
+      </c>
+      <c r="F45" s="52" t="s">
+        <v>28</v>
+      </c>
       <c r="G45" s="52"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="66">
         <v>4</v>
       </c>
-      <c r="B46" s="52">
+      <c r="B46" s="58">
         <v>2</v>
       </c>
-      <c r="C46" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="54">
-        <v>38834</v>
-      </c>
-      <c r="F46" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" s="52"/>
+      <c r="C46" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="67">
+        <v>38887</v>
+      </c>
+      <c r="F46" s="52"/>
+      <c r="G46" s="58">
+        <v>32</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="66">
@@ -11410,121 +11390,121 @@
         <v>20</v>
       </c>
       <c r="E47" s="67">
-        <v>38887</v>
+        <v>38906</v>
       </c>
       <c r="F47" s="52"/>
       <c r="G47" s="58">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="66">
         <v>4</v>
       </c>
-      <c r="B48" s="58">
+      <c r="B48" s="52">
         <v>2</v>
       </c>
-      <c r="C48" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="67">
-        <v>38906</v>
-      </c>
-      <c r="F48" s="52"/>
-      <c r="G48" s="58">
-        <v>40</v>
-      </c>
+      <c r="C48" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="54">
+        <v>38940</v>
+      </c>
+      <c r="F48" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="52"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="66">
-        <v>4</v>
-      </c>
-      <c r="B49" s="52">
+      <c r="A49" s="69">
+        <v>4</v>
+      </c>
+      <c r="B49" s="69">
         <v>2</v>
       </c>
-      <c r="C49" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="54">
-        <v>38940</v>
-      </c>
-      <c r="F49" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" s="52"/>
+      <c r="C49" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="70">
+        <v>39163</v>
+      </c>
+      <c r="F49" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="63">
+        <v>105</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="69">
-        <v>4</v>
-      </c>
-      <c r="B50" s="69">
+      <c r="A50" s="66">
+        <v>4</v>
+      </c>
+      <c r="B50" s="66">
         <v>2</v>
       </c>
-      <c r="C50" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="69" t="s">
+      <c r="C50" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="68">
+        <v>39226</v>
+      </c>
+      <c r="F50" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="52"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="69">
+        <v>4</v>
+      </c>
+      <c r="B51" s="69">
+        <v>2</v>
+      </c>
+      <c r="C51" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="70">
-        <v>39163</v>
-      </c>
-      <c r="F50" s="69" t="s">
+      <c r="E51" s="70">
+        <v>39231</v>
+      </c>
+      <c r="F51" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G50" s="63">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="66">
-        <v>4</v>
-      </c>
-      <c r="B51" s="66">
+      <c r="G51" s="63">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="66">
+        <v>4</v>
+      </c>
+      <c r="B52" s="66">
         <v>2</v>
       </c>
-      <c r="C51" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="68">
-        <v>39226</v>
-      </c>
-      <c r="F51" s="52" t="s">
+      <c r="C52" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="68">
+        <v>39266</v>
+      </c>
+      <c r="F52" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G51" s="52"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="69">
-        <v>4</v>
-      </c>
-      <c r="B52" s="69">
-        <v>2</v>
-      </c>
-      <c r="C52" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="70">
-        <v>39231</v>
-      </c>
-      <c r="F52" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="63">
-        <v>109</v>
-      </c>
+      <c r="G52" s="52"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="66">
@@ -11537,10 +11517,10 @@
         <v>22</v>
       </c>
       <c r="D53" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E53" s="68">
-        <v>39266</v>
+        <v>39301</v>
       </c>
       <c r="F53" s="52" t="s">
         <v>9</v>
@@ -11558,10 +11538,10 @@
         <v>22</v>
       </c>
       <c r="D54" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E54" s="68">
-        <v>39301</v>
+        <v>39371</v>
       </c>
       <c r="F54" s="52" t="s">
         <v>9</v>
@@ -11569,92 +11549,92 @@
       <c r="G54" s="52"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="66">
-        <v>4</v>
-      </c>
-      <c r="B55" s="66">
+      <c r="A55" s="69">
+        <v>4</v>
+      </c>
+      <c r="B55" s="69">
         <v>2</v>
       </c>
-      <c r="C55" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="E55" s="68">
-        <v>39371</v>
-      </c>
-      <c r="F55" s="52" t="s">
+      <c r="C55" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="70">
+        <v>39546</v>
+      </c>
+      <c r="F55" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="66">
+        <v>4</v>
+      </c>
+      <c r="B56" s="66">
+        <v>2</v>
+      </c>
+      <c r="C56" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="68">
+        <v>39595</v>
+      </c>
+      <c r="F56" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G55" s="52"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="69">
-        <v>4</v>
-      </c>
-      <c r="B56" s="69">
+      <c r="G56" s="52"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="69">
+        <v>4</v>
+      </c>
+      <c r="B57" s="69">
         <v>2</v>
       </c>
-      <c r="C56" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="69" t="s">
+      <c r="C57" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="70">
-        <v>39546</v>
-      </c>
-      <c r="F56" s="69" t="s">
+      <c r="E57" s="70">
+        <v>39603</v>
+      </c>
+      <c r="F57" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="63">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="66">
-        <v>4</v>
-      </c>
-      <c r="B57" s="66">
+      <c r="G57" s="63">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="66">
+        <v>4</v>
+      </c>
+      <c r="B58" s="66">
         <v>2</v>
       </c>
-      <c r="C57" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="E57" s="68">
-        <v>39595</v>
-      </c>
-      <c r="F57" s="52" t="s">
+      <c r="C58" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="68">
+        <v>39637</v>
+      </c>
+      <c r="F58" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G57" s="52"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="69">
-        <v>4</v>
-      </c>
-      <c r="B58" s="69">
-        <v>2</v>
-      </c>
-      <c r="C58" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="70">
-        <v>39603</v>
-      </c>
-      <c r="F58" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="63">
-        <v>104</v>
-      </c>
+      <c r="G58" s="52"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="66">
@@ -11667,10 +11647,10 @@
         <v>22</v>
       </c>
       <c r="D59" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E59" s="68">
-        <v>39637</v>
+        <v>39679</v>
       </c>
       <c r="F59" s="52" t="s">
         <v>9</v>
@@ -11688,10 +11668,10 @@
         <v>22</v>
       </c>
       <c r="D60" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E60" s="68">
-        <v>39679</v>
+        <v>39735</v>
       </c>
       <c r="F60" s="52" t="s">
         <v>9</v>
@@ -11702,21 +11682,19 @@
       <c r="A61" s="66">
         <v>4</v>
       </c>
-      <c r="B61" s="66">
+      <c r="B61" s="52">
         <v>2</v>
       </c>
-      <c r="C61" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="E61" s="68">
-        <v>39735</v>
-      </c>
-      <c r="F61" s="52" t="s">
-        <v>9</v>
-      </c>
+      <c r="C61" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="54">
+        <v>39903</v>
+      </c>
+      <c r="F61" s="52"/>
       <c r="G61" s="52"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -11729,35 +11707,37 @@
       <c r="C62" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="52" t="s">
-        <v>12</v>
+      <c r="D62" s="54" t="s">
+        <v>13</v>
       </c>
       <c r="E62" s="54">
-        <v>39903</v>
-      </c>
-      <c r="F62" s="52"/>
+        <v>39909</v>
+      </c>
+      <c r="F62" s="52" t="s">
+        <v>21</v>
+      </c>
       <c r="G62" s="52"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="66">
         <v>4</v>
       </c>
-      <c r="B63" s="52">
+      <c r="B63" s="58">
         <v>2</v>
       </c>
-      <c r="C63" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="54">
-        <v>39909</v>
-      </c>
-      <c r="F63" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" s="52"/>
+      <c r="C63" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="67">
+        <v>39968</v>
+      </c>
+      <c r="F63" s="52"/>
+      <c r="G63" s="58">
+        <v>43</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="66">
@@ -11773,32 +11753,34 @@
         <v>20</v>
       </c>
       <c r="E64" s="67">
-        <v>39968</v>
+        <v>39989</v>
       </c>
       <c r="F64" s="52"/>
       <c r="G64" s="58">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="66">
-        <v>4</v>
-      </c>
-      <c r="B65" s="58">
+      <c r="A65" s="69">
+        <v>4</v>
+      </c>
+      <c r="B65" s="69">
         <v>2</v>
       </c>
-      <c r="C65" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E65" s="67">
-        <v>39989</v>
-      </c>
-      <c r="F65" s="52"/>
-      <c r="G65" s="58">
-        <v>42</v>
+      <c r="C65" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="70">
+        <v>40287</v>
+      </c>
+      <c r="F65" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="63">
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -11815,58 +11797,56 @@
         <v>10</v>
       </c>
       <c r="E66" s="70">
-        <v>40287</v>
+        <v>40305</v>
       </c>
       <c r="F66" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G66" s="63">
-        <v>159</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="69">
-        <v>4</v>
-      </c>
-      <c r="B67" s="69">
+      <c r="A67" s="66">
+        <v>4</v>
+      </c>
+      <c r="B67" s="52">
         <v>2</v>
       </c>
-      <c r="C67" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="70">
+      <c r="C67" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="54">
         <v>40305</v>
       </c>
-      <c r="F67" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="63">
-        <v>55</v>
-      </c>
+      <c r="F67" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" s="52"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="66">
         <v>4</v>
       </c>
-      <c r="B68" s="52">
+      <c r="B68" s="58">
         <v>2</v>
       </c>
-      <c r="C68" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="D68" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="54">
-        <v>40305</v>
-      </c>
-      <c r="F68" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" s="52"/>
+      <c r="C68" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" s="67">
+        <v>40364</v>
+      </c>
+      <c r="F68" s="52"/>
+      <c r="G68" s="58">
+        <v>10</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="66">
@@ -11882,54 +11862,33 @@
         <v>20</v>
       </c>
       <c r="E69" s="67">
-        <v>40364</v>
+        <v>40388</v>
       </c>
       <c r="F69" s="52"/>
       <c r="G69" s="58">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="66">
         <v>4</v>
       </c>
-      <c r="B70" s="58">
+      <c r="B70" s="52">
         <v>2</v>
       </c>
-      <c r="C70" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="D70" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E70" s="67">
-        <v>40388</v>
-      </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="58">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="66">
-        <v>4</v>
-      </c>
-      <c r="B71" s="52">
-        <v>2</v>
-      </c>
-      <c r="C71" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" s="52" t="s">
+      <c r="C70" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="54">
+      <c r="E70" s="54">
         <v>40479</v>
       </c>
-      <c r="F71" s="52" t="s">
+      <c r="F70" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="G71" s="52"/>
+      <c r="G70" s="52"/>
     </row>
   </sheetData>
   <sortState ref="A2:G71">
@@ -11943,8 +11902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12158,7 +12117,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="87">
         <v>35222</v>
@@ -12202,7 +12161,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="87">
         <v>35592</v>
@@ -12559,7 +12518,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E29" s="67">
         <v>37405</v>
@@ -12580,7 +12539,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" s="67">
         <v>37469</v>
@@ -12624,7 +12583,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32" s="67">
         <v>37774</v>
@@ -12645,7 +12604,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="67">
         <v>37834</v>
@@ -12960,7 +12919,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E48" s="54">
         <v>38953</v>
@@ -12981,7 +12940,7 @@
         <v>7</v>
       </c>
       <c r="D49" s="52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E49" s="54">
         <v>39002</v>
@@ -13027,7 +12986,7 @@
         <v>39175</v>
       </c>
       <c r="F51" s="52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G51" s="82"/>
     </row>
@@ -13086,7 +13045,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E54" s="68">
         <v>39594</v>
@@ -13130,7 +13089,7 @@
         <v>7</v>
       </c>
       <c r="D56" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E56" s="68">
         <v>39637</v>
@@ -13151,7 +13110,7 @@
         <v>7</v>
       </c>
       <c r="D57" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E57" s="68">
         <v>39681</v>
@@ -13172,7 +13131,7 @@
         <v>7</v>
       </c>
       <c r="D58" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E58" s="68">
         <v>39735</v>
@@ -13216,7 +13175,7 @@
         <v>7</v>
       </c>
       <c r="D60" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E60" s="68">
         <v>39959</v>
@@ -13302,7 +13261,7 @@
         <v>7</v>
       </c>
       <c r="D64" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E64" s="68">
         <v>40000</v>
@@ -13344,7 +13303,7 @@
         <v>7</v>
       </c>
       <c r="D66" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E66" s="68">
         <v>40044</v>
@@ -13365,7 +13324,7 @@
         <v>7</v>
       </c>
       <c r="D67" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E67" s="68">
         <v>40106</v>
@@ -13386,7 +13345,7 @@
         <v>7</v>
       </c>
       <c r="D68" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E68" s="68">
         <v>40337</v>
@@ -13428,7 +13387,7 @@
         <v>7</v>
       </c>
       <c r="D70" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E70" s="68">
         <v>40373</v>
@@ -13470,7 +13429,7 @@
         <v>7</v>
       </c>
       <c r="D72" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E72" s="68">
         <v>40416</v>
@@ -13491,7 +13450,7 @@
         <v>7</v>
       </c>
       <c r="D73" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E73" s="68">
         <v>40463</v>
@@ -13502,27 +13461,13 @@
       <c r="G73" s="98"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="69">
-        <v>4</v>
-      </c>
-      <c r="B74" s="69">
-        <v>3</v>
-      </c>
-      <c r="C74" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="70">
-        <v>40625</v>
-      </c>
-      <c r="F74" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="63">
-        <v>95</v>
-      </c>
+      <c r="A74" s="69"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="69"/>
+      <c r="G74" s="63"/>
     </row>
   </sheetData>
   <sortState ref="A2:G72">
@@ -13536,8 +13481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13810,7 +13755,7 @@
         <v>34817</v>
       </c>
       <c r="F8" s="75" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G8" s="46"/>
       <c r="H8" s="69"/>
@@ -13874,7 +13819,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="87">
         <v>35222</v>
@@ -13946,7 +13891,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="87">
         <v>35592</v>
@@ -14541,7 +14486,7 @@
         <v>22</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E29" s="67">
         <v>37405</v>
@@ -14576,10 +14521,10 @@
         <v>22</v>
       </c>
       <c r="D30" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" s="101">
-        <v>37467</v>
+        <v>37469</v>
       </c>
       <c r="F30" s="58" t="s">
         <v>9</v>
@@ -14648,7 +14593,7 @@
         <v>22</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32" s="67">
         <v>37774</v>
@@ -14683,7 +14628,7 @@
         <v>22</v>
       </c>
       <c r="D33" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="101">
         <v>37834</v>
@@ -15247,7 +15192,7 @@
         <v>38973</v>
       </c>
       <c r="F49" s="103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" s="52"/>
       <c r="H49" s="69"/>
@@ -15315,7 +15260,7 @@
         <v>39175</v>
       </c>
       <c r="F51" s="52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G51" s="52"/>
       <c r="H51" s="66"/>
@@ -15416,7 +15361,7 @@
         <v>22</v>
       </c>
       <c r="D54" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E54" s="68">
         <v>39595</v>
@@ -15451,7 +15396,7 @@
         <v>22</v>
       </c>
       <c r="D55" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E55" s="68">
         <v>39595</v>
@@ -15523,7 +15468,7 @@
         <v>22</v>
       </c>
       <c r="D57" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E57" s="68">
         <v>39637</v>
@@ -15558,7 +15503,7 @@
         <v>22</v>
       </c>
       <c r="D58" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E58" s="68">
         <v>39637</v>
@@ -15593,7 +15538,7 @@
         <v>22</v>
       </c>
       <c r="D59" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E59" s="68">
         <v>39679</v>
@@ -15628,7 +15573,7 @@
         <v>22</v>
       </c>
       <c r="D60" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E60" s="68">
         <v>39679</v>
@@ -15663,7 +15608,7 @@
         <v>22</v>
       </c>
       <c r="D61" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E61" s="68">
         <v>39735</v>
@@ -15698,7 +15643,7 @@
         <v>22</v>
       </c>
       <c r="D62" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E62" s="68">
         <v>39735</v>
@@ -15770,7 +15715,7 @@
         <v>22</v>
       </c>
       <c r="D64" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E64" s="68">
         <v>39952</v>
@@ -15805,7 +15750,7 @@
         <v>22</v>
       </c>
       <c r="D65" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E65" s="68">
         <v>39952</v>
@@ -15947,7 +15892,7 @@
         <v>22</v>
       </c>
       <c r="D69" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E69" s="68">
         <v>40000</v>
@@ -15982,7 +15927,7 @@
         <v>22</v>
       </c>
       <c r="D70" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E70" s="68">
         <v>40000</v>
@@ -16052,7 +15997,7 @@
         <v>22</v>
       </c>
       <c r="D72" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E72" s="68">
         <v>40039</v>
@@ -16087,7 +16032,7 @@
         <v>22</v>
       </c>
       <c r="D73" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E73" s="68">
         <v>40039</v>
@@ -16122,7 +16067,7 @@
         <v>22</v>
       </c>
       <c r="D74" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E74" s="68">
         <v>40107</v>
@@ -16157,7 +16102,7 @@
         <v>22</v>
       </c>
       <c r="D75" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E75" s="68">
         <v>40107</v>
@@ -16260,8 +16205,8 @@
       <c r="E78" s="54">
         <v>40290</v>
       </c>
-      <c r="F78" s="52" t="s">
-        <v>28</v>
+      <c r="F78" s="103" t="s">
+        <v>21</v>
       </c>
       <c r="G78" s="52"/>
       <c r="H78" s="69"/>
@@ -16387,27 +16332,13 @@
       <c r="V81" s="46"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A82" s="69">
-        <v>4</v>
-      </c>
-      <c r="B82" s="69">
-        <v>3</v>
-      </c>
-      <c r="C82" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D82" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="70">
-        <v>40625</v>
-      </c>
-      <c r="F82" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" s="63">
-        <v>95</v>
-      </c>
+      <c r="A82" s="69"/>
+      <c r="B82" s="69"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="69"/>
+      <c r="G82" s="63"/>
       <c r="H82" s="69"/>
       <c r="I82" s="78"/>
       <c r="J82" s="46"/>
@@ -16424,27 +16355,13 @@
       <c r="V82" s="46"/>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A83" s="69">
-        <v>4</v>
-      </c>
-      <c r="B83" s="69">
-        <v>3</v>
-      </c>
-      <c r="C83" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D83" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="70">
-        <v>40710</v>
-      </c>
-      <c r="F83" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" s="63">
-        <v>106</v>
-      </c>
+      <c r="A83" s="69"/>
+      <c r="B83" s="69"/>
+      <c r="C83" s="69"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="69"/>
+      <c r="G83" s="63"/>
       <c r="I83" s="69"/>
       <c r="J83" s="75"/>
       <c r="K83" s="46"/>
